--- a/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9830159000834695</v>
+        <v>0.9830159000834696</v>
       </c>
       <c r="D2">
         <v>1.004003442478536</v>
       </c>
       <c r="E2">
-        <v>0.9919050948306289</v>
+        <v>0.9919050948306296</v>
       </c>
       <c r="F2">
-        <v>0.984448267136254</v>
+        <v>0.9844482671362544</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.00571674743344</v>
       </c>
       <c r="K2">
-        <v>1.015407283342287</v>
+        <v>1.015407283342288</v>
       </c>
       <c r="L2">
         <v>1.003478368545383</v>
       </c>
       <c r="M2">
-        <v>0.9961286000737096</v>
+        <v>0.9961286000737101</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900135954312766</v>
+        <v>0.9900135954312764</v>
       </c>
       <c r="D3">
         <v>1.009276064268689</v>
       </c>
       <c r="E3">
-        <v>0.9978850121427957</v>
+        <v>0.9978850121427955</v>
       </c>
       <c r="F3">
-        <v>0.9923742213622754</v>
+        <v>0.992374221362275</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>1.008545026354274</v>
       </c>
       <c r="M3">
-        <v>1.003105614386052</v>
+        <v>1.003105614386051</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.994404787015573</v>
+        <v>0.9944047870155751</v>
       </c>
       <c r="D4">
-        <v>1.012585390664502</v>
+        <v>1.012585390664503</v>
       </c>
       <c r="E4">
-        <v>1.001643568564341</v>
+        <v>1.001643568564343</v>
       </c>
       <c r="F4">
-        <v>0.9973523534083464</v>
+        <v>0.9973523534083484</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.042067564508433</v>
       </c>
       <c r="J4">
-        <v>1.013952709971575</v>
+        <v>1.013952709971577</v>
       </c>
       <c r="K4">
-        <v>1.022534257538213</v>
+        <v>1.022534257538215</v>
       </c>
       <c r="L4">
-        <v>1.011722197554678</v>
+        <v>1.011722197554679</v>
       </c>
       <c r="M4">
-        <v>1.007482838578437</v>
+        <v>1.007482838578439</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962198956492827</v>
+        <v>0.9962198956492834</v>
       </c>
       <c r="D5">
         <v>1.013953354206409</v>
       </c>
       <c r="E5">
-        <v>1.003198552305514</v>
+        <v>1.003198552305515</v>
       </c>
       <c r="F5">
-        <v>0.9994112069229533</v>
+        <v>0.9994112069229537</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042619928547592</v>
+        <v>1.042619928547593</v>
       </c>
       <c r="J5">
-        <v>1.015262796054605</v>
+        <v>1.015262796054606</v>
       </c>
       <c r="K5">
-        <v>1.023665789349266</v>
+        <v>1.023665789349267</v>
       </c>
       <c r="L5">
-        <v>1.013034890987407</v>
+        <v>1.013034890987408</v>
       </c>
       <c r="M5">
-        <v>1.009291964610163</v>
+        <v>1.009291964610164</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9965228950456475</v>
+        <v>0.9965228950456474</v>
       </c>
       <c r="D6">
         <v>1.014181710491937</v>
@@ -582,7 +582,7 @@
         <v>1.003458207492689</v>
       </c>
       <c r="F6">
-        <v>0.9997549634958636</v>
+        <v>0.9997549634958638</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>1.015481415577566</v>
       </c>
       <c r="K6">
-        <v>1.023854549652311</v>
+        <v>1.023854549652312</v>
       </c>
       <c r="L6">
         <v>1.01325398460618</v>
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944291599254365</v>
+        <v>0.9944291599254367</v>
       </c>
       <c r="D7">
         <v>1.012603759358818</v>
@@ -620,7 +620,7 @@
         <v>1.001664443215037</v>
       </c>
       <c r="F7">
-        <v>0.9973799947108868</v>
+        <v>0.9973799947108863</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.042074998120058</v>
       </c>
       <c r="J7">
-        <v>1.013970306589491</v>
+        <v>1.013970306589492</v>
       </c>
       <c r="K7">
         <v>1.022549460109163</v>
       </c>
       <c r="L7">
-        <v>1.011739826570939</v>
+        <v>1.011739826570938</v>
       </c>
       <c r="M7">
-        <v>1.007507131947766</v>
+        <v>1.007507131947765</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854102584342436</v>
+        <v>0.9854102584342427</v>
       </c>
       <c r="D8">
-        <v>1.005807335126027</v>
+        <v>1.005807335126026</v>
       </c>
       <c r="E8">
-        <v>0.9939498841426485</v>
+        <v>0.9939498841426476</v>
       </c>
       <c r="F8">
-        <v>0.987159347486483</v>
+        <v>0.9871593474864817</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039295450061153</v>
+        <v>1.039295450061152</v>
       </c>
       <c r="J8">
-        <v>1.007450312401017</v>
+        <v>1.007450312401016</v>
       </c>
       <c r="K8">
-        <v>1.016909212813434</v>
+        <v>1.016909212813433</v>
       </c>
       <c r="L8">
-        <v>1.005212436605784</v>
+        <v>1.005212436605783</v>
       </c>
       <c r="M8">
-        <v>0.9985161094877044</v>
+        <v>0.9985161094877033</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9683804702476354</v>
+        <v>0.9683804702476327</v>
       </c>
       <c r="D9">
-        <v>0.9929850688535298</v>
+        <v>0.9929850688535273</v>
       </c>
       <c r="E9">
-        <v>0.9794359383556509</v>
+        <v>0.9794359383556488</v>
       </c>
       <c r="F9">
-        <v>0.9678929787535133</v>
+        <v>0.967892978753511</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033912080767006</v>
+        <v>1.033912080767005</v>
       </c>
       <c r="J9">
-        <v>0.9951014235795924</v>
+        <v>0.9951014235795901</v>
       </c>
       <c r="K9">
-        <v>1.006192993060698</v>
+        <v>1.006192993060696</v>
       </c>
       <c r="L9">
-        <v>0.992871703589725</v>
+        <v>0.9928717035897228</v>
       </c>
       <c r="M9">
-        <v>0.9815293742037015</v>
+        <v>0.981529374203699</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9561208802481447</v>
+        <v>0.9561208802481453</v>
       </c>
       <c r="D10">
-        <v>0.9837707862579602</v>
+        <v>0.983770786257961</v>
       </c>
       <c r="E10">
-        <v>0.9690296874569375</v>
+        <v>0.9690296874569384</v>
       </c>
       <c r="F10">
-        <v>0.9540398374554665</v>
+        <v>0.9540398374554674</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029950019141967</v>
+        <v>1.029950019141968</v>
       </c>
       <c r="J10">
-        <v>0.9861904803462083</v>
+        <v>0.9861904803462093</v>
       </c>
       <c r="K10">
-        <v>0.9984393798750976</v>
+        <v>0.9984393798750983</v>
       </c>
       <c r="L10">
-        <v>0.983981578464355</v>
+        <v>0.9839815784643557</v>
       </c>
       <c r="M10">
-        <v>0.9692916460122565</v>
+        <v>0.9692916460122573</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9505599963261037</v>
+        <v>0.950559996326104</v>
       </c>
       <c r="D11">
-        <v>0.9795973813597226</v>
+        <v>0.9795973813597231</v>
       </c>
       <c r="E11">
-        <v>0.9643210664728318</v>
+        <v>0.9643210664728316</v>
       </c>
       <c r="F11">
-        <v>0.9477585174738702</v>
+        <v>0.9477585174738701</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.028133604779685</v>
       </c>
       <c r="J11">
-        <v>0.9821446700978835</v>
+        <v>0.9821446700978839</v>
       </c>
       <c r="K11">
-        <v>0.9949145982374742</v>
+        <v>0.9949145982374744</v>
       </c>
       <c r="L11">
-        <v>0.9799487308830952</v>
+        <v>0.979948730883095</v>
       </c>
       <c r="M11">
-        <v>0.9637377877975463</v>
+        <v>0.9637377877975462</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9484528094713239</v>
+        <v>0.9484528094713236</v>
       </c>
       <c r="D12">
-        <v>0.9780170914311602</v>
+        <v>0.9780170914311597</v>
       </c>
       <c r="E12">
         <v>0.9625387214127245</v>
       </c>
       <c r="F12">
-        <v>0.9453785391540408</v>
+        <v>0.9453785391540405</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027442545009636</v>
+        <v>1.027442545009635</v>
       </c>
       <c r="J12">
-        <v>0.9806111217532164</v>
+        <v>0.9806111217532161</v>
       </c>
       <c r="K12">
-        <v>0.9935779256542473</v>
+        <v>0.9935779256542469</v>
       </c>
       <c r="L12">
-        <v>0.9784206203503113</v>
+        <v>0.9784206203503112</v>
       </c>
       <c r="M12">
-        <v>0.9616327546853201</v>
+        <v>0.9616327546853197</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9489067570125376</v>
+        <v>0.9489067570125362</v>
       </c>
       <c r="D13">
-        <v>0.9783574753802866</v>
+        <v>0.9783574753802855</v>
       </c>
       <c r="E13">
-        <v>0.9629226008110227</v>
+        <v>0.9629226008110209</v>
       </c>
       <c r="F13">
-        <v>0.9458912472473964</v>
+        <v>0.945891247247395</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.027591541440277</v>
       </c>
       <c r="J13">
-        <v>0.9809415106157767</v>
+        <v>0.9809415106157754</v>
       </c>
       <c r="K13">
-        <v>0.9938659265290628</v>
+        <v>0.9938659265290618</v>
       </c>
       <c r="L13">
-        <v>0.9787498140760557</v>
+        <v>0.9787498140760539</v>
       </c>
       <c r="M13">
-        <v>0.9620862625201833</v>
+        <v>0.962086262520182</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9503866880308355</v>
+        <v>0.950386688030836</v>
       </c>
       <c r="D14">
-        <v>0.9794673839647536</v>
+        <v>0.9794673839647544</v>
       </c>
       <c r="E14">
-        <v>0.9641744358977263</v>
+        <v>0.9641744358977273</v>
       </c>
       <c r="F14">
-        <v>0.9475627699470325</v>
+        <v>0.9475627699470336</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.0280768229716</v>
       </c>
       <c r="J14">
-        <v>0.9820185502642581</v>
+        <v>0.9820185502642587</v>
       </c>
       <c r="K14">
-        <v>0.9948046818106853</v>
+        <v>0.9948046818106859</v>
       </c>
       <c r="L14">
-        <v>0.979823047647899</v>
+        <v>0.9798230476479</v>
       </c>
       <c r="M14">
-        <v>0.9635646674180295</v>
+        <v>0.9635646674180306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -924,7 +924,7 @@
         <v>0.9649412194716021</v>
       </c>
       <c r="F15">
-        <v>0.948586306917043</v>
+        <v>0.9485863069170428</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.028373613583175</v>
       </c>
       <c r="J15">
-        <v>0.9826779905324131</v>
+        <v>0.982677990532413</v>
       </c>
       <c r="K15">
-        <v>0.9953793748361403</v>
+        <v>0.9953793748361404</v>
       </c>
       <c r="L15">
-        <v>0.9804802263623793</v>
+        <v>0.9804802263623794</v>
       </c>
       <c r="M15">
-        <v>0.9644698625686764</v>
+        <v>0.9644698625686763</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9564843149136405</v>
+        <v>0.9564843149136418</v>
       </c>
       <c r="D16">
-        <v>0.9840436860972657</v>
+        <v>0.9840436860972669</v>
       </c>
       <c r="E16">
-        <v>0.9693376740907145</v>
+        <v>0.9693376740907157</v>
       </c>
       <c r="F16">
-        <v>0.9544503935128452</v>
+        <v>0.9544503935128468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030068344331086</v>
+        <v>1.030068344331087</v>
       </c>
       <c r="J16">
-        <v>0.9864548258426867</v>
+        <v>0.9864548258426881</v>
       </c>
       <c r="K16">
-        <v>0.9986695946855818</v>
+        <v>0.998669594685583</v>
       </c>
       <c r="L16">
-        <v>0.9842451493061718</v>
+        <v>0.9842451493061732</v>
       </c>
       <c r="M16">
-        <v>0.9696545557961083</v>
+        <v>0.9696545557961097</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.95967072185597</v>
+        <v>0.9596707218559712</v>
       </c>
       <c r="D17">
-        <v>0.986437046562634</v>
+        <v>0.9864370465626352</v>
       </c>
       <c r="E17">
-        <v>0.972039264875619</v>
+        <v>0.9720392648756201</v>
       </c>
       <c r="F17">
-        <v>0.9580501896615341</v>
+        <v>0.9580501896615358</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031103603525499</v>
+        <v>1.0311036035255</v>
       </c>
       <c r="J17">
-        <v>0.9887720479760661</v>
+        <v>0.9887720479760673</v>
       </c>
       <c r="K17">
-        <v>1.000687137396317</v>
+        <v>1.000687137396318</v>
       </c>
       <c r="L17">
-        <v>0.9865559759876061</v>
+        <v>0.9865559759876071</v>
       </c>
       <c r="M17">
-        <v>0.9728360275366155</v>
+        <v>0.9728360275366167</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9615052214390681</v>
+        <v>0.96150522143907</v>
       </c>
       <c r="D18">
-        <v>0.9878155294674297</v>
+        <v>0.9878155294674311</v>
       </c>
       <c r="E18">
-        <v>0.9735957204433713</v>
+        <v>0.9735957204433727</v>
       </c>
       <c r="F18">
-        <v>0.9601229238910483</v>
+        <v>0.9601229238910497</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031697815646623</v>
+        <v>1.031697815646624</v>
       </c>
       <c r="J18">
-        <v>0.9901057653236894</v>
+        <v>0.9901057653236913</v>
       </c>
       <c r="K18">
-        <v>1.00184795031722</v>
+        <v>1.001847950317222</v>
       </c>
       <c r="L18">
-        <v>0.9878863417261472</v>
+        <v>0.9878863417261486</v>
       </c>
       <c r="M18">
-        <v>0.9746674199703625</v>
+        <v>0.9746674199703641</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9621267589688816</v>
+        <v>0.962126758968881</v>
       </c>
       <c r="D19">
-        <v>0.9882826555016977</v>
+        <v>0.9882826555016971</v>
       </c>
       <c r="E19">
-        <v>0.974123233884579</v>
+        <v>0.9741232338845789</v>
       </c>
       <c r="F19">
-        <v>0.9608252206560297</v>
+        <v>0.9608252206560292</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.031898826376406</v>
       </c>
       <c r="J19">
-        <v>0.9905575696324718</v>
+        <v>0.9905575696324713</v>
       </c>
       <c r="K19">
-        <v>1.002241109902552</v>
+        <v>1.002241109902551</v>
       </c>
       <c r="L19">
-        <v>0.9883370666250167</v>
+        <v>0.9883370666250163</v>
       </c>
       <c r="M19">
-        <v>0.975287861688014</v>
+        <v>0.9752878616880134</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9593313662092599</v>
+        <v>0.9593313662092596</v>
       </c>
       <c r="D20">
-        <v>0.9861820913798005</v>
+        <v>0.9861820913798004</v>
       </c>
       <c r="E20">
-        <v>0.9717514296182852</v>
+        <v>0.9717514296182849</v>
       </c>
       <c r="F20">
-        <v>0.9576667841848276</v>
+        <v>0.9576667841848275</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.030993535094922</v>
       </c>
       <c r="J20">
-        <v>0.988525299063711</v>
+        <v>0.9885252990637109</v>
       </c>
       <c r="K20">
-        <v>1.000472342996507</v>
+        <v>1.000472342996506</v>
       </c>
       <c r="L20">
-        <v>0.9863098738684014</v>
+        <v>0.9863098738684011</v>
       </c>
       <c r="M20">
         <v>0.9724972256125883</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9499520666656711</v>
+        <v>0.9499520666656709</v>
       </c>
       <c r="D21">
-        <v>0.9791413964692912</v>
+        <v>0.9791413964692908</v>
       </c>
       <c r="E21">
-        <v>0.9638067477208181</v>
+        <v>0.9638067477208178</v>
       </c>
       <c r="F21">
-        <v>0.9470718783292504</v>
+        <v>0.9470718783292498</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027934381932691</v>
       </c>
       <c r="J21">
-        <v>0.9817022606649316</v>
+        <v>0.9817022606649314</v>
       </c>
       <c r="K21">
-        <v>0.9945290181562235</v>
+        <v>0.9945290181562234</v>
       </c>
       <c r="L21">
-        <v>0.9795078613898239</v>
+        <v>0.9795078613898237</v>
       </c>
       <c r="M21">
-        <v>0.9631305088578295</v>
+        <v>0.9631305088578291</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9438118602587094</v>
+        <v>0.9438118602587079</v>
       </c>
       <c r="D22">
-        <v>0.9745389635898756</v>
+        <v>0.9745389635898742</v>
       </c>
       <c r="E22">
-        <v>0.9586168943034818</v>
+        <v>0.9586168943034804</v>
       </c>
       <c r="F22">
-        <v>0.9401369645441606</v>
+        <v>0.940136964544159</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025915573870756</v>
+        <v>1.025915573870755</v>
       </c>
       <c r="J22">
-        <v>0.9772328439193569</v>
+        <v>0.9772328439193553</v>
       </c>
       <c r="K22">
-        <v>0.99063226401982</v>
+        <v>0.9906322640198184</v>
       </c>
       <c r="L22">
-        <v>0.9750552861030182</v>
+        <v>0.9750552861030168</v>
       </c>
       <c r="M22">
-        <v>0.9569955163788704</v>
+        <v>0.9569955163788688</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9470913163807468</v>
       </c>
       <c r="D23">
-        <v>0.976996386628334</v>
+        <v>0.9769963866283339</v>
       </c>
       <c r="E23">
-        <v>0.961387668977377</v>
+        <v>0.9613876689773768</v>
       </c>
       <c r="F23">
-        <v>0.943840826116297</v>
+        <v>0.9438408261162968</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026995275397338</v>
       </c>
       <c r="J23">
-        <v>0.9796201500233666</v>
+        <v>0.9796201500233662</v>
       </c>
       <c r="K23">
-        <v>0.9927140061786628</v>
+        <v>0.9927140061786626</v>
       </c>
       <c r="L23">
-        <v>0.9774333099552006</v>
+        <v>0.9774333099552003</v>
       </c>
       <c r="M23">
-        <v>0.960272499386589</v>
+        <v>0.9602724993865885</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9594847805514493</v>
+        <v>0.9594847805514499</v>
       </c>
       <c r="D24">
-        <v>0.9862973486194868</v>
+        <v>0.9862973486194876</v>
       </c>
       <c r="E24">
-        <v>0.9718815495221884</v>
+        <v>0.9718815495221891</v>
       </c>
       <c r="F24">
-        <v>0.9578401116290776</v>
+        <v>0.9578401116290783</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.031043299972075</v>
       </c>
       <c r="J24">
-        <v>0.9886368493344498</v>
+        <v>0.9886368493344508</v>
       </c>
       <c r="K24">
-        <v>1.000569448573107</v>
+        <v>1.000569448573108</v>
       </c>
       <c r="L24">
-        <v>0.9864211307129425</v>
+        <v>0.9864211307129431</v>
       </c>
       <c r="M24">
-        <v>0.9726503904510394</v>
+        <v>0.9726503904510397</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9729314373374561</v>
+        <v>0.9729314373374548</v>
       </c>
       <c r="D25">
-        <v>0.9964095311642474</v>
+        <v>0.996409531164246</v>
       </c>
       <c r="E25">
-        <v>0.9833078791821971</v>
+        <v>0.9833078791821959</v>
       </c>
       <c r="F25">
-        <v>0.973038386882247</v>
+        <v>0.9730383868822458</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03536582408038</v>
+        <v>1.035365824080379</v>
       </c>
       <c r="J25">
-        <v>0.9984054141500016</v>
+        <v>0.9984054141500004</v>
       </c>
       <c r="K25">
-        <v>1.009063841419452</v>
+        <v>1.009063841419451</v>
       </c>
       <c r="L25">
-        <v>0.9961709662447262</v>
+        <v>0.9961709662447251</v>
       </c>
       <c r="M25">
-        <v>0.9860701820378083</v>
+        <v>0.9860701820378071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9830159000834696</v>
+        <v>0.9830159000834695</v>
       </c>
       <c r="D2">
         <v>1.004003442478536</v>
       </c>
       <c r="E2">
-        <v>0.9919050948306296</v>
+        <v>0.9919050948306289</v>
       </c>
       <c r="F2">
-        <v>0.9844482671362544</v>
+        <v>0.984448267136254</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>1.00571674743344</v>
       </c>
       <c r="K2">
-        <v>1.015407283342288</v>
+        <v>1.015407283342287</v>
       </c>
       <c r="L2">
         <v>1.003478368545383</v>
       </c>
       <c r="M2">
-        <v>0.9961286000737101</v>
+        <v>0.9961286000737096</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900135954312764</v>
+        <v>0.9900135954312766</v>
       </c>
       <c r="D3">
         <v>1.009276064268689</v>
       </c>
       <c r="E3">
-        <v>0.9978850121427955</v>
+        <v>0.9978850121427957</v>
       </c>
       <c r="F3">
-        <v>0.992374221362275</v>
+        <v>0.9923742213622754</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>1.008545026354274</v>
       </c>
       <c r="M3">
-        <v>1.003105614386051</v>
+        <v>1.003105614386052</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9944047870155751</v>
+        <v>0.994404787015573</v>
       </c>
       <c r="D4">
-        <v>1.012585390664503</v>
+        <v>1.012585390664502</v>
       </c>
       <c r="E4">
-        <v>1.001643568564343</v>
+        <v>1.001643568564341</v>
       </c>
       <c r="F4">
-        <v>0.9973523534083484</v>
+        <v>0.9973523534083464</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.042067564508433</v>
       </c>
       <c r="J4">
-        <v>1.013952709971577</v>
+        <v>1.013952709971575</v>
       </c>
       <c r="K4">
-        <v>1.022534257538215</v>
+        <v>1.022534257538213</v>
       </c>
       <c r="L4">
-        <v>1.011722197554679</v>
+        <v>1.011722197554678</v>
       </c>
       <c r="M4">
-        <v>1.007482838578439</v>
+        <v>1.007482838578437</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962198956492834</v>
+        <v>0.9962198956492827</v>
       </c>
       <c r="D5">
         <v>1.013953354206409</v>
       </c>
       <c r="E5">
-        <v>1.003198552305515</v>
+        <v>1.003198552305514</v>
       </c>
       <c r="F5">
-        <v>0.9994112069229537</v>
+        <v>0.9994112069229533</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042619928547593</v>
+        <v>1.042619928547592</v>
       </c>
       <c r="J5">
-        <v>1.015262796054606</v>
+        <v>1.015262796054605</v>
       </c>
       <c r="K5">
-        <v>1.023665789349267</v>
+        <v>1.023665789349266</v>
       </c>
       <c r="L5">
-        <v>1.013034890987408</v>
+        <v>1.013034890987407</v>
       </c>
       <c r="M5">
-        <v>1.009291964610164</v>
+        <v>1.009291964610163</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9965228950456474</v>
+        <v>0.9965228950456475</v>
       </c>
       <c r="D6">
         <v>1.014181710491937</v>
@@ -582,7 +582,7 @@
         <v>1.003458207492689</v>
       </c>
       <c r="F6">
-        <v>0.9997549634958638</v>
+        <v>0.9997549634958636</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>1.015481415577566</v>
       </c>
       <c r="K6">
-        <v>1.023854549652312</v>
+        <v>1.023854549652311</v>
       </c>
       <c r="L6">
         <v>1.01325398460618</v>
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944291599254367</v>
+        <v>0.9944291599254365</v>
       </c>
       <c r="D7">
         <v>1.012603759358818</v>
@@ -620,7 +620,7 @@
         <v>1.001664443215037</v>
       </c>
       <c r="F7">
-        <v>0.9973799947108863</v>
+        <v>0.9973799947108868</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.042074998120058</v>
       </c>
       <c r="J7">
-        <v>1.013970306589492</v>
+        <v>1.013970306589491</v>
       </c>
       <c r="K7">
         <v>1.022549460109163</v>
       </c>
       <c r="L7">
-        <v>1.011739826570938</v>
+        <v>1.011739826570939</v>
       </c>
       <c r="M7">
-        <v>1.007507131947765</v>
+        <v>1.007507131947766</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854102584342427</v>
+        <v>0.9854102584342436</v>
       </c>
       <c r="D8">
-        <v>1.005807335126026</v>
+        <v>1.005807335126027</v>
       </c>
       <c r="E8">
-        <v>0.9939498841426476</v>
+        <v>0.9939498841426485</v>
       </c>
       <c r="F8">
-        <v>0.9871593474864817</v>
+        <v>0.987159347486483</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039295450061152</v>
+        <v>1.039295450061153</v>
       </c>
       <c r="J8">
-        <v>1.007450312401016</v>
+        <v>1.007450312401017</v>
       </c>
       <c r="K8">
-        <v>1.016909212813433</v>
+        <v>1.016909212813434</v>
       </c>
       <c r="L8">
-        <v>1.005212436605783</v>
+        <v>1.005212436605784</v>
       </c>
       <c r="M8">
-        <v>0.9985161094877033</v>
+        <v>0.9985161094877044</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9683804702476327</v>
+        <v>0.9683804702476354</v>
       </c>
       <c r="D9">
-        <v>0.9929850688535273</v>
+        <v>0.9929850688535298</v>
       </c>
       <c r="E9">
-        <v>0.9794359383556488</v>
+        <v>0.9794359383556509</v>
       </c>
       <c r="F9">
-        <v>0.967892978753511</v>
+        <v>0.9678929787535133</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033912080767005</v>
+        <v>1.033912080767006</v>
       </c>
       <c r="J9">
-        <v>0.9951014235795901</v>
+        <v>0.9951014235795924</v>
       </c>
       <c r="K9">
-        <v>1.006192993060696</v>
+        <v>1.006192993060698</v>
       </c>
       <c r="L9">
-        <v>0.9928717035897228</v>
+        <v>0.992871703589725</v>
       </c>
       <c r="M9">
-        <v>0.981529374203699</v>
+        <v>0.9815293742037015</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9561208802481453</v>
+        <v>0.9561208802481447</v>
       </c>
       <c r="D10">
-        <v>0.983770786257961</v>
+        <v>0.9837707862579602</v>
       </c>
       <c r="E10">
-        <v>0.9690296874569384</v>
+        <v>0.9690296874569375</v>
       </c>
       <c r="F10">
-        <v>0.9540398374554674</v>
+        <v>0.9540398374554665</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029950019141968</v>
+        <v>1.029950019141967</v>
       </c>
       <c r="J10">
-        <v>0.9861904803462093</v>
+        <v>0.9861904803462083</v>
       </c>
       <c r="K10">
-        <v>0.9984393798750983</v>
+        <v>0.9984393798750976</v>
       </c>
       <c r="L10">
-        <v>0.9839815784643557</v>
+        <v>0.983981578464355</v>
       </c>
       <c r="M10">
-        <v>0.9692916460122573</v>
+        <v>0.9692916460122565</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.950559996326104</v>
+        <v>0.9505599963261037</v>
       </c>
       <c r="D11">
-        <v>0.9795973813597231</v>
+        <v>0.9795973813597226</v>
       </c>
       <c r="E11">
-        <v>0.9643210664728316</v>
+        <v>0.9643210664728318</v>
       </c>
       <c r="F11">
-        <v>0.9477585174738701</v>
+        <v>0.9477585174738702</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.028133604779685</v>
       </c>
       <c r="J11">
-        <v>0.9821446700978839</v>
+        <v>0.9821446700978835</v>
       </c>
       <c r="K11">
-        <v>0.9949145982374744</v>
+        <v>0.9949145982374742</v>
       </c>
       <c r="L11">
-        <v>0.979948730883095</v>
+        <v>0.9799487308830952</v>
       </c>
       <c r="M11">
-        <v>0.9637377877975462</v>
+        <v>0.9637377877975463</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9484528094713236</v>
+        <v>0.9484528094713239</v>
       </c>
       <c r="D12">
-        <v>0.9780170914311597</v>
+        <v>0.9780170914311602</v>
       </c>
       <c r="E12">
         <v>0.9625387214127245</v>
       </c>
       <c r="F12">
-        <v>0.9453785391540405</v>
+        <v>0.9453785391540408</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027442545009635</v>
+        <v>1.027442545009636</v>
       </c>
       <c r="J12">
-        <v>0.9806111217532161</v>
+        <v>0.9806111217532164</v>
       </c>
       <c r="K12">
-        <v>0.9935779256542469</v>
+        <v>0.9935779256542473</v>
       </c>
       <c r="L12">
-        <v>0.9784206203503112</v>
+        <v>0.9784206203503113</v>
       </c>
       <c r="M12">
-        <v>0.9616327546853197</v>
+        <v>0.9616327546853201</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9489067570125362</v>
+        <v>0.9489067570125376</v>
       </c>
       <c r="D13">
-        <v>0.9783574753802855</v>
+        <v>0.9783574753802866</v>
       </c>
       <c r="E13">
-        <v>0.9629226008110209</v>
+        <v>0.9629226008110227</v>
       </c>
       <c r="F13">
-        <v>0.945891247247395</v>
+        <v>0.9458912472473964</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.027591541440277</v>
       </c>
       <c r="J13">
-        <v>0.9809415106157754</v>
+        <v>0.9809415106157767</v>
       </c>
       <c r="K13">
-        <v>0.9938659265290618</v>
+        <v>0.9938659265290628</v>
       </c>
       <c r="L13">
-        <v>0.9787498140760539</v>
+        <v>0.9787498140760557</v>
       </c>
       <c r="M13">
-        <v>0.962086262520182</v>
+        <v>0.9620862625201833</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.950386688030836</v>
+        <v>0.9503866880308355</v>
       </c>
       <c r="D14">
-        <v>0.9794673839647544</v>
+        <v>0.9794673839647536</v>
       </c>
       <c r="E14">
-        <v>0.9641744358977273</v>
+        <v>0.9641744358977263</v>
       </c>
       <c r="F14">
-        <v>0.9475627699470336</v>
+        <v>0.9475627699470325</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.0280768229716</v>
       </c>
       <c r="J14">
-        <v>0.9820185502642587</v>
+        <v>0.9820185502642581</v>
       </c>
       <c r="K14">
-        <v>0.9948046818106859</v>
+        <v>0.9948046818106853</v>
       </c>
       <c r="L14">
-        <v>0.9798230476479</v>
+        <v>0.979823047647899</v>
       </c>
       <c r="M14">
-        <v>0.9635646674180306</v>
+        <v>0.9635646674180295</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -924,7 +924,7 @@
         <v>0.9649412194716021</v>
       </c>
       <c r="F15">
-        <v>0.9485863069170428</v>
+        <v>0.948586306917043</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.028373613583175</v>
       </c>
       <c r="J15">
-        <v>0.982677990532413</v>
+        <v>0.9826779905324131</v>
       </c>
       <c r="K15">
-        <v>0.9953793748361404</v>
+        <v>0.9953793748361403</v>
       </c>
       <c r="L15">
-        <v>0.9804802263623794</v>
+        <v>0.9804802263623793</v>
       </c>
       <c r="M15">
-        <v>0.9644698625686763</v>
+        <v>0.9644698625686764</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9564843149136418</v>
+        <v>0.9564843149136405</v>
       </c>
       <c r="D16">
-        <v>0.9840436860972669</v>
+        <v>0.9840436860972657</v>
       </c>
       <c r="E16">
-        <v>0.9693376740907157</v>
+        <v>0.9693376740907145</v>
       </c>
       <c r="F16">
-        <v>0.9544503935128468</v>
+        <v>0.9544503935128452</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030068344331087</v>
+        <v>1.030068344331086</v>
       </c>
       <c r="J16">
-        <v>0.9864548258426881</v>
+        <v>0.9864548258426867</v>
       </c>
       <c r="K16">
-        <v>0.998669594685583</v>
+        <v>0.9986695946855818</v>
       </c>
       <c r="L16">
-        <v>0.9842451493061732</v>
+        <v>0.9842451493061718</v>
       </c>
       <c r="M16">
-        <v>0.9696545557961097</v>
+        <v>0.9696545557961083</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9596707218559712</v>
+        <v>0.95967072185597</v>
       </c>
       <c r="D17">
-        <v>0.9864370465626352</v>
+        <v>0.986437046562634</v>
       </c>
       <c r="E17">
-        <v>0.9720392648756201</v>
+        <v>0.972039264875619</v>
       </c>
       <c r="F17">
-        <v>0.9580501896615358</v>
+        <v>0.9580501896615341</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0311036035255</v>
+        <v>1.031103603525499</v>
       </c>
       <c r="J17">
-        <v>0.9887720479760673</v>
+        <v>0.9887720479760661</v>
       </c>
       <c r="K17">
-        <v>1.000687137396318</v>
+        <v>1.000687137396317</v>
       </c>
       <c r="L17">
-        <v>0.9865559759876071</v>
+        <v>0.9865559759876061</v>
       </c>
       <c r="M17">
-        <v>0.9728360275366167</v>
+        <v>0.9728360275366155</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.96150522143907</v>
+        <v>0.9615052214390681</v>
       </c>
       <c r="D18">
-        <v>0.9878155294674311</v>
+        <v>0.9878155294674297</v>
       </c>
       <c r="E18">
-        <v>0.9735957204433727</v>
+        <v>0.9735957204433713</v>
       </c>
       <c r="F18">
-        <v>0.9601229238910497</v>
+        <v>0.9601229238910483</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031697815646624</v>
+        <v>1.031697815646623</v>
       </c>
       <c r="J18">
-        <v>0.9901057653236913</v>
+        <v>0.9901057653236894</v>
       </c>
       <c r="K18">
-        <v>1.001847950317222</v>
+        <v>1.00184795031722</v>
       </c>
       <c r="L18">
-        <v>0.9878863417261486</v>
+        <v>0.9878863417261472</v>
       </c>
       <c r="M18">
-        <v>0.9746674199703641</v>
+        <v>0.9746674199703625</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.962126758968881</v>
+        <v>0.9621267589688816</v>
       </c>
       <c r="D19">
-        <v>0.9882826555016971</v>
+        <v>0.9882826555016977</v>
       </c>
       <c r="E19">
-        <v>0.9741232338845789</v>
+        <v>0.974123233884579</v>
       </c>
       <c r="F19">
-        <v>0.9608252206560292</v>
+        <v>0.9608252206560297</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.031898826376406</v>
       </c>
       <c r="J19">
-        <v>0.9905575696324713</v>
+        <v>0.9905575696324718</v>
       </c>
       <c r="K19">
-        <v>1.002241109902551</v>
+        <v>1.002241109902552</v>
       </c>
       <c r="L19">
-        <v>0.9883370666250163</v>
+        <v>0.9883370666250167</v>
       </c>
       <c r="M19">
-        <v>0.9752878616880134</v>
+        <v>0.975287861688014</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9593313662092596</v>
+        <v>0.9593313662092599</v>
       </c>
       <c r="D20">
-        <v>0.9861820913798004</v>
+        <v>0.9861820913798005</v>
       </c>
       <c r="E20">
-        <v>0.9717514296182849</v>
+        <v>0.9717514296182852</v>
       </c>
       <c r="F20">
-        <v>0.9576667841848275</v>
+        <v>0.9576667841848276</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.030993535094922</v>
       </c>
       <c r="J20">
-        <v>0.9885252990637109</v>
+        <v>0.988525299063711</v>
       </c>
       <c r="K20">
-        <v>1.000472342996506</v>
+        <v>1.000472342996507</v>
       </c>
       <c r="L20">
-        <v>0.9863098738684011</v>
+        <v>0.9863098738684014</v>
       </c>
       <c r="M20">
         <v>0.9724972256125883</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9499520666656709</v>
+        <v>0.9499520666656711</v>
       </c>
       <c r="D21">
-        <v>0.9791413964692908</v>
+        <v>0.9791413964692912</v>
       </c>
       <c r="E21">
-        <v>0.9638067477208178</v>
+        <v>0.9638067477208181</v>
       </c>
       <c r="F21">
-        <v>0.9470718783292498</v>
+        <v>0.9470718783292504</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027934381932691</v>
       </c>
       <c r="J21">
-        <v>0.9817022606649314</v>
+        <v>0.9817022606649316</v>
       </c>
       <c r="K21">
-        <v>0.9945290181562234</v>
+        <v>0.9945290181562235</v>
       </c>
       <c r="L21">
-        <v>0.9795078613898237</v>
+        <v>0.9795078613898239</v>
       </c>
       <c r="M21">
-        <v>0.9631305088578291</v>
+        <v>0.9631305088578295</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9438118602587079</v>
+        <v>0.9438118602587094</v>
       </c>
       <c r="D22">
-        <v>0.9745389635898742</v>
+        <v>0.9745389635898756</v>
       </c>
       <c r="E22">
-        <v>0.9586168943034804</v>
+        <v>0.9586168943034818</v>
       </c>
       <c r="F22">
-        <v>0.940136964544159</v>
+        <v>0.9401369645441606</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025915573870755</v>
+        <v>1.025915573870756</v>
       </c>
       <c r="J22">
-        <v>0.9772328439193553</v>
+        <v>0.9772328439193569</v>
       </c>
       <c r="K22">
-        <v>0.9906322640198184</v>
+        <v>0.99063226401982</v>
       </c>
       <c r="L22">
-        <v>0.9750552861030168</v>
+        <v>0.9750552861030182</v>
       </c>
       <c r="M22">
-        <v>0.9569955163788688</v>
+        <v>0.9569955163788704</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9470913163807468</v>
       </c>
       <c r="D23">
-        <v>0.9769963866283339</v>
+        <v>0.976996386628334</v>
       </c>
       <c r="E23">
-        <v>0.9613876689773768</v>
+        <v>0.961387668977377</v>
       </c>
       <c r="F23">
-        <v>0.9438408261162968</v>
+        <v>0.943840826116297</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026995275397338</v>
       </c>
       <c r="J23">
-        <v>0.9796201500233662</v>
+        <v>0.9796201500233666</v>
       </c>
       <c r="K23">
-        <v>0.9927140061786626</v>
+        <v>0.9927140061786628</v>
       </c>
       <c r="L23">
-        <v>0.9774333099552003</v>
+        <v>0.9774333099552006</v>
       </c>
       <c r="M23">
-        <v>0.9602724993865885</v>
+        <v>0.960272499386589</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9594847805514499</v>
+        <v>0.9594847805514493</v>
       </c>
       <c r="D24">
-        <v>0.9862973486194876</v>
+        <v>0.9862973486194868</v>
       </c>
       <c r="E24">
-        <v>0.9718815495221891</v>
+        <v>0.9718815495221884</v>
       </c>
       <c r="F24">
-        <v>0.9578401116290783</v>
+        <v>0.9578401116290776</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.031043299972075</v>
       </c>
       <c r="J24">
-        <v>0.9886368493344508</v>
+        <v>0.9886368493344498</v>
       </c>
       <c r="K24">
-        <v>1.000569448573108</v>
+        <v>1.000569448573107</v>
       </c>
       <c r="L24">
-        <v>0.9864211307129431</v>
+        <v>0.9864211307129425</v>
       </c>
       <c r="M24">
-        <v>0.9726503904510397</v>
+        <v>0.9726503904510394</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9729314373374548</v>
+        <v>0.9729314373374561</v>
       </c>
       <c r="D25">
-        <v>0.996409531164246</v>
+        <v>0.9964095311642474</v>
       </c>
       <c r="E25">
-        <v>0.9833078791821959</v>
+        <v>0.9833078791821971</v>
       </c>
       <c r="F25">
-        <v>0.9730383868822458</v>
+        <v>0.973038386882247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035365824080379</v>
+        <v>1.03536582408038</v>
       </c>
       <c r="J25">
-        <v>0.9984054141500004</v>
+        <v>0.9984054141500016</v>
       </c>
       <c r="K25">
-        <v>1.009063841419451</v>
+        <v>1.009063841419452</v>
       </c>
       <c r="L25">
-        <v>0.9961709662447251</v>
+        <v>0.9961709662447262</v>
       </c>
       <c r="M25">
-        <v>0.9860701820378071</v>
+        <v>0.9860701820378083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9830159000834695</v>
+        <v>0.9830265431831369</v>
       </c>
       <c r="D2">
-        <v>1.004003442478536</v>
+        <v>1.00401180414388</v>
       </c>
       <c r="E2">
-        <v>0.9919050948306289</v>
+        <v>0.9919149011238148</v>
       </c>
       <c r="F2">
-        <v>0.984448267136254</v>
+        <v>0.9844577536333317</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038548474592687</v>
+        <v>1.038552716887189</v>
       </c>
       <c r="J2">
-        <v>1.00571674743344</v>
+        <v>1.005727056805686</v>
       </c>
       <c r="K2">
-        <v>1.015407283342287</v>
+        <v>1.0154155296857</v>
       </c>
       <c r="L2">
-        <v>1.003478368545383</v>
+        <v>1.003488035388226</v>
       </c>
       <c r="M2">
-        <v>0.9961286000737096</v>
+        <v>0.9961379490651083</v>
+      </c>
+      <c r="N2">
+        <v>1.005864030797386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900135954312766</v>
+        <v>0.990020642820402</v>
       </c>
       <c r="D3">
-        <v>1.009276064268689</v>
+        <v>1.009281672357187</v>
       </c>
       <c r="E3">
-        <v>0.9978850121427957</v>
+        <v>0.9978916481488032</v>
       </c>
       <c r="F3">
-        <v>0.9923742213622754</v>
+        <v>0.9923805825342242</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040721187425187</v>
+        <v>1.040724036086796</v>
       </c>
       <c r="J3">
-        <v>1.01078025223481</v>
+        <v>1.010787102175007</v>
       </c>
       <c r="K3">
-        <v>1.019791616145787</v>
+        <v>1.019797154113199</v>
       </c>
       <c r="L3">
-        <v>1.008545026354274</v>
+        <v>1.008551577001389</v>
       </c>
       <c r="M3">
-        <v>1.003105614386052</v>
+        <v>1.003111892592219</v>
+      </c>
+      <c r="N3">
+        <v>1.00934197468041</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.994404787015573</v>
+        <v>0.994409617520552</v>
       </c>
       <c r="D4">
-        <v>1.012585390664502</v>
+        <v>1.012589297943808</v>
       </c>
       <c r="E4">
-        <v>1.001643568564341</v>
+        <v>1.001648247452666</v>
       </c>
       <c r="F4">
-        <v>0.9973523534083464</v>
+        <v>0.9973567974950223</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042067564508433</v>
+        <v>1.042069550764049</v>
       </c>
       <c r="J4">
-        <v>1.013952709971575</v>
+        <v>1.013957415021602</v>
       </c>
       <c r="K4">
-        <v>1.022534257538213</v>
+        <v>1.022538119099784</v>
       </c>
       <c r="L4">
-        <v>1.011722197554678</v>
+        <v>1.011726820203012</v>
       </c>
       <c r="M4">
-        <v>1.007482838578437</v>
+        <v>1.007487228674827</v>
+      </c>
+      <c r="N4">
+        <v>1.011519807446432</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962198956492827</v>
+        <v>0.9962238181882962</v>
       </c>
       <c r="D5">
-        <v>1.013953354206409</v>
+        <v>1.013956564227056</v>
       </c>
       <c r="E5">
-        <v>1.003198552305514</v>
+        <v>1.003202429123931</v>
       </c>
       <c r="F5">
-        <v>0.9994112069229533</v>
+        <v>0.9994148679779518</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042619928547592</v>
+        <v>1.042621560882357</v>
       </c>
       <c r="J5">
-        <v>1.015262796054605</v>
+        <v>1.015266619993273</v>
       </c>
       <c r="K5">
-        <v>1.023665789349266</v>
+        <v>1.023668962871967</v>
       </c>
       <c r="L5">
-        <v>1.013034890987407</v>
+        <v>1.013038722549992</v>
       </c>
       <c r="M5">
-        <v>1.009291964610163</v>
+        <v>1.009295582526064</v>
+      </c>
+      <c r="N5">
+        <v>1.012418852037764</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9965228950456475</v>
+        <v>0.9965266664800797</v>
       </c>
       <c r="D6">
-        <v>1.014181710491937</v>
+        <v>1.014184804437684</v>
       </c>
       <c r="E6">
-        <v>1.003458207492689</v>
+        <v>1.003461950803637</v>
       </c>
       <c r="F6">
-        <v>0.9997549634958636</v>
+        <v>0.9997584943587443</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042711888659357</v>
+        <v>1.042713462054234</v>
       </c>
       <c r="J6">
-        <v>1.015481415577566</v>
+        <v>1.015485092732939</v>
       </c>
       <c r="K6">
-        <v>1.023854549652311</v>
+        <v>1.023857608590443</v>
       </c>
       <c r="L6">
-        <v>1.01325398460618</v>
+        <v>1.01325768443589</v>
       </c>
       <c r="M6">
-        <v>1.009593953787669</v>
+        <v>1.009597443260225</v>
+      </c>
+      <c r="N6">
+        <v>1.012568861052013</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944291599254365</v>
+        <v>0.9944339782065821</v>
       </c>
       <c r="D7">
-        <v>1.012603759358818</v>
+        <v>1.012607657253529</v>
       </c>
       <c r="E7">
-        <v>1.001664443215037</v>
+        <v>1.001669111307027</v>
       </c>
       <c r="F7">
-        <v>0.9973799947108868</v>
+        <v>0.9973844282474341</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042074998120058</v>
+        <v>1.042076979613616</v>
       </c>
       <c r="J7">
-        <v>1.013970306589491</v>
+        <v>1.013974999787357</v>
       </c>
       <c r="K7">
-        <v>1.022549460109163</v>
+        <v>1.02255331241327</v>
       </c>
       <c r="L7">
-        <v>1.011739826570939</v>
+        <v>1.011744438574465</v>
       </c>
       <c r="M7">
-        <v>1.007507131947766</v>
+        <v>1.007511511644026</v>
+      </c>
+      <c r="N7">
+        <v>1.011531884323098</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854102584342436</v>
+        <v>0.9854196621632122</v>
       </c>
       <c r="D8">
-        <v>1.005807335126027</v>
+        <v>1.005814748416142</v>
       </c>
       <c r="E8">
-        <v>0.9939498841426485</v>
+        <v>0.993958598310632</v>
       </c>
       <c r="F8">
-        <v>0.987159347486483</v>
+        <v>0.9871677545205476</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039295450061153</v>
+        <v>1.039299212715026</v>
       </c>
       <c r="J8">
-        <v>1.007450312401017</v>
+        <v>1.007459432109819</v>
       </c>
       <c r="K8">
-        <v>1.016909212813434</v>
+        <v>1.016916527137809</v>
       </c>
       <c r="L8">
-        <v>1.005212436605784</v>
+        <v>1.005221030918614</v>
       </c>
       <c r="M8">
-        <v>0.9985161094877044</v>
+        <v>0.9985243988738256</v>
+      </c>
+      <c r="N8">
+        <v>1.007055004917947</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9683804702476354</v>
+        <v>0.9683989131467046</v>
       </c>
       <c r="D9">
-        <v>0.9929850688535298</v>
+        <v>0.992999380378102</v>
       </c>
       <c r="E9">
-        <v>0.9794359383556509</v>
+        <v>0.9794526010615641</v>
       </c>
       <c r="F9">
-        <v>0.9678929787535133</v>
+        <v>0.9679093127415628</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033912080767006</v>
+        <v>1.033919324483004</v>
       </c>
       <c r="J9">
-        <v>0.9951014235795924</v>
+        <v>0.9951191536551195</v>
       </c>
       <c r="K9">
-        <v>1.006192993060698</v>
+        <v>1.006207068154273</v>
       </c>
       <c r="L9">
-        <v>0.992871703589725</v>
+        <v>0.9928880810948886</v>
       </c>
       <c r="M9">
-        <v>0.9815293742037015</v>
+        <v>0.9815454199038236</v>
+      </c>
+      <c r="N9">
+        <v>0.9985665031055514</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9561208802481447</v>
+        <v>0.9561461909919594</v>
       </c>
       <c r="D10">
-        <v>0.9837707862579602</v>
+        <v>0.9837903084485591</v>
       </c>
       <c r="E10">
-        <v>0.9690296874569375</v>
+        <v>0.9690523602929664</v>
       </c>
       <c r="F10">
-        <v>0.9540398374554665</v>
+        <v>0.9540622785266157</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029950019141967</v>
+        <v>1.02995988149522</v>
       </c>
       <c r="J10">
-        <v>0.9861904803462083</v>
+        <v>0.9862146499628035</v>
       </c>
       <c r="K10">
-        <v>0.9984393798750976</v>
+        <v>0.9984585342381294</v>
       </c>
       <c r="L10">
-        <v>0.983981578464355</v>
+        <v>0.9840038068835267</v>
       </c>
       <c r="M10">
-        <v>0.9692916460122565</v>
+        <v>0.9693136287932153</v>
+      </c>
+      <c r="N10">
+        <v>0.9924358642581876</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9505599963261037</v>
+        <v>0.9505885363581602</v>
       </c>
       <c r="D11">
-        <v>0.9795973813597226</v>
+        <v>0.9796193439680607</v>
       </c>
       <c r="E11">
-        <v>0.9643210664728318</v>
+        <v>0.9643465556438251</v>
       </c>
       <c r="F11">
-        <v>0.9477585174738702</v>
+        <v>0.9477838554365143</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028133604779685</v>
+        <v>1.028144690707874</v>
       </c>
       <c r="J11">
-        <v>0.9821446700978835</v>
+        <v>0.9821718373088926</v>
       </c>
       <c r="K11">
-        <v>0.9949145982374742</v>
+        <v>0.9949361236809098</v>
       </c>
       <c r="L11">
-        <v>0.9799487308830952</v>
+        <v>0.9799736912378809</v>
       </c>
       <c r="M11">
-        <v>0.9637377877975463</v>
+        <v>0.9637625753979056</v>
+      </c>
+      <c r="N11">
+        <v>0.9896513632299992</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9484528094713239</v>
+        <v>0.9484825932690093</v>
       </c>
       <c r="D12">
-        <v>0.9780170914311602</v>
+        <v>0.9780399922791103</v>
       </c>
       <c r="E12">
-        <v>0.9625387214127245</v>
+        <v>0.962565293579194</v>
       </c>
       <c r="F12">
-        <v>0.9453785391540408</v>
+        <v>0.9454049971891794</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027442545009636</v>
+        <v>1.027454100893525</v>
       </c>
       <c r="J12">
-        <v>0.9806111217532164</v>
+        <v>0.9806394383731133</v>
       </c>
       <c r="K12">
-        <v>0.9935779256542473</v>
+        <v>0.993600361394069</v>
       </c>
       <c r="L12">
-        <v>0.9784206203503113</v>
+        <v>0.9784466296196663</v>
       </c>
       <c r="M12">
-        <v>0.9616327546853201</v>
+        <v>0.9616586248213971</v>
+      </c>
+      <c r="N12">
+        <v>0.988595778479603</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9489067570125376</v>
+        <v>0.9489362719083699</v>
       </c>
       <c r="D13">
-        <v>0.9783574753802866</v>
+        <v>0.978380173461381</v>
       </c>
       <c r="E13">
-        <v>0.9629226008110227</v>
+        <v>0.9629489389162601</v>
       </c>
       <c r="F13">
-        <v>0.9458912472473964</v>
+        <v>0.9459174629189561</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027591541440277</v>
+        <v>1.027602995781199</v>
       </c>
       <c r="J13">
-        <v>0.9809415106157767</v>
+        <v>0.9809695789738865</v>
       </c>
       <c r="K13">
-        <v>0.9938659265290628</v>
+        <v>0.993888165600774</v>
       </c>
       <c r="L13">
-        <v>0.9787498140760557</v>
+        <v>0.9787755967257066</v>
       </c>
       <c r="M13">
-        <v>0.9620862625201833</v>
+        <v>0.9621118985059299</v>
+      </c>
+      <c r="N13">
+        <v>0.9888231999877189</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9503866880308355</v>
+        <v>0.9504153299319097</v>
       </c>
       <c r="D14">
-        <v>0.9794673839647536</v>
+        <v>0.9794894234539883</v>
       </c>
       <c r="E14">
-        <v>0.9641744358977263</v>
+        <v>0.9642000138064251</v>
       </c>
       <c r="F14">
-        <v>0.9475627699470325</v>
+        <v>0.9475881995571864</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0280768229716</v>
+        <v>1.028087947418146</v>
       </c>
       <c r="J14">
-        <v>0.9820185502642581</v>
+        <v>0.9820458117227894</v>
       </c>
       <c r="K14">
-        <v>0.9948046818106853</v>
+        <v>0.9948262818719292</v>
       </c>
       <c r="L14">
-        <v>0.979823047647899</v>
+        <v>0.9798480939816255</v>
       </c>
       <c r="M14">
-        <v>0.9635646674180295</v>
+        <v>0.9635895436348962</v>
+      </c>
+      <c r="N14">
+        <v>0.9895645538839374</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9512928868897353</v>
+        <v>0.951320996970501</v>
       </c>
       <c r="D15">
-        <v>0.9801471652967529</v>
+        <v>0.9801688033496305</v>
       </c>
       <c r="E15">
-        <v>0.9649412194716021</v>
+        <v>0.9649663340425916</v>
       </c>
       <c r="F15">
-        <v>0.948586306917043</v>
+        <v>0.9486112582475994</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028373613583175</v>
+        <v>1.028384536886067</v>
       </c>
       <c r="J15">
-        <v>0.9826779905324131</v>
+        <v>0.9827047597495706</v>
       </c>
       <c r="K15">
-        <v>0.9953793748361403</v>
+        <v>0.9954005852252051</v>
       </c>
       <c r="L15">
-        <v>0.9804802263623793</v>
+        <v>0.9805048236964968</v>
       </c>
       <c r="M15">
-        <v>0.9644698625686764</v>
+        <v>0.9644942762443826</v>
+      </c>
+      <c r="N15">
+        <v>0.990018447023348</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9564843149136405</v>
+        <v>0.9565094171999426</v>
       </c>
       <c r="D16">
-        <v>0.9840436860972657</v>
+        <v>0.9840630505378969</v>
       </c>
       <c r="E16">
-        <v>0.9693376740907145</v>
+        <v>0.9693601649081593</v>
       </c>
       <c r="F16">
-        <v>0.9544503935128452</v>
+        <v>0.9544726481406992</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030068344331086</v>
+        <v>1.030078127531108</v>
       </c>
       <c r="J16">
-        <v>0.9864548258426867</v>
+        <v>0.9864788012956216</v>
       </c>
       <c r="K16">
-        <v>0.9986695946855818</v>
+        <v>0.9986885956123424</v>
       </c>
       <c r="L16">
-        <v>0.9842451493061718</v>
+        <v>0.9842672009492902</v>
       </c>
       <c r="M16">
-        <v>0.9696545557961083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9696763578100828</v>
+      </c>
+      <c r="N16">
+        <v>0.9926177789490143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.95967072185597</v>
+        <v>0.9596940096467554</v>
       </c>
       <c r="D17">
-        <v>0.986437046562634</v>
+        <v>0.9864550367941108</v>
       </c>
       <c r="E17">
-        <v>0.972039264875619</v>
+        <v>0.9720601702375561</v>
       </c>
       <c r="F17">
-        <v>0.9580501896615341</v>
+        <v>0.9580708242655501</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031103603525499</v>
+        <v>1.03111269687685</v>
       </c>
       <c r="J17">
-        <v>0.9887720479760661</v>
+        <v>0.9887943299437233</v>
       </c>
       <c r="K17">
-        <v>1.000687137396317</v>
+        <v>1.000704800815708</v>
       </c>
       <c r="L17">
-        <v>0.9865559759876061</v>
+        <v>0.986576486738896</v>
       </c>
       <c r="M17">
-        <v>0.9728360275366155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9728562575685515</v>
+      </c>
+      <c r="N17">
+        <v>0.9942123093075852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9615052214390681</v>
+        <v>0.9615274750631072</v>
       </c>
       <c r="D18">
-        <v>0.9878155294674297</v>
+        <v>0.9878327356024998</v>
       </c>
       <c r="E18">
-        <v>0.9735957204433713</v>
+        <v>0.9736157213121052</v>
       </c>
       <c r="F18">
-        <v>0.9601229238910483</v>
+        <v>0.9601426374536212</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031697815646623</v>
+        <v>1.031706515122389</v>
       </c>
       <c r="J18">
-        <v>0.9901057653236894</v>
+        <v>0.9901270793515361</v>
       </c>
       <c r="K18">
-        <v>1.00184795031722</v>
+        <v>1.001864849871791</v>
       </c>
       <c r="L18">
-        <v>0.9878863417261472</v>
+        <v>0.9879059725175271</v>
       </c>
       <c r="M18">
-        <v>0.9746674199703625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9746867552458116</v>
+      </c>
+      <c r="N18">
+        <v>0.9951299712027352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9621267589688816</v>
+        <v>0.962148663911974</v>
       </c>
       <c r="D19">
-        <v>0.9882826555016977</v>
+        <v>0.9882995971286994</v>
       </c>
       <c r="E19">
-        <v>0.974123233884579</v>
+        <v>0.9741429296533841</v>
       </c>
       <c r="F19">
-        <v>0.9608252206560297</v>
+        <v>0.9608446240530694</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031898826376406</v>
+        <v>1.03190739293805</v>
       </c>
       <c r="J19">
-        <v>0.9905575696324718</v>
+        <v>0.9905785568586323</v>
       </c>
       <c r="K19">
-        <v>1.002241109902552</v>
+        <v>1.002257751656766</v>
       </c>
       <c r="L19">
-        <v>0.9883370666250167</v>
+        <v>0.988356400445204</v>
       </c>
       <c r="M19">
-        <v>0.975287861688014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.975306895480921</v>
+      </c>
+      <c r="N19">
+        <v>0.9954408171508444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9593313662092599</v>
+        <v>0.9593548461363368</v>
       </c>
       <c r="D20">
-        <v>0.9861820913798005</v>
+        <v>0.9862002272181096</v>
       </c>
       <c r="E20">
-        <v>0.9717514296182852</v>
+        <v>0.9717725029558029</v>
       </c>
       <c r="F20">
-        <v>0.9576667841848276</v>
+        <v>0.9576875900905658</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030993535094922</v>
+        <v>1.03100270156792</v>
       </c>
       <c r="J20">
-        <v>0.988525299063711</v>
+        <v>0.9885477606438483</v>
       </c>
       <c r="K20">
-        <v>1.000472342996507</v>
+        <v>1.00049014820872</v>
       </c>
       <c r="L20">
-        <v>0.9863098738684014</v>
+        <v>0.9863305479677207</v>
       </c>
       <c r="M20">
-        <v>0.9724972256125883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9725176219751579</v>
+      </c>
+      <c r="N20">
+        <v>0.9940425260757072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9499520666656711</v>
+        <v>0.949980964367113</v>
       </c>
       <c r="D21">
-        <v>0.9791413964692912</v>
+        <v>0.9791636289839919</v>
       </c>
       <c r="E21">
-        <v>0.9638067477208181</v>
+        <v>0.9638325484277008</v>
       </c>
       <c r="F21">
-        <v>0.9470718783292504</v>
+        <v>0.9470975381440733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027934381932691</v>
+        <v>1.027945603080137</v>
       </c>
       <c r="J21">
-        <v>0.9817022606649316</v>
+        <v>0.9817297587017306</v>
       </c>
       <c r="K21">
-        <v>0.9945290181562235</v>
+        <v>0.994550805539983</v>
       </c>
       <c r="L21">
-        <v>0.9795078613898239</v>
+        <v>0.9795331235685791</v>
       </c>
       <c r="M21">
-        <v>0.9631305088578295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9631556076341691</v>
+      </c>
+      <c r="N21">
+        <v>0.9893468470656802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9438118602587094</v>
+        <v>0.943844424227519</v>
       </c>
       <c r="D22">
-        <v>0.9745389635898756</v>
+        <v>0.974563958224441</v>
       </c>
       <c r="E22">
-        <v>0.9586168943034818</v>
+        <v>0.9586458837383696</v>
       </c>
       <c r="F22">
-        <v>0.9401369645441606</v>
+        <v>0.9401659349764049</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025915573870756</v>
+        <v>1.025928177627738</v>
       </c>
       <c r="J22">
-        <v>0.9772328439193569</v>
+        <v>0.9772637195831716</v>
       </c>
       <c r="K22">
-        <v>0.99063226401982</v>
+        <v>0.9906567286623607</v>
       </c>
       <c r="L22">
-        <v>0.9750552861030182</v>
+        <v>0.9750836333638768</v>
       </c>
       <c r="M22">
-        <v>0.9569955163788704</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9570238108325629</v>
+      </c>
+      <c r="N22">
+        <v>0.9862702008259806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9470913163807468</v>
+        <v>0.9471219098804682</v>
       </c>
       <c r="D23">
-        <v>0.976996386628334</v>
+        <v>0.977019897767724</v>
       </c>
       <c r="E23">
-        <v>0.961387668977377</v>
+        <v>0.9614149456604741</v>
       </c>
       <c r="F23">
-        <v>0.943840826116297</v>
+        <v>0.9438680146232482</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026995275397338</v>
+        <v>1.027007136837589</v>
       </c>
       <c r="J23">
-        <v>0.9796201500233666</v>
+        <v>0.9796492133968489</v>
       </c>
       <c r="K23">
-        <v>0.9927140061786628</v>
+        <v>0.9927370336558754</v>
       </c>
       <c r="L23">
-        <v>0.9774333099552006</v>
+        <v>0.9774600010912025</v>
       </c>
       <c r="M23">
-        <v>0.960272499386589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9602990749373451</v>
+      </c>
+      <c r="N23">
+        <v>0.987913630850161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9594847805514493</v>
+        <v>0.9595081735860627</v>
       </c>
       <c r="D24">
-        <v>0.9862973486194868</v>
+        <v>0.9863154186106934</v>
       </c>
       <c r="E24">
-        <v>0.9718815495221884</v>
+        <v>0.9719025468964633</v>
       </c>
       <c r="F24">
-        <v>0.9578401116290776</v>
+        <v>0.9578608400575607</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031043299972075</v>
+        <v>1.031052433378423</v>
       </c>
       <c r="J24">
-        <v>0.9886368493344498</v>
+        <v>0.9886592296944581</v>
       </c>
       <c r="K24">
-        <v>1.000569448573107</v>
+        <v>1.000587189665215</v>
       </c>
       <c r="L24">
-        <v>0.9864211307129425</v>
+        <v>0.9864417309444916</v>
       </c>
       <c r="M24">
-        <v>0.9726503904510394</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9726707115879015</v>
+      </c>
+      <c r="N24">
+        <v>0.9941192819998761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9729314373374561</v>
+        <v>0.9729474114153757</v>
       </c>
       <c r="D25">
-        <v>0.9964095311642474</v>
+        <v>0.9964219629903883</v>
       </c>
       <c r="E25">
-        <v>0.9833078791821971</v>
+        <v>0.9833223749828718</v>
       </c>
       <c r="F25">
-        <v>0.973038386882247</v>
+        <v>0.9730525433554396</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03536582408038</v>
+        <v>1.035372120954573</v>
       </c>
       <c r="J25">
-        <v>0.9984054141500016</v>
+        <v>0.998420807775854</v>
       </c>
       <c r="K25">
-        <v>1.009063841419452</v>
+        <v>1.009076078477608</v>
       </c>
       <c r="L25">
-        <v>0.9961709662447262</v>
+        <v>0.9961852271052607</v>
       </c>
       <c r="M25">
-        <v>0.9860701820378083</v>
+        <v>0.9860841027902705</v>
+      </c>
+      <c r="N25">
+        <v>1.000838613618705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9830265431831369</v>
+        <v>1.027058345526507</v>
       </c>
       <c r="D2">
-        <v>1.00401180414388</v>
+        <v>1.042509310577648</v>
       </c>
       <c r="E2">
-        <v>0.9919149011238148</v>
+        <v>1.038511151105348</v>
       </c>
       <c r="F2">
-        <v>0.9844577536333317</v>
+        <v>1.047918733840718</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038552716887189</v>
+        <v>1.052124620900968</v>
       </c>
       <c r="J2">
-        <v>1.005727056805686</v>
+        <v>1.048458804829522</v>
       </c>
       <c r="K2">
-        <v>1.0154155296857</v>
+        <v>1.053406563576026</v>
       </c>
       <c r="L2">
-        <v>1.003488035388226</v>
+        <v>1.049458821738791</v>
       </c>
       <c r="M2">
-        <v>0.9961379490651083</v>
+        <v>1.058748535532681</v>
       </c>
       <c r="N2">
-        <v>1.005864030797386</v>
+        <v>1.049947736592285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.990020642820402</v>
+        <v>1.034673584211815</v>
       </c>
       <c r="D3">
-        <v>1.009281672357187</v>
+        <v>1.048526184944762</v>
       </c>
       <c r="E3">
-        <v>0.9978916481488032</v>
+        <v>1.045031837090766</v>
       </c>
       <c r="F3">
-        <v>0.9923805825342242</v>
+        <v>1.054688741491091</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040724036086796</v>
+        <v>1.054493099270176</v>
       </c>
       <c r="J3">
-        <v>1.010787102175007</v>
+        <v>1.054261658522066</v>
       </c>
       <c r="K3">
-        <v>1.019797154113199</v>
+        <v>1.058573646753772</v>
       </c>
       <c r="L3">
-        <v>1.008551577001389</v>
+        <v>1.055119211073277</v>
       </c>
       <c r="M3">
-        <v>1.003111892592219</v>
+        <v>1.064666608750222</v>
       </c>
       <c r="N3">
-        <v>1.00934197468041</v>
+        <v>1.05575883100267</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.994409617520552</v>
+        <v>1.039457541169802</v>
       </c>
       <c r="D4">
-        <v>1.012589297943808</v>
+        <v>1.052308318313054</v>
       </c>
       <c r="E4">
-        <v>1.001648247452666</v>
+        <v>1.049133819426258</v>
       </c>
       <c r="F4">
-        <v>0.9973567974950223</v>
+        <v>1.058948272552566</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042069550764049</v>
+        <v>1.055968744522835</v>
       </c>
       <c r="J4">
-        <v>1.013957415021602</v>
+        <v>1.05790307633367</v>
       </c>
       <c r="K4">
-        <v>1.022538119099784</v>
+        <v>1.061813900663554</v>
       </c>
       <c r="L4">
-        <v>1.011726820203012</v>
+        <v>1.058673314614937</v>
       </c>
       <c r="M4">
-        <v>1.007487228674827</v>
+        <v>1.06838372456518</v>
       </c>
       <c r="N4">
-        <v>1.011519807446432</v>
+        <v>1.059405420045243</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962238181882962</v>
+        <v>1.041436244806633</v>
       </c>
       <c r="D5">
-        <v>1.013956564227056</v>
+        <v>1.053873098821168</v>
       </c>
       <c r="E5">
-        <v>1.003202429123931</v>
+        <v>1.050831710817097</v>
       </c>
       <c r="F5">
-        <v>0.9994148679779518</v>
+        <v>1.060711543279082</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042621560882357</v>
+        <v>1.056576087532102</v>
       </c>
       <c r="J5">
-        <v>1.015266619993273</v>
+        <v>1.059408190361242</v>
       </c>
       <c r="K5">
-        <v>1.023668962871967</v>
+        <v>1.063152649326601</v>
       </c>
       <c r="L5">
-        <v>1.013038722549992</v>
+        <v>1.060142827564961</v>
       </c>
       <c r="M5">
-        <v>1.009295582526064</v>
+        <v>1.069920923790147</v>
       </c>
       <c r="N5">
-        <v>1.012418852037764</v>
+        <v>1.060912671507373</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9965266664800797</v>
+        <v>1.041766626283773</v>
       </c>
       <c r="D6">
-        <v>1.014184804437684</v>
+        <v>1.054134391294705</v>
       </c>
       <c r="E6">
-        <v>1.003461950803637</v>
+        <v>1.051115277091532</v>
       </c>
       <c r="F6">
-        <v>0.9997584943587443</v>
+        <v>1.061006038341717</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042713462054234</v>
+        <v>1.056677316469734</v>
       </c>
       <c r="J6">
-        <v>1.015485092732939</v>
+        <v>1.059659435328421</v>
       </c>
       <c r="K6">
-        <v>1.023857608590443</v>
+        <v>1.063376090254625</v>
       </c>
       <c r="L6">
-        <v>1.01325768443589</v>
+        <v>1.060388158156373</v>
       </c>
       <c r="M6">
-        <v>1.009597443260225</v>
+        <v>1.070177571036326</v>
       </c>
       <c r="N6">
-        <v>1.012568861052013</v>
+        <v>1.061164273271223</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9944339782065821</v>
+        <v>1.039484105889002</v>
       </c>
       <c r="D7">
-        <v>1.012607657253529</v>
+        <v>1.052329324361416</v>
       </c>
       <c r="E7">
-        <v>1.001669111307027</v>
+        <v>1.049156609277744</v>
       </c>
       <c r="F7">
-        <v>0.9973844282474341</v>
+        <v>1.05897193929818</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042076979613616</v>
+        <v>1.055976910254509</v>
       </c>
       <c r="J7">
-        <v>1.013974999787357</v>
+        <v>1.057923287088643</v>
       </c>
       <c r="K7">
-        <v>1.02255331241327</v>
+        <v>1.061831879667714</v>
       </c>
       <c r="L7">
-        <v>1.011744438574465</v>
+        <v>1.058693045396719</v>
       </c>
       <c r="M7">
-        <v>1.007511511644026</v>
+        <v>1.068404363030125</v>
       </c>
       <c r="N7">
-        <v>1.011531884323098</v>
+        <v>1.059425659501805</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854196621632122</v>
+        <v>1.029662887699958</v>
       </c>
       <c r="D8">
-        <v>1.005814748416142</v>
+        <v>1.044566636796605</v>
       </c>
       <c r="E8">
-        <v>0.993958598310632</v>
+        <v>1.040740091199529</v>
       </c>
       <c r="F8">
-        <v>0.9871677545205476</v>
+        <v>1.050232747563973</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039299212715026</v>
+        <v>1.052937226912606</v>
       </c>
       <c r="J8">
-        <v>1.007459432109819</v>
+        <v>1.050444279051179</v>
       </c>
       <c r="K8">
-        <v>1.016916527137809</v>
+        <v>1.055174956842169</v>
       </c>
       <c r="L8">
-        <v>1.005221030918614</v>
+        <v>1.051395103309897</v>
       </c>
       <c r="M8">
-        <v>0.9985243988738256</v>
+        <v>1.060772704271399</v>
       </c>
       <c r="N8">
-        <v>1.007055004917947</v>
+        <v>1.051936030415075</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9683989131467046</v>
+        <v>1.01116171357588</v>
       </c>
       <c r="D9">
-        <v>0.992999380378102</v>
+        <v>1.029967222974527</v>
       </c>
       <c r="E9">
-        <v>0.9794526010615641</v>
+        <v>1.02493551253479</v>
       </c>
       <c r="F9">
-        <v>0.9679093127415628</v>
+        <v>1.033828132941834</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033919324483004</v>
+        <v>1.047114773280053</v>
       </c>
       <c r="J9">
-        <v>0.9951191536551195</v>
+        <v>1.036326387631252</v>
       </c>
       <c r="K9">
-        <v>1.006207068154273</v>
+        <v>1.042592118147272</v>
       </c>
       <c r="L9">
-        <v>0.9928880810948886</v>
+        <v>1.037636580203079</v>
       </c>
       <c r="M9">
-        <v>0.9815454199038236</v>
+        <v>1.046395219182296</v>
       </c>
       <c r="N9">
-        <v>0.9985665031055514</v>
+        <v>1.037798089969987</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9561461909919594</v>
+        <v>0.9978744634853813</v>
       </c>
       <c r="D10">
-        <v>0.9837903084485591</v>
+        <v>1.019506983894833</v>
       </c>
       <c r="E10">
-        <v>0.9690523602929664</v>
+        <v>1.013626828285922</v>
       </c>
       <c r="F10">
-        <v>0.9540622785266157</v>
+        <v>1.022094375147426</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02995988149522</v>
+        <v>1.042872263469683</v>
       </c>
       <c r="J10">
-        <v>0.9862146499628035</v>
+        <v>1.026172667731326</v>
       </c>
       <c r="K10">
-        <v>0.9984585342381294</v>
+        <v>1.033532744923164</v>
       </c>
       <c r="L10">
-        <v>0.9840038068835267</v>
+        <v>1.027754329040344</v>
       </c>
       <c r="M10">
-        <v>0.9693136287932153</v>
+        <v>1.036075847623499</v>
       </c>
       <c r="N10">
-        <v>0.9924358642581876</v>
+        <v>1.027629950623155</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9505885363581602</v>
+        <v>0.9918555394460803</v>
       </c>
       <c r="D11">
-        <v>0.9796193439680607</v>
+        <v>1.0147767486372</v>
       </c>
       <c r="E11">
-        <v>0.9643465556438251</v>
+        <v>1.008516072070361</v>
       </c>
       <c r="F11">
-        <v>0.9477838554365143</v>
+        <v>1.016792600251869</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028144690707874</v>
+        <v>1.040937201349159</v>
       </c>
       <c r="J11">
-        <v>0.9821718373088926</v>
+        <v>1.021571106951719</v>
       </c>
       <c r="K11">
-        <v>0.9949361236809098</v>
+        <v>1.029425275593605</v>
       </c>
       <c r="L11">
-        <v>0.9799736912378809</v>
+        <v>1.023279155100335</v>
       </c>
       <c r="M11">
-        <v>0.9637625753979056</v>
+        <v>1.031404632069367</v>
       </c>
       <c r="N11">
-        <v>0.9896513632299992</v>
+        <v>1.023021855099434</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9484825932690093</v>
+        <v>0.9895760721054351</v>
       </c>
       <c r="D12">
-        <v>0.9780399922791103</v>
+        <v>1.012986757522453</v>
       </c>
       <c r="E12">
-        <v>0.962565293579194</v>
+        <v>1.006582520683614</v>
       </c>
       <c r="F12">
-        <v>0.9454049971891794</v>
+        <v>1.014786950962245</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027454100893525</v>
+        <v>1.040202482640976</v>
       </c>
       <c r="J12">
-        <v>0.9806394383731133</v>
+        <v>1.019828238202049</v>
       </c>
       <c r="K12">
-        <v>0.993600361394069</v>
+        <v>1.027869310615929</v>
       </c>
       <c r="L12">
-        <v>0.9784466296196663</v>
+        <v>1.021584687307282</v>
       </c>
       <c r="M12">
-        <v>0.9616586248213971</v>
+        <v>1.029636235643528</v>
       </c>
       <c r="N12">
-        <v>0.988595778479603</v>
+        <v>1.02127651127623</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9489362719083699</v>
+        <v>0.9900670744926201</v>
       </c>
       <c r="D13">
-        <v>0.978380173461381</v>
+        <v>1.013372257523798</v>
       </c>
       <c r="E13">
-        <v>0.9629489389162601</v>
+        <v>1.006998919495219</v>
       </c>
       <c r="F13">
-        <v>0.9459174629189561</v>
+        <v>1.015218868571698</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027602995781199</v>
+        <v>1.040360825481337</v>
       </c>
       <c r="J13">
-        <v>0.9809695789738865</v>
+        <v>1.020203661921419</v>
       </c>
       <c r="K13">
-        <v>0.993888165600774</v>
+        <v>1.028204484149791</v>
       </c>
       <c r="L13">
-        <v>0.9787755967257066</v>
+        <v>1.021949660760302</v>
       </c>
       <c r="M13">
-        <v>0.9621118985059299</v>
+        <v>1.030017118901643</v>
       </c>
       <c r="N13">
-        <v>0.9888231999877189</v>
+        <v>1.021652468140343</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9504153299319097</v>
+        <v>0.9916680352313755</v>
       </c>
       <c r="D14">
-        <v>0.9794894234539883</v>
+        <v>1.014629477454729</v>
       </c>
       <c r="E14">
-        <v>0.9642000138064251</v>
+        <v>1.008356980923897</v>
       </c>
       <c r="F14">
-        <v>0.9475881995571864</v>
+        <v>1.016627573449666</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028087947418146</v>
+        <v>1.040876802298421</v>
       </c>
       <c r="J14">
-        <v>0.9820458117227894</v>
+        <v>1.02142774506508</v>
       </c>
       <c r="K14">
-        <v>0.9948262818719292</v>
+        <v>1.029297292246205</v>
       </c>
       <c r="L14">
-        <v>0.9798480939816255</v>
+        <v>1.02313976356406</v>
       </c>
       <c r="M14">
-        <v>0.9635895436348962</v>
+        <v>1.031259152796542</v>
       </c>
       <c r="N14">
-        <v>0.9895645538839374</v>
+        <v>1.022878289622473</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.951320996970501</v>
+        <v>0.9926485147108968</v>
       </c>
       <c r="D15">
-        <v>0.9801688033496305</v>
+        <v>1.015399633479344</v>
       </c>
       <c r="E15">
-        <v>0.9649663340425916</v>
+        <v>1.009188966975358</v>
       </c>
       <c r="F15">
-        <v>0.9486112582475994</v>
+        <v>1.017490607678885</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028384536886067</v>
+        <v>1.041192559758388</v>
       </c>
       <c r="J15">
-        <v>0.9827047597495706</v>
+        <v>1.022177393099535</v>
       </c>
       <c r="K15">
-        <v>0.9954005852252051</v>
+        <v>1.029966515623786</v>
       </c>
       <c r="L15">
-        <v>0.9805048236964968</v>
+        <v>1.023868672141512</v>
       </c>
       <c r="M15">
-        <v>0.9644942762443826</v>
+        <v>1.032019907744242</v>
       </c>
       <c r="N15">
-        <v>0.990018447023348</v>
+        <v>1.023629002243122</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9565094171999426</v>
+        <v>0.9982680064169902</v>
       </c>
       <c r="D16">
-        <v>0.9840630505378969</v>
+        <v>1.019816451562942</v>
       </c>
       <c r="E16">
-        <v>0.9693601649081593</v>
+        <v>1.013961252981448</v>
       </c>
       <c r="F16">
-        <v>0.9544726481406992</v>
+        <v>1.022441322287974</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030078127531108</v>
+        <v>1.042998521006768</v>
       </c>
       <c r="J16">
-        <v>0.9864788012956216</v>
+        <v>1.026473505117246</v>
       </c>
       <c r="K16">
-        <v>0.9986885956123424</v>
+        <v>1.033801245055824</v>
       </c>
       <c r="L16">
-        <v>0.9842672009492902</v>
+        <v>1.02804697523827</v>
       </c>
       <c r="M16">
-        <v>0.9696763578100828</v>
+        <v>1.036381354183835</v>
       </c>
       <c r="N16">
-        <v>0.9926177789490143</v>
+        <v>1.02793121523267</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9596940096467554</v>
+        <v>1.00171930625116</v>
       </c>
       <c r="D17">
-        <v>0.9864550367941108</v>
+        <v>1.02253136256861</v>
       </c>
       <c r="E17">
-        <v>0.9720601702375561</v>
+        <v>1.016895459868829</v>
       </c>
       <c r="F17">
-        <v>0.9580708242655501</v>
+        <v>1.025485523113098</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03111269687685</v>
+        <v>1.044104292803627</v>
       </c>
       <c r="J17">
-        <v>0.9887943299437233</v>
+        <v>1.029111574011282</v>
       </c>
       <c r="K17">
-        <v>1.000704800815708</v>
+        <v>1.036155541261572</v>
       </c>
       <c r="L17">
-        <v>0.986576486738896</v>
+        <v>1.030613596577808</v>
       </c>
       <c r="M17">
-        <v>0.9728562575685515</v>
+        <v>1.039060982590013</v>
       </c>
       <c r="N17">
-        <v>0.9942123093075852</v>
+        <v>1.030573030487126</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9615274750631072</v>
+        <v>1.003707066654631</v>
       </c>
       <c r="D18">
-        <v>0.9878327356024998</v>
+        <v>1.024095748439804</v>
       </c>
       <c r="E18">
-        <v>0.9736157213121052</v>
+        <v>1.018586507744716</v>
       </c>
       <c r="F18">
-        <v>0.9601426374536212</v>
+        <v>1.027240064491405</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031706515122389</v>
+        <v>1.044739903044604</v>
       </c>
       <c r="J18">
-        <v>0.9901270793515361</v>
+        <v>1.030630753319749</v>
       </c>
       <c r="K18">
-        <v>1.001864849871791</v>
+        <v>1.037511127866025</v>
       </c>
       <c r="L18">
-        <v>0.9879059725175271</v>
+        <v>1.032091945090751</v>
       </c>
       <c r="M18">
-        <v>0.9746867552458116</v>
+        <v>1.040604600326485</v>
       </c>
       <c r="N18">
-        <v>0.9951299712027352</v>
+        <v>1.032094367204463</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.962148663911974</v>
+        <v>1.004380656016509</v>
       </c>
       <c r="D19">
-        <v>0.9882995971286994</v>
+        <v>1.024625990051919</v>
       </c>
       <c r="E19">
-        <v>0.9741429296533841</v>
+        <v>1.019159732761478</v>
       </c>
       <c r="F19">
-        <v>0.9608446240530694</v>
+        <v>1.027834829333285</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03190739293805</v>
+        <v>1.04495507540352</v>
       </c>
       <c r="J19">
-        <v>0.9905785568586323</v>
+        <v>1.031145516987198</v>
       </c>
       <c r="K19">
-        <v>1.002257751656766</v>
+        <v>1.037970428024982</v>
       </c>
       <c r="L19">
-        <v>0.988356400445204</v>
+        <v>1.032592925979816</v>
       </c>
       <c r="M19">
-        <v>0.975306895480921</v>
+        <v>1.041127729439574</v>
       </c>
       <c r="N19">
-        <v>0.9954408171508444</v>
+        <v>1.032609861895364</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9593548461363368</v>
+        <v>1.001351660333172</v>
       </c>
       <c r="D20">
-        <v>0.9862002272181096</v>
+        <v>1.022242080777634</v>
       </c>
       <c r="E20">
-        <v>0.9717725029558029</v>
+        <v>1.016582780612682</v>
       </c>
       <c r="F20">
-        <v>0.9576875900905658</v>
+        <v>1.025161111919364</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03100270156792</v>
+        <v>1.043986631241845</v>
       </c>
       <c r="J20">
-        <v>0.9885477606438483</v>
+        <v>1.028830576991955</v>
       </c>
       <c r="K20">
-        <v>1.00049014820872</v>
+        <v>1.035904788749175</v>
       </c>
       <c r="L20">
-        <v>0.9863305479677207</v>
+        <v>1.030340177109885</v>
       </c>
       <c r="M20">
-        <v>0.9725176219751579</v>
+        <v>1.038775505980365</v>
       </c>
       <c r="N20">
-        <v>0.9940425260757072</v>
+        <v>1.030291634419801</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.949980964367113</v>
+        <v>0.9911978343475346</v>
       </c>
       <c r="D21">
-        <v>0.9791636289839919</v>
+        <v>1.014260191933058</v>
       </c>
       <c r="E21">
-        <v>0.9638325484277008</v>
+        <v>1.007958063444443</v>
       </c>
       <c r="F21">
-        <v>0.9470975381440733</v>
+        <v>1.016213775208649</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027945603080137</v>
+        <v>1.04072531092237</v>
       </c>
       <c r="J21">
-        <v>0.9817297587017306</v>
+        <v>1.021068236659782</v>
       </c>
       <c r="K21">
-        <v>0.994550805539983</v>
+        <v>1.028976344935185</v>
       </c>
       <c r="L21">
-        <v>0.9795331235685791</v>
+        <v>1.022790220236033</v>
       </c>
       <c r="M21">
-        <v>0.9631556076341691</v>
+        <v>1.030894348509366</v>
       </c>
       <c r="N21">
-        <v>0.9893468470656802</v>
+        <v>1.022518270674002</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.943844424227519</v>
+        <v>0.9845581477599886</v>
       </c>
       <c r="D22">
-        <v>0.974563958224441</v>
+        <v>1.009049238076319</v>
       </c>
       <c r="E22">
-        <v>0.9586458837383696</v>
+        <v>1.002329959657134</v>
       </c>
       <c r="F22">
-        <v>0.9401659349764049</v>
+        <v>1.01037614378328</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025928177627738</v>
+        <v>1.038581776390652</v>
       </c>
       <c r="J22">
-        <v>0.9772637195831716</v>
+        <v>1.015991386244142</v>
       </c>
       <c r="K22">
-        <v>0.9906567286623607</v>
+        <v>1.024443534351965</v>
       </c>
       <c r="L22">
-        <v>0.9750836333638768</v>
+        <v>1.017855400468771</v>
       </c>
       <c r="M22">
-        <v>0.9570238108325629</v>
+        <v>1.025744812118124</v>
       </c>
       <c r="N22">
-        <v>0.9862702008259806</v>
+        <v>1.01743421054845</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9471219098804682</v>
+        <v>0.9881036375251354</v>
       </c>
       <c r="D23">
-        <v>0.977019897767724</v>
+        <v>1.011830934115668</v>
       </c>
       <c r="E23">
-        <v>0.9614149456604741</v>
+        <v>1.005334115493194</v>
       </c>
       <c r="F23">
-        <v>0.9438680146232482</v>
+        <v>1.013492044407132</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027007136837589</v>
+        <v>1.039727373019982</v>
       </c>
       <c r="J23">
-        <v>0.9796492133968489</v>
+        <v>1.018702389383596</v>
       </c>
       <c r="K23">
-        <v>0.9927370336558754</v>
+        <v>1.026864135949936</v>
       </c>
       <c r="L23">
-        <v>0.9774600010912025</v>
+        <v>1.020490257614192</v>
       </c>
       <c r="M23">
-        <v>0.9602990749373451</v>
+        <v>1.028494143027007</v>
       </c>
       <c r="N23">
-        <v>0.987913630850161</v>
+        <v>1.020149063623319</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9595081735860627</v>
+        <v>1.001517861670365</v>
       </c>
       <c r="D24">
-        <v>0.9863154186106934</v>
+        <v>1.022372853819369</v>
       </c>
       <c r="E24">
-        <v>0.9719025468964633</v>
+        <v>1.016724129805311</v>
       </c>
       <c r="F24">
-        <v>0.9578608400575607</v>
+        <v>1.025307764314506</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031052433378423</v>
+        <v>1.044039826295395</v>
       </c>
       <c r="J24">
-        <v>0.9886592296944581</v>
+        <v>1.028957607689515</v>
       </c>
       <c r="K24">
-        <v>1.000587189665215</v>
+        <v>1.036018147325498</v>
       </c>
       <c r="L24">
-        <v>0.9864417309444916</v>
+        <v>1.030463781241381</v>
       </c>
       <c r="M24">
-        <v>0.9726707115879015</v>
+        <v>1.038904560204287</v>
       </c>
       <c r="N24">
-        <v>0.9941192819998761</v>
+        <v>1.030418845515521</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9729474114153757</v>
+        <v>1.016100682987691</v>
       </c>
       <c r="D25">
-        <v>0.9964219629903883</v>
+        <v>1.033861029534268</v>
       </c>
       <c r="E25">
-        <v>0.9833223749828718</v>
+        <v>1.029148063596402</v>
       </c>
       <c r="F25">
-        <v>0.9730525433554396</v>
+        <v>1.03819991055971</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035372120954573</v>
+        <v>1.048679819470191</v>
       </c>
       <c r="J25">
-        <v>0.998420807775854</v>
+        <v>1.040098084060971</v>
       </c>
       <c r="K25">
-        <v>1.009076078477608</v>
+        <v>1.045955491275489</v>
       </c>
       <c r="L25">
-        <v>0.9961852271052607</v>
+        <v>1.041310137501692</v>
       </c>
       <c r="M25">
-        <v>0.9860841027902705</v>
+        <v>1.050232812710295</v>
       </c>
       <c r="N25">
-        <v>1.000838613618705</v>
+        <v>1.041575142641255</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027058345526507</v>
+        <v>0.9966275802665908</v>
       </c>
       <c r="D2">
-        <v>1.042509310577648</v>
+        <v>1.016433252735233</v>
       </c>
       <c r="E2">
-        <v>1.038511151105348</v>
+        <v>1.012284846295068</v>
       </c>
       <c r="F2">
-        <v>1.047918733840718</v>
+        <v>1.020404662892474</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052124620900968</v>
+        <v>1.045742707723192</v>
       </c>
       <c r="J2">
-        <v>1.048458804829522</v>
+        <v>1.018909629844932</v>
       </c>
       <c r="K2">
-        <v>1.053406563576026</v>
+        <v>1.027668296864233</v>
       </c>
       <c r="L2">
-        <v>1.049458821738791</v>
+        <v>1.023575646174133</v>
       </c>
       <c r="M2">
-        <v>1.058748535532681</v>
+        <v>1.031586863116732</v>
       </c>
       <c r="N2">
-        <v>1.049947736592285</v>
+        <v>1.010294748128967</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034673584211815</v>
+        <v>1.000786842265986</v>
       </c>
       <c r="D3">
-        <v>1.048526184944762</v>
+        <v>1.019510940254184</v>
       </c>
       <c r="E3">
-        <v>1.045031837090766</v>
+        <v>1.01586702363813</v>
       </c>
       <c r="F3">
-        <v>1.054688741491091</v>
+        <v>1.02466439438069</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054493099270176</v>
+        <v>1.046926565892834</v>
       </c>
       <c r="J3">
-        <v>1.054261658522066</v>
+        <v>1.021256080126654</v>
       </c>
       <c r="K3">
-        <v>1.058573646753772</v>
+        <v>1.029900116073548</v>
       </c>
       <c r="L3">
-        <v>1.055119211073277</v>
+        <v>1.026300829829835</v>
       </c>
       <c r="M3">
-        <v>1.064666608750222</v>
+        <v>1.034991123879669</v>
       </c>
       <c r="N3">
-        <v>1.05575883100267</v>
+        <v>1.011075610315561</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039457541169802</v>
+        <v>1.003424435821972</v>
       </c>
       <c r="D4">
-        <v>1.052308318313054</v>
+        <v>1.021462205825685</v>
       </c>
       <c r="E4">
-        <v>1.049133819426258</v>
+        <v>1.018144204002708</v>
       </c>
       <c r="F4">
-        <v>1.058948272552566</v>
+        <v>1.027370991946889</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055968744522835</v>
+        <v>1.047662812486473</v>
       </c>
       <c r="J4">
-        <v>1.05790307633367</v>
+        <v>1.022740947975338</v>
       </c>
       <c r="K4">
-        <v>1.061813900663554</v>
+        <v>1.031308321890804</v>
       </c>
       <c r="L4">
-        <v>1.058673314614937</v>
+        <v>1.028028467529855</v>
       </c>
       <c r="M4">
-        <v>1.06838372456518</v>
+        <v>1.037149925936945</v>
       </c>
       <c r="N4">
-        <v>1.059405420045243</v>
+        <v>1.011569695041544</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041436244806633</v>
+        <v>1.004520841091775</v>
       </c>
       <c r="D5">
-        <v>1.053873098821168</v>
+        <v>1.022273153839205</v>
       </c>
       <c r="E5">
-        <v>1.050831710817097</v>
+        <v>1.019092088775511</v>
       </c>
       <c r="F5">
-        <v>1.060711543279082</v>
+        <v>1.028497327682862</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056576087532102</v>
+        <v>1.047965328643252</v>
       </c>
       <c r="J5">
-        <v>1.059408190361242</v>
+        <v>1.023357401409734</v>
       </c>
       <c r="K5">
-        <v>1.063152649326601</v>
+        <v>1.031891939950442</v>
       </c>
       <c r="L5">
-        <v>1.060142827564961</v>
+        <v>1.028746459126475</v>
       </c>
       <c r="M5">
-        <v>1.069920923790147</v>
+        <v>1.038047270801948</v>
       </c>
       <c r="N5">
-        <v>1.060912671507373</v>
+        <v>1.011774802389367</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041766626283773</v>
+        <v>1.004704214862765</v>
       </c>
       <c r="D6">
-        <v>1.054134391294705</v>
+        <v>1.0224087738284</v>
       </c>
       <c r="E6">
-        <v>1.051115277091532</v>
+        <v>1.019250697833952</v>
       </c>
       <c r="F6">
-        <v>1.061006038341717</v>
+        <v>1.028685779957196</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056677316469734</v>
+        <v>1.048015715486183</v>
       </c>
       <c r="J6">
-        <v>1.059659435328421</v>
+        <v>1.023460456372699</v>
       </c>
       <c r="K6">
-        <v>1.063376090254625</v>
+        <v>1.031989445821695</v>
       </c>
       <c r="L6">
-        <v>1.060388158156373</v>
+        <v>1.028866532942374</v>
       </c>
       <c r="M6">
-        <v>1.070177571036326</v>
+        <v>1.038197348767044</v>
       </c>
       <c r="N6">
-        <v>1.061164273271223</v>
+        <v>1.011809090033338</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039484105889002</v>
+        <v>1.003439134373384</v>
       </c>
       <c r="D7">
-        <v>1.052329324361416</v>
+        <v>1.021473078209417</v>
       </c>
       <c r="E7">
-        <v>1.049156609277744</v>
+        <v>1.018156906386461</v>
       </c>
       <c r="F7">
-        <v>1.05897193929818</v>
+        <v>1.027386086855438</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055976910254509</v>
+        <v>1.047666882067339</v>
       </c>
       <c r="J7">
-        <v>1.057923287088643</v>
+        <v>1.022749215360213</v>
       </c>
       <c r="K7">
-        <v>1.061831879667714</v>
+        <v>1.031316152925677</v>
       </c>
       <c r="L7">
-        <v>1.058693045396719</v>
+        <v>1.028038093689363</v>
       </c>
       <c r="M7">
-        <v>1.068404363030125</v>
+        <v>1.037161956037125</v>
       </c>
       <c r="N7">
-        <v>1.059425659501805</v>
+        <v>1.011572445842295</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029662887699958</v>
+        <v>0.9980446082624741</v>
       </c>
       <c r="D8">
-        <v>1.044566636796605</v>
+        <v>1.01748185716039</v>
       </c>
       <c r="E8">
-        <v>1.040740091199529</v>
+        <v>1.013504083166399</v>
       </c>
       <c r="F8">
-        <v>1.050232747563973</v>
+        <v>1.021854796404133</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052937226912606</v>
+        <v>1.046149046269737</v>
       </c>
       <c r="J8">
-        <v>1.050444279051179</v>
+        <v>1.019709684728901</v>
       </c>
       <c r="K8">
-        <v>1.055174956842169</v>
+        <v>1.028430120058014</v>
       </c>
       <c r="L8">
-        <v>1.051395103309897</v>
+        <v>1.024504188008481</v>
       </c>
       <c r="M8">
-        <v>1.060772704271399</v>
+        <v>1.032746649539747</v>
       </c>
       <c r="N8">
-        <v>1.051936030415075</v>
+        <v>1.010561004567929</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01116171357588</v>
+        <v>0.9881071958159029</v>
       </c>
       <c r="D9">
-        <v>1.029967222974527</v>
+        <v>1.010128542896096</v>
       </c>
       <c r="E9">
-        <v>1.02493551253479</v>
+        <v>1.004978690168924</v>
       </c>
       <c r="F9">
-        <v>1.033828132941834</v>
+        <v>1.011708665401861</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047114773280053</v>
+        <v>1.043240105662704</v>
       </c>
       <c r="J9">
-        <v>1.036326387631252</v>
+        <v>1.014087024449634</v>
       </c>
       <c r="K9">
-        <v>1.042592118147272</v>
+        <v>1.023059401476358</v>
       </c>
       <c r="L9">
-        <v>1.037636580203079</v>
+        <v>1.017991504761383</v>
       </c>
       <c r="M9">
-        <v>1.046395219182296</v>
+        <v>1.024614591617318</v>
       </c>
       <c r="N9">
-        <v>1.037798089969987</v>
+        <v>1.008689637263275</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9978744634853813</v>
+        <v>0.9811622921583516</v>
       </c>
       <c r="D10">
-        <v>1.019506983894833</v>
+        <v>1.004992703333832</v>
       </c>
       <c r="E10">
-        <v>1.013626828285922</v>
+        <v>0.9990539655406259</v>
       </c>
       <c r="F10">
-        <v>1.022094375147426</v>
+        <v>1.004648891829789</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042872263469683</v>
+        <v>1.041134076489464</v>
       </c>
       <c r="J10">
-        <v>1.026172667731326</v>
+        <v>1.010143767806243</v>
       </c>
       <c r="K10">
-        <v>1.033532744923164</v>
+        <v>1.019272394328213</v>
       </c>
       <c r="L10">
-        <v>1.027754329040344</v>
+        <v>1.013440321965754</v>
       </c>
       <c r="M10">
-        <v>1.036075847623499</v>
+        <v>1.018934713361229</v>
       </c>
       <c r="N10">
-        <v>1.027629950623155</v>
+        <v>1.007377105418623</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9918555394460803</v>
+        <v>0.9780719951883572</v>
       </c>
       <c r="D11">
-        <v>1.0147767486372</v>
+        <v>1.002709017425484</v>
       </c>
       <c r="E11">
-        <v>1.008516072070361</v>
+        <v>0.996426116608466</v>
       </c>
       <c r="F11">
-        <v>1.016792600251869</v>
+        <v>1.001515254432944</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040937201349159</v>
+        <v>1.040180372136927</v>
       </c>
       <c r="J11">
-        <v>1.021571106951719</v>
+        <v>1.008386339294352</v>
       </c>
       <c r="K11">
-        <v>1.029425275593605</v>
+        <v>1.01758002583768</v>
       </c>
       <c r="L11">
-        <v>1.023279155100335</v>
+        <v>1.011415747327085</v>
       </c>
       <c r="M11">
-        <v>1.031404632069367</v>
+        <v>1.016408651736991</v>
       </c>
       <c r="N11">
-        <v>1.023021855099434</v>
+        <v>1.006792138724791</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9895760721054351</v>
+        <v>0.9769109761624324</v>
       </c>
       <c r="D12">
-        <v>1.012986757522453</v>
+        <v>1.001851363453138</v>
       </c>
       <c r="E12">
-        <v>1.006582520683614</v>
+        <v>0.9954401670846775</v>
       </c>
       <c r="F12">
-        <v>1.014786950962245</v>
+        <v>1.000339158641625</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040202482640976</v>
+        <v>1.039819642649193</v>
       </c>
       <c r="J12">
-        <v>1.019828238202049</v>
+        <v>1.007725701029161</v>
       </c>
       <c r="K12">
-        <v>1.027869310615929</v>
+        <v>1.016943180007269</v>
       </c>
       <c r="L12">
-        <v>1.021584687307282</v>
+        <v>1.010655250823056</v>
       </c>
       <c r="M12">
-        <v>1.029636235643528</v>
+        <v>1.015459863790551</v>
       </c>
       <c r="N12">
-        <v>1.02127651127623</v>
+        <v>1.006572245529657</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9900670744926201</v>
+        <v>0.9771606246013245</v>
       </c>
       <c r="D13">
-        <v>1.013372257523798</v>
+        <v>1.002035764858852</v>
       </c>
       <c r="E13">
-        <v>1.006998919495219</v>
+        <v>0.9956521102565681</v>
       </c>
       <c r="F13">
-        <v>1.015218868571698</v>
+        <v>1.000591993829821</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040360825481337</v>
+        <v>1.039897317067934</v>
       </c>
       <c r="J13">
-        <v>1.020203661921419</v>
+        <v>1.007867771217577</v>
       </c>
       <c r="K13">
-        <v>1.028204484149791</v>
+        <v>1.017080163274318</v>
       </c>
       <c r="L13">
-        <v>1.021949660760302</v>
+        <v>1.010818770055665</v>
       </c>
       <c r="M13">
-        <v>1.030017118901643</v>
+        <v>1.015663865131127</v>
       </c>
       <c r="N13">
-        <v>1.021652468140343</v>
+        <v>1.006619533374072</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9916680352313755</v>
+        <v>0.9779762971179209</v>
       </c>
       <c r="D14">
-        <v>1.014629477454729</v>
+        <v>1.002638317476535</v>
       </c>
       <c r="E14">
-        <v>1.008356980923897</v>
+        <v>0.9963448214860904</v>
       </c>
       <c r="F14">
-        <v>1.016627573449666</v>
+        <v>1.001418288899413</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040876802298421</v>
+        <v>1.040150687569142</v>
       </c>
       <c r="J14">
-        <v>1.02142774506508</v>
+        <v>1.008331892953154</v>
       </c>
       <c r="K14">
-        <v>1.029297292246205</v>
+        <v>1.017527553711943</v>
       </c>
       <c r="L14">
-        <v>1.02313976356406</v>
+        <v>1.011353059733896</v>
       </c>
       <c r="M14">
-        <v>1.031259152796542</v>
+        <v>1.016330441662428</v>
       </c>
       <c r="N14">
-        <v>1.022878289622473</v>
+        <v>1.006774016210846</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9926485147108968</v>
+        <v>0.9784770975560994</v>
       </c>
       <c r="D15">
-        <v>1.015399633479344</v>
+        <v>1.003008313128166</v>
       </c>
       <c r="E15">
-        <v>1.009188966975358</v>
+        <v>0.9967703039050456</v>
       </c>
       <c r="F15">
-        <v>1.017490607678885</v>
+        <v>1.001925771540142</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041192559758388</v>
+        <v>1.040305932332477</v>
       </c>
       <c r="J15">
-        <v>1.022177393099535</v>
+        <v>1.008616802681977</v>
       </c>
       <c r="K15">
-        <v>1.029966515623786</v>
+        <v>1.017802105720736</v>
       </c>
       <c r="L15">
-        <v>1.023868672141512</v>
+        <v>1.01168111773384</v>
       </c>
       <c r="M15">
-        <v>1.032019907744242</v>
+        <v>1.016739735586682</v>
       </c>
       <c r="N15">
-        <v>1.023629002243122</v>
+        <v>1.006868848798283</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9982680064169902</v>
+        <v>0.9813655787395434</v>
       </c>
       <c r="D16">
-        <v>1.019816451562942</v>
+        <v>1.005142969685529</v>
       </c>
       <c r="E16">
-        <v>1.013961252981448</v>
+        <v>0.9992270126692196</v>
       </c>
       <c r="F16">
-        <v>1.022441322287974</v>
+        <v>1.004855194627968</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042998521006768</v>
+        <v>1.04119647332274</v>
       </c>
       <c r="J16">
-        <v>1.026473505117246</v>
+        <v>1.010259320894134</v>
       </c>
       <c r="K16">
-        <v>1.033801245055824</v>
+        <v>1.019383576255789</v>
       </c>
       <c r="L16">
-        <v>1.02804697523827</v>
+        <v>1.013573518850937</v>
       </c>
       <c r="M16">
-        <v>1.036381354183835</v>
+        <v>1.01910091512143</v>
       </c>
       <c r="N16">
-        <v>1.02793121523267</v>
+        <v>1.007415567943593</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00171930625116</v>
+        <v>0.9831547446569718</v>
       </c>
       <c r="D17">
-        <v>1.02253136256861</v>
+        <v>1.00646568832111</v>
       </c>
       <c r="E17">
-        <v>1.016895459868829</v>
+        <v>1.000751008619805</v>
       </c>
       <c r="F17">
-        <v>1.025485523113098</v>
+        <v>1.006671796512569</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044104292803627</v>
+        <v>1.041743760488708</v>
       </c>
       <c r="J17">
-        <v>1.029111574011282</v>
+        <v>1.011276014751732</v>
       </c>
       <c r="K17">
-        <v>1.036155541261572</v>
+        <v>1.02036129245529</v>
       </c>
       <c r="L17">
-        <v>1.030613596577808</v>
+        <v>1.014745882735844</v>
       </c>
       <c r="M17">
-        <v>1.039060982590013</v>
+        <v>1.020563847562314</v>
       </c>
       <c r="N17">
-        <v>1.030573030487126</v>
+        <v>1.007753980978002</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003707066654631</v>
+        <v>0.9841903629474784</v>
       </c>
       <c r="D18">
-        <v>1.024095748439804</v>
+        <v>1.007231463132181</v>
       </c>
       <c r="E18">
-        <v>1.018586507744716</v>
+        <v>1.001633942149942</v>
       </c>
       <c r="F18">
-        <v>1.027240064491405</v>
+        <v>1.007724030791659</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044739903044604</v>
+        <v>1.042058967186037</v>
       </c>
       <c r="J18">
-        <v>1.030630753319749</v>
+        <v>1.011864237811546</v>
       </c>
       <c r="K18">
-        <v>1.037511127866025</v>
+        <v>1.020926528763355</v>
       </c>
       <c r="L18">
-        <v>1.032091945090751</v>
+        <v>1.015424531102324</v>
       </c>
       <c r="M18">
-        <v>1.040604600326485</v>
+        <v>1.021410756167098</v>
       </c>
       <c r="N18">
-        <v>1.032094367204463</v>
+        <v>1.007949774781379</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004380656016509</v>
+        <v>0.9845421491469494</v>
       </c>
       <c r="D19">
-        <v>1.024625990051919</v>
+        <v>1.007491609963943</v>
       </c>
       <c r="E19">
-        <v>1.019159732761478</v>
+        <v>1.001933997979134</v>
       </c>
       <c r="F19">
-        <v>1.027834829333285</v>
+        <v>1.008081584850023</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04495507540352</v>
+        <v>1.042165769214359</v>
       </c>
       <c r="J19">
-        <v>1.031145516987198</v>
+        <v>1.012064003034446</v>
       </c>
       <c r="K19">
-        <v>1.037970428024982</v>
+        <v>1.021118412917685</v>
       </c>
       <c r="L19">
-        <v>1.032592925979816</v>
+        <v>1.015655066716112</v>
       </c>
       <c r="M19">
-        <v>1.041127729439574</v>
+        <v>1.02169845960079</v>
       </c>
       <c r="N19">
-        <v>1.032609861895364</v>
+        <v>1.008016267840286</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001351660333172</v>
+        <v>0.9829636132831481</v>
       </c>
       <c r="D20">
-        <v>1.022242080777634</v>
+        <v>1.006324370144187</v>
       </c>
       <c r="E20">
-        <v>1.016582780612682</v>
+        <v>1.000588120924195</v>
       </c>
       <c r="F20">
-        <v>1.025161111919364</v>
+        <v>1.006477657688672</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043986631241845</v>
+        <v>1.041685458649641</v>
       </c>
       <c r="J20">
-        <v>1.028830576991955</v>
+        <v>1.011167431736354</v>
       </c>
       <c r="K20">
-        <v>1.035904788749175</v>
+        <v>1.020256917297791</v>
       </c>
       <c r="L20">
-        <v>1.030340177109885</v>
+        <v>1.014620636811733</v>
       </c>
       <c r="M20">
-        <v>1.038775505980365</v>
+        <v>1.020407553639583</v>
       </c>
       <c r="N20">
-        <v>1.030291634419801</v>
+        <v>1.007717838410744</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9911978343475346</v>
+        <v>0.9777364702782915</v>
       </c>
       <c r="D21">
-        <v>1.014260191933058</v>
+        <v>1.002461143354153</v>
       </c>
       <c r="E21">
-        <v>1.007958063444443</v>
+        <v>0.9961411111457583</v>
       </c>
       <c r="F21">
-        <v>1.016213775208649</v>
+        <v>1.001175305263616</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04072531092237</v>
+        <v>1.040076256894194</v>
       </c>
       <c r="J21">
-        <v>1.021068236659782</v>
+        <v>1.008195440268208</v>
       </c>
       <c r="K21">
-        <v>1.028976344935185</v>
+        <v>1.017396038156924</v>
       </c>
       <c r="L21">
-        <v>1.022790220236033</v>
+        <v>1.011195962022215</v>
       </c>
       <c r="M21">
-        <v>1.030894348509366</v>
+        <v>1.016134445285574</v>
       </c>
       <c r="N21">
-        <v>1.022518270674002</v>
+        <v>1.006728597863725</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9845581477599886</v>
+        <v>0.9743735449489783</v>
       </c>
       <c r="D22">
-        <v>1.009049238076319</v>
+        <v>0.9999776257429599</v>
       </c>
       <c r="E22">
-        <v>1.002329959657134</v>
+        <v>0.9932878565961324</v>
       </c>
       <c r="F22">
-        <v>1.01037614378328</v>
+        <v>0.9977710385768396</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038581776390652</v>
+        <v>1.039026878264693</v>
       </c>
       <c r="J22">
-        <v>1.015991386244142</v>
+        <v>1.006281220681086</v>
       </c>
       <c r="K22">
-        <v>1.024443534351965</v>
+        <v>1.015549525884784</v>
       </c>
       <c r="L22">
-        <v>1.017855400468771</v>
+        <v>1.008993465454473</v>
       </c>
       <c r="M22">
-        <v>1.025744812118124</v>
+        <v>1.013386781327926</v>
       </c>
       <c r="N22">
-        <v>1.01743421054845</v>
+        <v>1.006091458583983</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9881036375251354</v>
+        <v>0.9761637702326924</v>
       </c>
       <c r="D23">
-        <v>1.011830934115668</v>
+        <v>1.001299497536045</v>
       </c>
       <c r="E23">
-        <v>1.005334115493194</v>
+        <v>0.9948060131093954</v>
       </c>
       <c r="F23">
-        <v>1.013492044407132</v>
+        <v>0.9995825944821637</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039727373019982</v>
+        <v>1.039586810502132</v>
       </c>
       <c r="J23">
-        <v>1.018702389383596</v>
+        <v>1.00730042867249</v>
       </c>
       <c r="K23">
-        <v>1.026864135949936</v>
+        <v>1.016533039270315</v>
       </c>
       <c r="L23">
-        <v>1.020490257614192</v>
+        <v>1.010165855445659</v>
       </c>
       <c r="M23">
-        <v>1.028494143027007</v>
+        <v>1.01484932145803</v>
       </c>
       <c r="N23">
-        <v>1.020149063623319</v>
+        <v>1.006430694870531</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001517861670365</v>
+        <v>0.9830500019115174</v>
       </c>
       <c r="D24">
-        <v>1.022372853819369</v>
+        <v>1.006388243468939</v>
       </c>
       <c r="E24">
-        <v>1.016724129805311</v>
+        <v>1.000661741331526</v>
       </c>
       <c r="F24">
-        <v>1.025307764314506</v>
+        <v>1.006565403364408</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044039826295395</v>
+        <v>1.041711815138883</v>
       </c>
       <c r="J24">
-        <v>1.028957607689515</v>
+        <v>1.011216510527233</v>
       </c>
       <c r="K24">
-        <v>1.036018147325498</v>
+        <v>1.020304095517972</v>
       </c>
       <c r="L24">
-        <v>1.030463781241381</v>
+        <v>1.014677246007883</v>
       </c>
       <c r="M24">
-        <v>1.038904560204287</v>
+        <v>1.020478195863501</v>
       </c>
       <c r="N24">
-        <v>1.030418845515521</v>
+        <v>1.007734174607637</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016100682987691</v>
+        <v>0.9907303525723395</v>
       </c>
       <c r="D25">
-        <v>1.033861029534268</v>
+        <v>1.012069321322576</v>
       </c>
       <c r="E25">
-        <v>1.029148063596402</v>
+        <v>1.007223547725147</v>
       </c>
       <c r="F25">
-        <v>1.03819991055971</v>
+        <v>1.014381704015095</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048679819470191</v>
+        <v>1.044020814889961</v>
       </c>
       <c r="J25">
-        <v>1.040098084060971</v>
+        <v>1.01557375568355</v>
       </c>
       <c r="K25">
-        <v>1.045955491275489</v>
+        <v>1.024483121860504</v>
       </c>
       <c r="L25">
-        <v>1.041310137501692</v>
+        <v>1.019710752886485</v>
       </c>
       <c r="M25">
-        <v>1.050232812710295</v>
+        <v>1.026760790706391</v>
       </c>
       <c r="N25">
-        <v>1.041575142641255</v>
+        <v>1.009184488872406</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9966275802665908</v>
+        <v>1.024878486356477</v>
       </c>
       <c r="D2">
-        <v>1.016433252735233</v>
+        <v>1.030165460717941</v>
       </c>
       <c r="E2">
-        <v>1.012284846295068</v>
+        <v>1.035649366270501</v>
       </c>
       <c r="F2">
-        <v>1.020404662892474</v>
+        <v>1.04753693780185</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045742707723192</v>
+        <v>1.032560302146778</v>
       </c>
       <c r="J2">
-        <v>1.018909629844932</v>
+        <v>1.030050636249559</v>
       </c>
       <c r="K2">
-        <v>1.027668296864233</v>
+        <v>1.032977262253909</v>
       </c>
       <c r="L2">
-        <v>1.023575646174133</v>
+        <v>1.038445365765775</v>
       </c>
       <c r="M2">
-        <v>1.031586863116732</v>
+        <v>1.050299299224731</v>
       </c>
       <c r="N2">
-        <v>1.010294748128967</v>
+        <v>1.01406302036066</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000786842265986</v>
+        <v>1.025752978934303</v>
       </c>
       <c r="D3">
-        <v>1.019510940254184</v>
+        <v>1.030816392315695</v>
       </c>
       <c r="E3">
-        <v>1.01586702363813</v>
+        <v>1.03645691777828</v>
       </c>
       <c r="F3">
-        <v>1.02466439438069</v>
+        <v>1.048502071177893</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046926565892834</v>
+        <v>1.032723270124941</v>
       </c>
       <c r="J3">
-        <v>1.021256080126654</v>
+        <v>1.030564611160075</v>
       </c>
       <c r="K3">
-        <v>1.029900116073548</v>
+        <v>1.033436914725521</v>
       </c>
       <c r="L3">
-        <v>1.026300829829835</v>
+        <v>1.039062360842412</v>
       </c>
       <c r="M3">
-        <v>1.034991123879669</v>
+        <v>1.051075899308887</v>
       </c>
       <c r="N3">
-        <v>1.011075610315561</v>
+        <v>1.014233418889214</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003424435821972</v>
+        <v>1.026319157645383</v>
       </c>
       <c r="D4">
-        <v>1.021462205825685</v>
+        <v>1.031237414278182</v>
       </c>
       <c r="E4">
-        <v>1.018144204002708</v>
+        <v>1.036980129289829</v>
       </c>
       <c r="F4">
-        <v>1.027370991946889</v>
+        <v>1.0491273180001</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047662812486473</v>
+        <v>1.032826980742789</v>
       </c>
       <c r="J4">
-        <v>1.022740947975338</v>
+        <v>1.030896884142857</v>
       </c>
       <c r="K4">
-        <v>1.031308321890804</v>
+        <v>1.033733483033454</v>
       </c>
       <c r="L4">
-        <v>1.028028467529855</v>
+        <v>1.039461617865554</v>
       </c>
       <c r="M4">
-        <v>1.037149925936945</v>
+        <v>1.051578532144539</v>
       </c>
       <c r="N4">
-        <v>1.011569695041544</v>
+        <v>1.014343553498697</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004520841091775</v>
+        <v>1.026557255352977</v>
       </c>
       <c r="D5">
-        <v>1.022273153839205</v>
+        <v>1.031414368527126</v>
       </c>
       <c r="E5">
-        <v>1.019092088775511</v>
+        <v>1.037200246681133</v>
       </c>
       <c r="F5">
-        <v>1.028497327682862</v>
+        <v>1.04939034760694</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047965328643252</v>
+        <v>1.032870163177535</v>
       </c>
       <c r="J5">
-        <v>1.023357401409734</v>
+        <v>1.031036498024277</v>
       </c>
       <c r="K5">
-        <v>1.031891939950442</v>
+        <v>1.033857953791685</v>
       </c>
       <c r="L5">
-        <v>1.028746459126475</v>
+        <v>1.039629469066817</v>
       </c>
       <c r="M5">
-        <v>1.038047270801948</v>
+        <v>1.051789866460172</v>
       </c>
       <c r="N5">
-        <v>1.011774802389367</v>
+        <v>1.014389823853464</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004704214862765</v>
+        <v>1.026597237435687</v>
       </c>
       <c r="D6">
-        <v>1.0224087738284</v>
+        <v>1.031444077331858</v>
       </c>
       <c r="E6">
-        <v>1.019250697833952</v>
+        <v>1.037237214654893</v>
       </c>
       <c r="F6">
-        <v>1.028685779957196</v>
+        <v>1.049434521701664</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048015715486183</v>
+        <v>1.03287738919164</v>
       </c>
       <c r="J6">
-        <v>1.023460456372699</v>
+        <v>1.031059935456446</v>
       </c>
       <c r="K6">
-        <v>1.031989445821695</v>
+        <v>1.033878840830481</v>
       </c>
       <c r="L6">
-        <v>1.028866532942374</v>
+        <v>1.039657652194444</v>
       </c>
       <c r="M6">
-        <v>1.038197348767044</v>
+        <v>1.051825351991506</v>
       </c>
       <c r="N6">
-        <v>1.011809090033338</v>
+        <v>1.014397591065044</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003439134373384</v>
+        <v>1.026322338820883</v>
       </c>
       <c r="D7">
-        <v>1.021473078209417</v>
+        <v>1.031239778922079</v>
       </c>
       <c r="E7">
-        <v>1.018156906386461</v>
+        <v>1.036983069885286</v>
       </c>
       <c r="F7">
-        <v>1.027386086855438</v>
+        <v>1.049130831925593</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047666882067339</v>
+        <v>1.03282755939015</v>
       </c>
       <c r="J7">
-        <v>1.022749215360213</v>
+        <v>1.030898749961282</v>
       </c>
       <c r="K7">
-        <v>1.031316152925677</v>
+        <v>1.033735147031035</v>
       </c>
       <c r="L7">
-        <v>1.028038093689363</v>
+        <v>1.039463860689124</v>
       </c>
       <c r="M7">
-        <v>1.037161956037125</v>
+        <v>1.051581355897845</v>
       </c>
       <c r="N7">
-        <v>1.011572445842295</v>
+        <v>1.014344171884747</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9980446082624741</v>
+        <v>1.025173957458756</v>
       </c>
       <c r="D8">
-        <v>1.01748185716039</v>
+        <v>1.030385481198091</v>
       </c>
       <c r="E8">
-        <v>1.013504083166399</v>
+        <v>1.035922142086748</v>
       </c>
       <c r="F8">
-        <v>1.021854796404133</v>
+        <v>1.047862954785455</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046149046269737</v>
+        <v>1.032615737843937</v>
       </c>
       <c r="J8">
-        <v>1.019709684728901</v>
+        <v>1.030224398583366</v>
       </c>
       <c r="K8">
-        <v>1.028430120058014</v>
+        <v>1.033132780774336</v>
       </c>
       <c r="L8">
-        <v>1.024504188008481</v>
+        <v>1.03865387727248</v>
       </c>
       <c r="M8">
-        <v>1.032746649539747</v>
+        <v>1.050561729029075</v>
       </c>
       <c r="N8">
-        <v>1.010561004567929</v>
+        <v>1.014120632908472</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9881071958159029</v>
+        <v>1.023152896975951</v>
       </c>
       <c r="D9">
-        <v>1.010128542896096</v>
+        <v>1.028878837222609</v>
       </c>
       <c r="E9">
-        <v>1.004978690168924</v>
+        <v>1.034057863530288</v>
       </c>
       <c r="F9">
-        <v>1.011708665401861</v>
+        <v>1.045634536745269</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043240105662704</v>
+        <v>1.032229186365226</v>
       </c>
       <c r="J9">
-        <v>1.014087024449634</v>
+        <v>1.029033832124334</v>
       </c>
       <c r="K9">
-        <v>1.023059401476358</v>
+        <v>1.032064821493781</v>
       </c>
       <c r="L9">
-        <v>1.017991504761383</v>
+        <v>1.03722678985006</v>
       </c>
       <c r="M9">
-        <v>1.024614591617318</v>
+        <v>1.048766002451267</v>
       </c>
       <c r="N9">
-        <v>1.008689637263275</v>
+        <v>1.013725791633527</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9811622921583516</v>
+        <v>1.021807301920458</v>
       </c>
       <c r="D10">
-        <v>1.004992703333832</v>
+        <v>1.027873656628635</v>
       </c>
       <c r="E10">
-        <v>0.9990539655406259</v>
+        <v>1.032818605497332</v>
       </c>
       <c r="F10">
-        <v>1.004648891829789</v>
+        <v>1.044152877419586</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041134076489464</v>
+        <v>1.031962594331995</v>
       </c>
       <c r="J10">
-        <v>1.010143767806243</v>
+        <v>1.028238657662767</v>
       </c>
       <c r="K10">
-        <v>1.019272394328213</v>
+        <v>1.031348543162167</v>
       </c>
       <c r="L10">
-        <v>1.013440321965754</v>
+        <v>1.036275609461685</v>
       </c>
       <c r="M10">
-        <v>1.018934713361229</v>
+        <v>1.047569597407261</v>
       </c>
       <c r="N10">
-        <v>1.007377105418623</v>
+        <v>1.013461957485844</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9780719951883572</v>
+        <v>1.021225081662648</v>
       </c>
       <c r="D11">
-        <v>1.002709017425484</v>
+        <v>1.027438244463909</v>
       </c>
       <c r="E11">
-        <v>0.996426116608466</v>
+        <v>1.032282864430456</v>
       </c>
       <c r="F11">
-        <v>1.001515254432944</v>
+        <v>1.043512258988037</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040180372136927</v>
+        <v>1.031845058058781</v>
       </c>
       <c r="J11">
-        <v>1.008386339294352</v>
+        <v>1.027894004684867</v>
       </c>
       <c r="K11">
-        <v>1.01758002583768</v>
+        <v>1.031037380798006</v>
       </c>
       <c r="L11">
-        <v>1.011415747327085</v>
+        <v>1.035863802947705</v>
       </c>
       <c r="M11">
-        <v>1.016408651736991</v>
+        <v>1.047051734950101</v>
       </c>
       <c r="N11">
-        <v>1.006792138724791</v>
+        <v>1.013347575365701</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9769109761624324</v>
+        <v>1.021008885128114</v>
       </c>
       <c r="D12">
-        <v>1.001851363453138</v>
+        <v>1.027276490224667</v>
       </c>
       <c r="E12">
-        <v>0.9954401670846775</v>
+        <v>1.032083997924398</v>
       </c>
       <c r="F12">
-        <v>1.000339158641625</v>
+        <v>1.043274448969648</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039819642649193</v>
+        <v>1.031801085083161</v>
       </c>
       <c r="J12">
-        <v>1.007725701029161</v>
+        <v>1.027765935621124</v>
       </c>
       <c r="K12">
-        <v>1.016943180007269</v>
+        <v>1.030921650828703</v>
       </c>
       <c r="L12">
-        <v>1.010655250823056</v>
+        <v>1.035710850000278</v>
       </c>
       <c r="M12">
-        <v>1.015459863790551</v>
+        <v>1.046859407495104</v>
       </c>
       <c r="N12">
-        <v>1.006572245529657</v>
+        <v>1.013305068073951</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9771606246013245</v>
+        <v>1.021055257013138</v>
       </c>
       <c r="D13">
-        <v>1.002035764858852</v>
+        <v>1.027311188062821</v>
       </c>
       <c r="E13">
-        <v>0.9956521102565681</v>
+        <v>1.032126649486733</v>
       </c>
       <c r="F13">
-        <v>1.000591993829821</v>
+        <v>1.043325453477042</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039897317067934</v>
+        <v>1.031810531667634</v>
       </c>
       <c r="J13">
-        <v>1.007867771217577</v>
+        <v>1.0277934090977</v>
       </c>
       <c r="K13">
-        <v>1.017080163274318</v>
+        <v>1.030946482087315</v>
       </c>
       <c r="L13">
-        <v>1.010818770055665</v>
+        <v>1.035743658440412</v>
       </c>
       <c r="M13">
-        <v>1.015663865131127</v>
+        <v>1.046900661020538</v>
       </c>
       <c r="N13">
-        <v>1.006619533374072</v>
+        <v>1.013314186961978</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9779762971179209</v>
+        <v>1.021207209436505</v>
       </c>
       <c r="D14">
-        <v>1.002638317476535</v>
+        <v>1.027424874263317</v>
       </c>
       <c r="E14">
-        <v>0.9963448214860904</v>
+        <v>1.032266423370187</v>
       </c>
       <c r="F14">
-        <v>1.001418288899413</v>
+        <v>1.043492598587683</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040150687569142</v>
+        <v>1.031841429655763</v>
       </c>
       <c r="J14">
-        <v>1.008331892953154</v>
+        <v>1.027883419461873</v>
       </c>
       <c r="K14">
-        <v>1.017527553711943</v>
+        <v>1.031027817584116</v>
       </c>
       <c r="L14">
-        <v>1.011353059733896</v>
+        <v>1.03585115959185</v>
       </c>
       <c r="M14">
-        <v>1.016330441662428</v>
+        <v>1.047035836488602</v>
       </c>
       <c r="N14">
-        <v>1.006774016210846</v>
+        <v>1.013344062119349</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9784770975560994</v>
+        <v>1.021300841120086</v>
       </c>
       <c r="D15">
-        <v>1.003008313128166</v>
+        <v>1.027494917113882</v>
       </c>
       <c r="E15">
-        <v>0.9967703039050456</v>
+        <v>1.032352560153274</v>
       </c>
       <c r="F15">
-        <v>1.001925771540142</v>
+        <v>1.043595601357995</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040305932332477</v>
+        <v>1.031860425238412</v>
       </c>
       <c r="J15">
-        <v>1.008616802681977</v>
+        <v>1.027938871276759</v>
       </c>
       <c r="K15">
-        <v>1.017802105720736</v>
+        <v>1.031077911172649</v>
       </c>
       <c r="L15">
-        <v>1.01168111773384</v>
+        <v>1.035917396003059</v>
       </c>
       <c r="M15">
-        <v>1.016739735586682</v>
+        <v>1.047119126534316</v>
       </c>
       <c r="N15">
-        <v>1.006868848798283</v>
+        <v>1.013362466461016</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9813655787395434</v>
+        <v>1.021845951150279</v>
       </c>
       <c r="D16">
-        <v>1.005142969685529</v>
+        <v>1.027902550217774</v>
       </c>
       <c r="E16">
-        <v>0.9992270126692196</v>
+        <v>1.032854179237657</v>
       </c>
       <c r="F16">
-        <v>1.004855194627968</v>
+        <v>1.044195413294094</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04119647332274</v>
+        <v>1.031970350643875</v>
       </c>
       <c r="J16">
-        <v>1.010259320894134</v>
+        <v>1.02826152413191</v>
       </c>
       <c r="K16">
-        <v>1.019383576255789</v>
+        <v>1.031369172824703</v>
       </c>
       <c r="L16">
-        <v>1.013573518850937</v>
+        <v>1.036302941087234</v>
       </c>
       <c r="M16">
-        <v>1.01910091512143</v>
+        <v>1.047603970326643</v>
       </c>
       <c r="N16">
-        <v>1.007415567943593</v>
+        <v>1.013469545729457</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9831547446569718</v>
+        <v>1.02218800058213</v>
       </c>
       <c r="D17">
-        <v>1.00646568832111</v>
+        <v>1.028158205374682</v>
       </c>
       <c r="E17">
-        <v>1.000751008619805</v>
+        <v>1.033169064504662</v>
       </c>
       <c r="F17">
-        <v>1.006671796512569</v>
+        <v>1.044571914823926</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041743760488708</v>
+        <v>1.032038742207465</v>
       </c>
       <c r="J17">
-        <v>1.011276014751732</v>
+        <v>1.02846382621551</v>
       </c>
       <c r="K17">
-        <v>1.02036129245529</v>
+        <v>1.031551604239957</v>
       </c>
       <c r="L17">
-        <v>1.014745882735844</v>
+        <v>1.036544800465034</v>
       </c>
       <c r="M17">
-        <v>1.020563847562314</v>
+        <v>1.04790815153572</v>
       </c>
       <c r="N17">
-        <v>1.007753980978002</v>
+        <v>1.0135366764626</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9841903629474784</v>
+        <v>1.022387553760764</v>
       </c>
       <c r="D18">
-        <v>1.007231463132181</v>
+        <v>1.028307308931587</v>
       </c>
       <c r="E18">
-        <v>1.001633942149942</v>
+        <v>1.033352815194172</v>
       </c>
       <c r="F18">
-        <v>1.007724030791659</v>
+        <v>1.044791613341843</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042058967186037</v>
+        <v>1.032078431163617</v>
       </c>
       <c r="J18">
-        <v>1.011864237811546</v>
+        <v>1.02858179299368</v>
       </c>
       <c r="K18">
-        <v>1.020926528763355</v>
+        <v>1.031657915952619</v>
       </c>
       <c r="L18">
-        <v>1.015424531102324</v>
+        <v>1.036685878742203</v>
       </c>
       <c r="M18">
-        <v>1.021410756167098</v>
+        <v>1.048085593416751</v>
       </c>
       <c r="N18">
-        <v>1.007949774781379</v>
+        <v>1.013575819131258</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9845421491469494</v>
+        <v>1.022455603245883</v>
       </c>
       <c r="D19">
-        <v>1.007491609963943</v>
+        <v>1.028358146667092</v>
       </c>
       <c r="E19">
-        <v>1.001933997979134</v>
+        <v>1.033415483538131</v>
       </c>
       <c r="F19">
-        <v>1.008081584850023</v>
+        <v>1.04486654034131</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042165769214359</v>
+        <v>1.03209192966995</v>
       </c>
       <c r="J19">
-        <v>1.012064003034446</v>
+        <v>1.028622011054016</v>
       </c>
       <c r="K19">
-        <v>1.021118412917685</v>
+        <v>1.031694148934407</v>
       </c>
       <c r="L19">
-        <v>1.015655066716112</v>
+        <v>1.036733983735684</v>
       </c>
       <c r="M19">
-        <v>1.02169845960079</v>
+        <v>1.048146099546377</v>
       </c>
       <c r="N19">
-        <v>1.008016267840286</v>
+        <v>1.013589163459373</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9829636132831481</v>
+        <v>1.022151297610676</v>
       </c>
       <c r="D20">
-        <v>1.006324370144187</v>
+        <v>1.0281307776154</v>
       </c>
       <c r="E20">
-        <v>1.000588120924195</v>
+        <v>1.033135271654054</v>
       </c>
       <c r="F20">
-        <v>1.006477657688672</v>
+        <v>1.044531510293184</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041685458649641</v>
+        <v>1.032031425399207</v>
       </c>
       <c r="J20">
-        <v>1.011167431736354</v>
+        <v>1.028442124481289</v>
       </c>
       <c r="K20">
-        <v>1.020256917297791</v>
+        <v>1.031532041146176</v>
       </c>
       <c r="L20">
-        <v>1.014620636811733</v>
+        <v>1.036518850634861</v>
       </c>
       <c r="M20">
-        <v>1.020407553639583</v>
+        <v>1.047875513885861</v>
       </c>
       <c r="N20">
-        <v>1.007717838410744</v>
+        <v>1.013529475369249</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9777364702782915</v>
+        <v>1.021162461403802</v>
       </c>
       <c r="D21">
-        <v>1.002461143354153</v>
+        <v>1.027391397126582</v>
       </c>
       <c r="E21">
-        <v>0.9961411111457583</v>
+        <v>1.032225259801018</v>
       </c>
       <c r="F21">
-        <v>1.001175305263616</v>
+        <v>1.043443374526265</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040076256894194</v>
+        <v>1.031832339651526</v>
       </c>
       <c r="J21">
-        <v>1.008195440268208</v>
+        <v>1.02785691501386</v>
       </c>
       <c r="K21">
-        <v>1.017396038156924</v>
+        <v>1.031003870450088</v>
       </c>
       <c r="L21">
-        <v>1.011195962022215</v>
+        <v>1.035819502887573</v>
       </c>
       <c r="M21">
-        <v>1.016134445285574</v>
+        <v>1.046996029851176</v>
       </c>
       <c r="N21">
-        <v>1.006728597863725</v>
+        <v>1.013335265197907</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9743735449489783</v>
+        <v>1.020541123239411</v>
       </c>
       <c r="D22">
-        <v>0.9999776257429599</v>
+        <v>1.026926388295065</v>
       </c>
       <c r="E22">
-        <v>0.9932878565961324</v>
+        <v>1.031653861251306</v>
       </c>
       <c r="F22">
-        <v>0.9977710385768396</v>
+        <v>1.042760055359949</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039026878264693</v>
+        <v>1.031705345747107</v>
       </c>
       <c r="J22">
-        <v>1.006281220681086</v>
+        <v>1.027488684133546</v>
       </c>
       <c r="K22">
-        <v>1.015549525884784</v>
+        <v>1.030670918917207</v>
       </c>
       <c r="L22">
-        <v>1.008993465454473</v>
+        <v>1.035379855537276</v>
       </c>
       <c r="M22">
-        <v>1.013386781327926</v>
+        <v>1.046443235946552</v>
       </c>
       <c r="N22">
-        <v>1.006091458583983</v>
+        <v>1.013213038098742</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9761637702326924</v>
+        <v>1.020870469708917</v>
       </c>
       <c r="D23">
-        <v>1.001299497536045</v>
+        <v>1.027172910152326</v>
       </c>
       <c r="E23">
-        <v>0.9948060131093954</v>
+        <v>1.031956697703807</v>
       </c>
       <c r="F23">
-        <v>0.9995825944821637</v>
+        <v>1.04312221613585</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039586810502132</v>
+        <v>1.03177283995744</v>
       </c>
       <c r="J23">
-        <v>1.00730042867249</v>
+        <v>1.027683917091474</v>
       </c>
       <c r="K23">
-        <v>1.016533039270315</v>
+        <v>1.03084750485942</v>
       </c>
       <c r="L23">
-        <v>1.010165855445659</v>
+        <v>1.03561291480285</v>
       </c>
       <c r="M23">
-        <v>1.01484932145803</v>
+        <v>1.046736265642195</v>
       </c>
       <c r="N23">
-        <v>1.006430694870531</v>
+        <v>1.013277844192121</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9830500019115174</v>
+        <v>1.022167881975386</v>
       </c>
       <c r="D24">
-        <v>1.006388243468939</v>
+        <v>1.028143171088108</v>
       </c>
       <c r="E24">
-        <v>1.000661741331526</v>
+        <v>1.033150540930987</v>
       </c>
       <c r="F24">
-        <v>1.006565403364408</v>
+        <v>1.04454976707871</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041711815138883</v>
+        <v>1.032034732176242</v>
       </c>
       <c r="J24">
-        <v>1.011216510527233</v>
+        <v>1.028451930661687</v>
       </c>
       <c r="K24">
-        <v>1.020304095517972</v>
+        <v>1.031540881167379</v>
       </c>
       <c r="L24">
-        <v>1.014677246007883</v>
+        <v>1.036530576228331</v>
       </c>
       <c r="M24">
-        <v>1.020478195863501</v>
+        <v>1.047890261379072</v>
       </c>
       <c r="N24">
-        <v>1.007734174607637</v>
+        <v>1.013532729275279</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9907303525723395</v>
+        <v>1.02367508153529</v>
       </c>
       <c r="D25">
-        <v>1.012069321322576</v>
+        <v>1.029268480324504</v>
       </c>
       <c r="E25">
-        <v>1.007223547725147</v>
+        <v>1.03453919729021</v>
       </c>
       <c r="F25">
-        <v>1.014381704015095</v>
+        <v>1.046209946195543</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044020814889961</v>
+        <v>1.032330689771094</v>
       </c>
       <c r="J25">
-        <v>1.01557375568355</v>
+        <v>1.029341884778403</v>
       </c>
       <c r="K25">
-        <v>1.024483121860504</v>
+        <v>1.032341678796014</v>
       </c>
       <c r="L25">
-        <v>1.019710752886485</v>
+        <v>1.037595694197251</v>
       </c>
       <c r="M25">
-        <v>1.026760790706391</v>
+        <v>1.049230115386164</v>
       </c>
       <c r="N25">
-        <v>1.009184488872406</v>
+        <v>1.013827976197323</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024878486356477</v>
+        <v>0.9966275802665908</v>
       </c>
       <c r="D2">
-        <v>1.030165460717941</v>
+        <v>1.016433252735233</v>
       </c>
       <c r="E2">
-        <v>1.035649366270501</v>
+        <v>1.012284846295068</v>
       </c>
       <c r="F2">
-        <v>1.04753693780185</v>
+        <v>1.020404662892474</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032560302146778</v>
+        <v>1.045742707723192</v>
       </c>
       <c r="J2">
-        <v>1.030050636249559</v>
+        <v>1.018909629844932</v>
       </c>
       <c r="K2">
-        <v>1.032977262253909</v>
+        <v>1.027668296864233</v>
       </c>
       <c r="L2">
-        <v>1.038445365765775</v>
+        <v>1.023575646174132</v>
       </c>
       <c r="M2">
-        <v>1.050299299224731</v>
+        <v>1.031586863116732</v>
       </c>
       <c r="N2">
-        <v>1.01406302036066</v>
+        <v>1.010294748128967</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025752978934303</v>
+        <v>1.000786842265987</v>
       </c>
       <c r="D3">
-        <v>1.030816392315695</v>
+        <v>1.019510940254185</v>
       </c>
       <c r="E3">
-        <v>1.03645691777828</v>
+        <v>1.01586702363813</v>
       </c>
       <c r="F3">
-        <v>1.048502071177893</v>
+        <v>1.02466439438069</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032723270124941</v>
+        <v>1.046926565892835</v>
       </c>
       <c r="J3">
-        <v>1.030564611160075</v>
+        <v>1.021256080126655</v>
       </c>
       <c r="K3">
-        <v>1.033436914725521</v>
+        <v>1.029900116073549</v>
       </c>
       <c r="L3">
-        <v>1.039062360842412</v>
+        <v>1.026300829829835</v>
       </c>
       <c r="M3">
-        <v>1.051075899308887</v>
+        <v>1.034991123879669</v>
       </c>
       <c r="N3">
-        <v>1.014233418889214</v>
+        <v>1.011075610315561</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026319157645383</v>
+        <v>1.003424435821972</v>
       </c>
       <c r="D4">
-        <v>1.031237414278182</v>
+        <v>1.021462205825684</v>
       </c>
       <c r="E4">
-        <v>1.036980129289829</v>
+        <v>1.018144204002707</v>
       </c>
       <c r="F4">
-        <v>1.0491273180001</v>
+        <v>1.027370991946889</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032826980742789</v>
+        <v>1.047662812486472</v>
       </c>
       <c r="J4">
-        <v>1.030896884142857</v>
+        <v>1.022740947975338</v>
       </c>
       <c r="K4">
-        <v>1.033733483033454</v>
+        <v>1.031308321890804</v>
       </c>
       <c r="L4">
-        <v>1.039461617865554</v>
+        <v>1.028028467529855</v>
       </c>
       <c r="M4">
-        <v>1.051578532144539</v>
+        <v>1.037149925936945</v>
       </c>
       <c r="N4">
-        <v>1.014343553498697</v>
+        <v>1.011569695041544</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026557255352977</v>
+        <v>1.004520841091775</v>
       </c>
       <c r="D5">
-        <v>1.031414368527126</v>
+        <v>1.022273153839205</v>
       </c>
       <c r="E5">
-        <v>1.037200246681133</v>
+        <v>1.019092088775511</v>
       </c>
       <c r="F5">
-        <v>1.04939034760694</v>
+        <v>1.028497327682862</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032870163177535</v>
+        <v>1.047965328643253</v>
       </c>
       <c r="J5">
-        <v>1.031036498024277</v>
+        <v>1.023357401409733</v>
       </c>
       <c r="K5">
-        <v>1.033857953791685</v>
+        <v>1.031891939950442</v>
       </c>
       <c r="L5">
-        <v>1.039629469066817</v>
+        <v>1.028746459126474</v>
       </c>
       <c r="M5">
-        <v>1.051789866460172</v>
+        <v>1.038047270801947</v>
       </c>
       <c r="N5">
-        <v>1.014389823853464</v>
+        <v>1.011774802389367</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026597237435687</v>
+        <v>1.004704214862765</v>
       </c>
       <c r="D6">
-        <v>1.031444077331858</v>
+        <v>1.022408773828401</v>
       </c>
       <c r="E6">
-        <v>1.037237214654893</v>
+        <v>1.019250697833952</v>
       </c>
       <c r="F6">
-        <v>1.049434521701664</v>
+        <v>1.028685779957196</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03287738919164</v>
+        <v>1.048015715486184</v>
       </c>
       <c r="J6">
-        <v>1.031059935456446</v>
+        <v>1.0234604563727</v>
       </c>
       <c r="K6">
-        <v>1.033878840830481</v>
+        <v>1.031989445821696</v>
       </c>
       <c r="L6">
-        <v>1.039657652194444</v>
+        <v>1.028866532942374</v>
       </c>
       <c r="M6">
-        <v>1.051825351991506</v>
+        <v>1.038197348767044</v>
       </c>
       <c r="N6">
-        <v>1.014397591065044</v>
+        <v>1.011809090033338</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026322338820883</v>
+        <v>1.003439134373384</v>
       </c>
       <c r="D7">
-        <v>1.031239778922079</v>
+        <v>1.021473078209417</v>
       </c>
       <c r="E7">
-        <v>1.036983069885286</v>
+        <v>1.018156906386461</v>
       </c>
       <c r="F7">
-        <v>1.049130831925593</v>
+        <v>1.027386086855438</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03282755939015</v>
+        <v>1.047666882067339</v>
       </c>
       <c r="J7">
-        <v>1.030898749961282</v>
+        <v>1.022749215360214</v>
       </c>
       <c r="K7">
-        <v>1.033735147031035</v>
+        <v>1.031316152925677</v>
       </c>
       <c r="L7">
-        <v>1.039463860689124</v>
+        <v>1.028038093689363</v>
       </c>
       <c r="M7">
-        <v>1.051581355897845</v>
+        <v>1.037161956037125</v>
       </c>
       <c r="N7">
-        <v>1.014344171884747</v>
+        <v>1.011572445842295</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025173957458756</v>
+        <v>0.9980446082624741</v>
       </c>
       <c r="D8">
-        <v>1.030385481198091</v>
+        <v>1.01748185716039</v>
       </c>
       <c r="E8">
-        <v>1.035922142086748</v>
+        <v>1.013504083166399</v>
       </c>
       <c r="F8">
-        <v>1.047862954785455</v>
+        <v>1.021854796404133</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032615737843937</v>
+        <v>1.046149046269737</v>
       </c>
       <c r="J8">
-        <v>1.030224398583366</v>
+        <v>1.019709684728901</v>
       </c>
       <c r="K8">
-        <v>1.033132780774336</v>
+        <v>1.028430120058015</v>
       </c>
       <c r="L8">
-        <v>1.03865387727248</v>
+        <v>1.024504188008481</v>
       </c>
       <c r="M8">
-        <v>1.050561729029075</v>
+        <v>1.032746649539747</v>
       </c>
       <c r="N8">
-        <v>1.014120632908472</v>
+        <v>1.010561004567929</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023152896975951</v>
+        <v>0.9881071958159022</v>
       </c>
       <c r="D9">
-        <v>1.028878837222609</v>
+        <v>1.010128542896096</v>
       </c>
       <c r="E9">
-        <v>1.034057863530288</v>
+        <v>1.004978690168923</v>
       </c>
       <c r="F9">
-        <v>1.045634536745269</v>
+        <v>1.01170866540186</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032229186365226</v>
+        <v>1.043240105662703</v>
       </c>
       <c r="J9">
-        <v>1.029033832124334</v>
+        <v>1.014087024449633</v>
       </c>
       <c r="K9">
-        <v>1.032064821493781</v>
+        <v>1.023059401476358</v>
       </c>
       <c r="L9">
-        <v>1.03722678985006</v>
+        <v>1.017991504761382</v>
       </c>
       <c r="M9">
-        <v>1.048766002451267</v>
+        <v>1.024614591617317</v>
       </c>
       <c r="N9">
-        <v>1.013725791633527</v>
+        <v>1.008689637263275</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021807301920458</v>
+        <v>0.9811622921583516</v>
       </c>
       <c r="D10">
-        <v>1.027873656628635</v>
+        <v>1.004992703333833</v>
       </c>
       <c r="E10">
-        <v>1.032818605497332</v>
+        <v>0.9990539655406262</v>
       </c>
       <c r="F10">
-        <v>1.044152877419586</v>
+        <v>1.004648891829789</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031962594331995</v>
+        <v>1.041134076489464</v>
       </c>
       <c r="J10">
-        <v>1.028238657662767</v>
+        <v>1.010143767806243</v>
       </c>
       <c r="K10">
-        <v>1.031348543162167</v>
+        <v>1.019272394328213</v>
       </c>
       <c r="L10">
-        <v>1.036275609461685</v>
+        <v>1.013440321965754</v>
       </c>
       <c r="M10">
-        <v>1.047569597407261</v>
+        <v>1.01893471336123</v>
       </c>
       <c r="N10">
-        <v>1.013461957485844</v>
+        <v>1.007377105418623</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021225081662648</v>
+        <v>0.9780719951883566</v>
       </c>
       <c r="D11">
-        <v>1.027438244463909</v>
+        <v>1.002709017425483</v>
       </c>
       <c r="E11">
-        <v>1.032282864430456</v>
+        <v>0.9964261166084656</v>
       </c>
       <c r="F11">
-        <v>1.043512258988037</v>
+        <v>1.001515254432944</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031845058058781</v>
+        <v>1.040180372136927</v>
       </c>
       <c r="J11">
-        <v>1.027894004684867</v>
+        <v>1.008386339294352</v>
       </c>
       <c r="K11">
-        <v>1.031037380798006</v>
+        <v>1.017580025837679</v>
       </c>
       <c r="L11">
-        <v>1.035863802947705</v>
+        <v>1.011415747327084</v>
       </c>
       <c r="M11">
-        <v>1.047051734950101</v>
+        <v>1.01640865173699</v>
       </c>
       <c r="N11">
-        <v>1.013347575365701</v>
+        <v>1.00679213872479</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021008885128114</v>
+        <v>0.9769109761624324</v>
       </c>
       <c r="D12">
-        <v>1.027276490224667</v>
+        <v>1.001851363453138</v>
       </c>
       <c r="E12">
-        <v>1.032083997924398</v>
+        <v>0.9954401670846776</v>
       </c>
       <c r="F12">
-        <v>1.043274448969648</v>
+        <v>1.000339158641625</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031801085083161</v>
+        <v>1.039819642649193</v>
       </c>
       <c r="J12">
-        <v>1.027765935621124</v>
+        <v>1.007725701029161</v>
       </c>
       <c r="K12">
-        <v>1.030921650828703</v>
+        <v>1.016943180007269</v>
       </c>
       <c r="L12">
-        <v>1.035710850000278</v>
+        <v>1.010655250823056</v>
       </c>
       <c r="M12">
-        <v>1.046859407495104</v>
+        <v>1.015459863790551</v>
       </c>
       <c r="N12">
-        <v>1.013305068073951</v>
+        <v>1.006572245529657</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021055257013138</v>
+        <v>0.977160624601324</v>
       </c>
       <c r="D13">
-        <v>1.027311188062821</v>
+        <v>1.002035764858852</v>
       </c>
       <c r="E13">
-        <v>1.032126649486733</v>
+        <v>0.9956521102565671</v>
       </c>
       <c r="F13">
-        <v>1.043325453477042</v>
+        <v>1.00059199382982</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031810531667634</v>
+        <v>1.039897317067934</v>
       </c>
       <c r="J13">
-        <v>1.0277934090977</v>
+        <v>1.007867771217577</v>
       </c>
       <c r="K13">
-        <v>1.030946482087315</v>
+        <v>1.017080163274317</v>
       </c>
       <c r="L13">
-        <v>1.035743658440412</v>
+        <v>1.010818770055664</v>
       </c>
       <c r="M13">
-        <v>1.046900661020538</v>
+        <v>1.015663865131126</v>
       </c>
       <c r="N13">
-        <v>1.013314186961978</v>
+        <v>1.006619533374071</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021207209436505</v>
+        <v>0.9779762971179216</v>
       </c>
       <c r="D14">
-        <v>1.027424874263317</v>
+        <v>1.002638317476536</v>
       </c>
       <c r="E14">
-        <v>1.032266423370187</v>
+        <v>0.9963448214860906</v>
       </c>
       <c r="F14">
-        <v>1.043492598587683</v>
+        <v>1.001418288899413</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031841429655763</v>
+        <v>1.040150687569142</v>
       </c>
       <c r="J14">
-        <v>1.027883419461873</v>
+        <v>1.008331892953155</v>
       </c>
       <c r="K14">
-        <v>1.031027817584116</v>
+        <v>1.017527553711943</v>
       </c>
       <c r="L14">
-        <v>1.03585115959185</v>
+        <v>1.011353059733896</v>
       </c>
       <c r="M14">
-        <v>1.047035836488602</v>
+        <v>1.016330441662428</v>
       </c>
       <c r="N14">
-        <v>1.013344062119349</v>
+        <v>1.006774016210847</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021300841120086</v>
+        <v>0.9784770975560997</v>
       </c>
       <c r="D15">
-        <v>1.027494917113882</v>
+        <v>1.003008313128166</v>
       </c>
       <c r="E15">
-        <v>1.032352560153274</v>
+        <v>0.9967703039050458</v>
       </c>
       <c r="F15">
-        <v>1.043595601357995</v>
+        <v>1.001925771540142</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031860425238412</v>
+        <v>1.040305932332478</v>
       </c>
       <c r="J15">
-        <v>1.027938871276759</v>
+        <v>1.008616802681978</v>
       </c>
       <c r="K15">
-        <v>1.031077911172649</v>
+        <v>1.017802105720736</v>
       </c>
       <c r="L15">
-        <v>1.035917396003059</v>
+        <v>1.01168111773384</v>
       </c>
       <c r="M15">
-        <v>1.047119126534316</v>
+        <v>1.016739735586682</v>
       </c>
       <c r="N15">
-        <v>1.013362466461016</v>
+        <v>1.006868848798283</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021845951150279</v>
+        <v>0.9813655787395438</v>
       </c>
       <c r="D16">
-        <v>1.027902550217774</v>
+        <v>1.005142969685529</v>
       </c>
       <c r="E16">
-        <v>1.032854179237657</v>
+        <v>0.9992270126692204</v>
       </c>
       <c r="F16">
-        <v>1.044195413294094</v>
+        <v>1.004855194627969</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031970350643875</v>
+        <v>1.04119647332274</v>
       </c>
       <c r="J16">
-        <v>1.02826152413191</v>
+        <v>1.010259320894134</v>
       </c>
       <c r="K16">
-        <v>1.031369172824703</v>
+        <v>1.01938357625579</v>
       </c>
       <c r="L16">
-        <v>1.036302941087234</v>
+        <v>1.013573518850938</v>
       </c>
       <c r="M16">
-        <v>1.047603970326643</v>
+        <v>1.01910091512143</v>
       </c>
       <c r="N16">
-        <v>1.013469545729457</v>
+        <v>1.007415567943593</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02218800058213</v>
+        <v>0.9831547446569726</v>
       </c>
       <c r="D17">
-        <v>1.028158205374682</v>
+        <v>1.006465688321111</v>
       </c>
       <c r="E17">
-        <v>1.033169064504662</v>
+        <v>1.000751008619806</v>
       </c>
       <c r="F17">
-        <v>1.044571914823926</v>
+        <v>1.00667179651257</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032038742207465</v>
+        <v>1.041743760488708</v>
       </c>
       <c r="J17">
-        <v>1.02846382621551</v>
+        <v>1.011276014751733</v>
       </c>
       <c r="K17">
-        <v>1.031551604239957</v>
+        <v>1.020361292455291</v>
       </c>
       <c r="L17">
-        <v>1.036544800465034</v>
+        <v>1.014745882735845</v>
       </c>
       <c r="M17">
-        <v>1.04790815153572</v>
+        <v>1.020563847562315</v>
       </c>
       <c r="N17">
-        <v>1.0135366764626</v>
+        <v>1.007753980978002</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022387553760764</v>
+        <v>0.9841903629474786</v>
       </c>
       <c r="D18">
-        <v>1.028307308931587</v>
+        <v>1.007231463132181</v>
       </c>
       <c r="E18">
-        <v>1.033352815194172</v>
+        <v>1.001633942149943</v>
       </c>
       <c r="F18">
-        <v>1.044791613341843</v>
+        <v>1.00772403079166</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032078431163617</v>
+        <v>1.042058967186037</v>
       </c>
       <c r="J18">
-        <v>1.02858179299368</v>
+        <v>1.011864237811546</v>
       </c>
       <c r="K18">
-        <v>1.031657915952619</v>
+        <v>1.020926528763355</v>
       </c>
       <c r="L18">
-        <v>1.036685878742203</v>
+        <v>1.015424531102324</v>
       </c>
       <c r="M18">
-        <v>1.048085593416751</v>
+        <v>1.021410756167099</v>
       </c>
       <c r="N18">
-        <v>1.013575819131258</v>
+        <v>1.007949774781379</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022455603245883</v>
+        <v>0.9845421491469504</v>
       </c>
       <c r="D19">
-        <v>1.028358146667092</v>
+        <v>1.007491609963944</v>
       </c>
       <c r="E19">
-        <v>1.033415483538131</v>
+        <v>1.001933997979135</v>
       </c>
       <c r="F19">
-        <v>1.04486654034131</v>
+        <v>1.008081584850023</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03209192966995</v>
+        <v>1.04216576921436</v>
       </c>
       <c r="J19">
-        <v>1.028622011054016</v>
+        <v>1.012064003034447</v>
       </c>
       <c r="K19">
-        <v>1.031694148934407</v>
+        <v>1.021118412917687</v>
       </c>
       <c r="L19">
-        <v>1.036733983735684</v>
+        <v>1.015655066716113</v>
       </c>
       <c r="M19">
-        <v>1.048146099546377</v>
+        <v>1.021698459600791</v>
       </c>
       <c r="N19">
-        <v>1.013589163459373</v>
+        <v>1.008016267840286</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022151297610676</v>
+        <v>0.982963613283147</v>
       </c>
       <c r="D20">
-        <v>1.0281307776154</v>
+        <v>1.006324370144186</v>
       </c>
       <c r="E20">
-        <v>1.033135271654054</v>
+        <v>1.000588120924194</v>
       </c>
       <c r="F20">
-        <v>1.044531510293184</v>
+        <v>1.006477657688671</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032031425399207</v>
+        <v>1.041685458649641</v>
       </c>
       <c r="J20">
-        <v>1.028442124481289</v>
+        <v>1.011167431736353</v>
       </c>
       <c r="K20">
-        <v>1.031532041146176</v>
+        <v>1.02025691729779</v>
       </c>
       <c r="L20">
-        <v>1.036518850634861</v>
+        <v>1.014620636811732</v>
       </c>
       <c r="M20">
-        <v>1.047875513885861</v>
+        <v>1.020407553639582</v>
       </c>
       <c r="N20">
-        <v>1.013529475369249</v>
+        <v>1.007717838410744</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021162461403802</v>
+        <v>0.9777364702782912</v>
       </c>
       <c r="D21">
-        <v>1.027391397126582</v>
+        <v>1.002461143354152</v>
       </c>
       <c r="E21">
-        <v>1.032225259801018</v>
+        <v>0.996141111145758</v>
       </c>
       <c r="F21">
-        <v>1.043443374526265</v>
+        <v>1.001175305263615</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031832339651526</v>
+        <v>1.040076256894193</v>
       </c>
       <c r="J21">
-        <v>1.02785691501386</v>
+        <v>1.008195440268208</v>
       </c>
       <c r="K21">
-        <v>1.031003870450088</v>
+        <v>1.017396038156924</v>
       </c>
       <c r="L21">
-        <v>1.035819502887573</v>
+        <v>1.011195962022214</v>
       </c>
       <c r="M21">
-        <v>1.046996029851176</v>
+        <v>1.016134445285573</v>
       </c>
       <c r="N21">
-        <v>1.013335265197907</v>
+        <v>1.006728597863725</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020541123239411</v>
+        <v>0.9743735449489791</v>
       </c>
       <c r="D22">
-        <v>1.026926388295065</v>
+        <v>0.9999776257429607</v>
       </c>
       <c r="E22">
-        <v>1.031653861251306</v>
+        <v>0.9932878565961329</v>
       </c>
       <c r="F22">
-        <v>1.042760055359949</v>
+        <v>0.99777103857684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031705345747107</v>
+        <v>1.039026878264693</v>
       </c>
       <c r="J22">
-        <v>1.027488684133546</v>
+        <v>1.006281220681086</v>
       </c>
       <c r="K22">
-        <v>1.030670918917207</v>
+        <v>1.015549525884785</v>
       </c>
       <c r="L22">
-        <v>1.035379855537276</v>
+        <v>1.008993465454473</v>
       </c>
       <c r="M22">
-        <v>1.046443235946552</v>
+        <v>1.013386781327926</v>
       </c>
       <c r="N22">
-        <v>1.013213038098742</v>
+        <v>1.006091458583983</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020870469708917</v>
+        <v>0.9761637702326932</v>
       </c>
       <c r="D23">
-        <v>1.027172910152326</v>
+        <v>1.001299497536046</v>
       </c>
       <c r="E23">
-        <v>1.031956697703807</v>
+        <v>0.9948060131093963</v>
       </c>
       <c r="F23">
-        <v>1.04312221613585</v>
+        <v>0.9995825944821647</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03177283995744</v>
+        <v>1.039586810502133</v>
       </c>
       <c r="J23">
-        <v>1.027683917091474</v>
+        <v>1.007300428672491</v>
       </c>
       <c r="K23">
-        <v>1.03084750485942</v>
+        <v>1.016533039270316</v>
       </c>
       <c r="L23">
-        <v>1.03561291480285</v>
+        <v>1.01016585544566</v>
       </c>
       <c r="M23">
-        <v>1.046736265642195</v>
+        <v>1.014849321458031</v>
       </c>
       <c r="N23">
-        <v>1.013277844192121</v>
+        <v>1.006430694870531</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022167881975386</v>
+        <v>0.9830500019115174</v>
       </c>
       <c r="D24">
-        <v>1.028143171088108</v>
+        <v>1.006388243468939</v>
       </c>
       <c r="E24">
-        <v>1.033150540930987</v>
+        <v>1.000661741331526</v>
       </c>
       <c r="F24">
-        <v>1.04454976707871</v>
+        <v>1.006565403364408</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032034732176242</v>
+        <v>1.041711815138883</v>
       </c>
       <c r="J24">
-        <v>1.028451930661687</v>
+        <v>1.011216510527233</v>
       </c>
       <c r="K24">
-        <v>1.031540881167379</v>
+        <v>1.020304095517972</v>
       </c>
       <c r="L24">
-        <v>1.036530576228331</v>
+        <v>1.014677246007883</v>
       </c>
       <c r="M24">
-        <v>1.047890261379072</v>
+        <v>1.020478195863501</v>
       </c>
       <c r="N24">
-        <v>1.013532729275279</v>
+        <v>1.007734174607636</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02367508153529</v>
+        <v>0.9907303525723398</v>
       </c>
       <c r="D25">
-        <v>1.029268480324504</v>
+        <v>1.012069321322576</v>
       </c>
       <c r="E25">
-        <v>1.03453919729021</v>
+        <v>1.007223547725147</v>
       </c>
       <c r="F25">
-        <v>1.046209946195543</v>
+        <v>1.014381704015095</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032330689771094</v>
+        <v>1.044020814889961</v>
       </c>
       <c r="J25">
-        <v>1.029341884778403</v>
+        <v>1.01557375568355</v>
       </c>
       <c r="K25">
-        <v>1.032341678796014</v>
+        <v>1.024483121860504</v>
       </c>
       <c r="L25">
-        <v>1.037595694197251</v>
+        <v>1.019710752886485</v>
       </c>
       <c r="M25">
-        <v>1.049230115386164</v>
+        <v>1.026760790706391</v>
       </c>
       <c r="N25">
-        <v>1.013827976197323</v>
+        <v>1.009184488872406</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9966275802665908</v>
+        <v>1.024276384392425</v>
       </c>
       <c r="D2">
-        <v>1.016433252735233</v>
+        <v>1.04063102470292</v>
       </c>
       <c r="E2">
-        <v>1.012284846295068</v>
+        <v>1.03662065067138</v>
       </c>
       <c r="F2">
-        <v>1.020404662892474</v>
+        <v>1.045756428046633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045742707723192</v>
+        <v>1.053157156782194</v>
       </c>
       <c r="J2">
-        <v>1.018909629844932</v>
+        <v>1.045754468723395</v>
       </c>
       <c r="K2">
-        <v>1.027668296864233</v>
+        <v>1.05155190308369</v>
       </c>
       <c r="L2">
-        <v>1.023575646174132</v>
+        <v>1.047592330045874</v>
       </c>
       <c r="M2">
-        <v>1.031586863116732</v>
+        <v>1.056613087704523</v>
       </c>
       <c r="N2">
-        <v>1.010294748128967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018764742535258</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.053377739178194</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047521888195072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000786842265987</v>
+        <v>1.028038278065462</v>
       </c>
       <c r="D3">
-        <v>1.019510940254185</v>
+        <v>1.043165676647701</v>
       </c>
       <c r="E3">
-        <v>1.01586702363813</v>
+        <v>1.039539269569299</v>
       </c>
       <c r="F3">
-        <v>1.02466439438069</v>
+        <v>1.048501295583661</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046926565892835</v>
+        <v>1.054083554886065</v>
       </c>
       <c r="J3">
-        <v>1.021256080126655</v>
+        <v>1.047792716815591</v>
       </c>
       <c r="K3">
-        <v>1.029900116073549</v>
+        <v>1.053274501030282</v>
       </c>
       <c r="L3">
-        <v>1.026300829829835</v>
+        <v>1.049690049562676</v>
       </c>
       <c r="M3">
-        <v>1.034991123879669</v>
+        <v>1.058549040516885</v>
       </c>
       <c r="N3">
-        <v>1.011075610315561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.019473358105239</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.054909887731702</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048737253091553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003424435821972</v>
+        <v>1.030431567674066</v>
       </c>
       <c r="D4">
-        <v>1.021462205825684</v>
+        <v>1.044782486643875</v>
       </c>
       <c r="E4">
-        <v>1.018144204002707</v>
+        <v>1.041401964103795</v>
       </c>
       <c r="F4">
-        <v>1.027370991946889</v>
+        <v>1.050254710727601</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047662812486472</v>
+        <v>1.054665558340834</v>
       </c>
       <c r="J4">
-        <v>1.022740947975338</v>
+        <v>1.049087613462848</v>
       </c>
       <c r="K4">
-        <v>1.031308321890804</v>
+        <v>1.054368877280921</v>
       </c>
       <c r="L4">
-        <v>1.028028467529855</v>
+        <v>1.051025119519813</v>
       </c>
       <c r="M4">
-        <v>1.037149925936945</v>
+        <v>1.059782202875821</v>
       </c>
       <c r="N4">
-        <v>1.011569695041544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019923363161015</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.055885833421064</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049511936768376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004520841091775</v>
+        <v>1.031432022572424</v>
       </c>
       <c r="D5">
-        <v>1.022273153839205</v>
+        <v>1.045461308776914</v>
       </c>
       <c r="E5">
-        <v>1.019092088775511</v>
+        <v>1.042182558781468</v>
       </c>
       <c r="F5">
-        <v>1.028497327682862</v>
+        <v>1.050989926199461</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047965328643253</v>
+        <v>1.054908695393192</v>
       </c>
       <c r="J5">
-        <v>1.023357401409733</v>
+        <v>1.049630118320715</v>
       </c>
       <c r="K5">
-        <v>1.031891939950442</v>
+        <v>1.054828712670973</v>
       </c>
       <c r="L5">
-        <v>1.028746459126474</v>
+        <v>1.051584676223728</v>
       </c>
       <c r="M5">
-        <v>1.038047270801947</v>
+        <v>1.060299395346012</v>
       </c>
       <c r="N5">
-        <v>1.011774802389367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020112338934491</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.056295147976503</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049844147803196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004704214862765</v>
+        <v>1.031604114306367</v>
       </c>
       <c r="D6">
-        <v>1.022408773828401</v>
+        <v>1.04558051198379</v>
       </c>
       <c r="E6">
-        <v>1.019250697833952</v>
+        <v>1.042317589269363</v>
       </c>
       <c r="F6">
-        <v>1.028685779957196</v>
+        <v>1.051117169095474</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048015715486184</v>
+        <v>1.054952412563921</v>
       </c>
       <c r="J6">
-        <v>1.0234604563727</v>
+        <v>1.049725437162325</v>
       </c>
       <c r="K6">
-        <v>1.031989445821696</v>
+        <v>1.054911128853537</v>
       </c>
       <c r="L6">
-        <v>1.028866532942374</v>
+        <v>1.051682594637652</v>
       </c>
       <c r="M6">
-        <v>1.038197348767044</v>
+        <v>1.060390030550816</v>
       </c>
       <c r="N6">
-        <v>1.011809090033338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.020146134813867</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.056366878133073</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049911051370673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003439134373384</v>
+        <v>1.030457542028672</v>
       </c>
       <c r="D7">
-        <v>1.021473078209417</v>
+        <v>1.044806481544517</v>
       </c>
       <c r="E7">
-        <v>1.018156906386461</v>
+        <v>1.041424054787933</v>
       </c>
       <c r="F7">
-        <v>1.027386086855438</v>
+        <v>1.050275605244756</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047666882067339</v>
+        <v>1.054677264784815</v>
       </c>
       <c r="J7">
-        <v>1.022749215360214</v>
+        <v>1.04910715702448</v>
       </c>
       <c r="K7">
-        <v>1.031316152925677</v>
+        <v>1.054389781995183</v>
       </c>
       <c r="L7">
-        <v>1.028038093689363</v>
+        <v>1.051044126510495</v>
       </c>
       <c r="M7">
-        <v>1.037161956037125</v>
+        <v>1.059800063204795</v>
       </c>
       <c r="N7">
-        <v>1.011572445842295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019931793883089</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.055899968380349</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049546568667807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9980446082624741</v>
+        <v>1.025572241460113</v>
       </c>
       <c r="D8">
-        <v>1.01748185716039</v>
+        <v>1.041511162870785</v>
       </c>
       <c r="E8">
-        <v>1.013504083166399</v>
+        <v>1.037627162400594</v>
       </c>
       <c r="F8">
-        <v>1.021854796404133</v>
+        <v>1.046702734065619</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046149046269737</v>
+        <v>1.053484511963564</v>
       </c>
       <c r="J8">
-        <v>1.019709684728901</v>
+        <v>1.046463787015896</v>
       </c>
       <c r="K8">
-        <v>1.028430120058015</v>
+        <v>1.052156731932241</v>
       </c>
       <c r="L8">
-        <v>1.024504188008481</v>
+        <v>1.048320475085675</v>
       </c>
       <c r="M8">
-        <v>1.032746649539747</v>
+        <v>1.057285173528541</v>
       </c>
       <c r="N8">
-        <v>1.010561004567929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.019013511629086</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.053909640574142</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047972169053146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9881071958159022</v>
+        <v>1.016616704364123</v>
       </c>
       <c r="D9">
-        <v>1.010128542896096</v>
+        <v>1.035495675578904</v>
       </c>
       <c r="E9">
-        <v>1.004978690168923</v>
+        <v>1.03071196423038</v>
       </c>
       <c r="F9">
-        <v>1.01170866540186</v>
+        <v>1.04020843373453</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043240105662703</v>
+        <v>1.051232398734847</v>
       </c>
       <c r="J9">
-        <v>1.014087024449633</v>
+        <v>1.041596027323292</v>
       </c>
       <c r="K9">
-        <v>1.023059401476358</v>
+        <v>1.04803796335941</v>
       </c>
       <c r="L9">
-        <v>1.017991504761382</v>
+        <v>1.043325665572996</v>
       </c>
       <c r="M9">
-        <v>1.024614591617317</v>
+        <v>1.052681182608922</v>
       </c>
       <c r="N9">
-        <v>1.008689637263275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017318483639636</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.050265947803536</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045056852539135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9811622921583516</v>
+        <v>1.010478613421404</v>
       </c>
       <c r="D10">
-        <v>1.004992703333833</v>
+        <v>1.031422213129434</v>
       </c>
       <c r="E10">
-        <v>0.9990539655406262</v>
+        <v>1.026035583101633</v>
       </c>
       <c r="F10">
-        <v>1.004648891829789</v>
+        <v>1.035862626666266</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041134076489464</v>
+        <v>1.049676728340663</v>
       </c>
       <c r="J10">
-        <v>1.010143767806243</v>
+        <v>1.038282567652362</v>
       </c>
       <c r="K10">
-        <v>1.019272394328213</v>
+        <v>1.04524639650635</v>
       </c>
       <c r="L10">
-        <v>1.013440321965754</v>
+        <v>1.039950147479579</v>
       </c>
       <c r="M10">
-        <v>1.01893471336123</v>
+        <v>1.0496132147642</v>
       </c>
       <c r="N10">
-        <v>1.007377105418623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.016172146596523</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.047888742979188</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043099711945479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9780719951883566</v>
+        <v>1.008324096746941</v>
       </c>
       <c r="D11">
-        <v>1.002709017425483</v>
+        <v>1.030178238291717</v>
       </c>
       <c r="E11">
-        <v>0.9964261166084656</v>
+        <v>1.024631406786474</v>
       </c>
       <c r="F11">
-        <v>1.001515254432944</v>
+        <v>1.034856114116821</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040180372136927</v>
+        <v>1.049311746938687</v>
       </c>
       <c r="J11">
-        <v>1.008386339294352</v>
+        <v>1.037354637366486</v>
       </c>
       <c r="K11">
-        <v>1.017580025837679</v>
+        <v>1.044552627375645</v>
       </c>
       <c r="L11">
-        <v>1.011415747327084</v>
+        <v>1.039103294657261</v>
       </c>
       <c r="M11">
-        <v>1.01640865173699</v>
+        <v>1.049149329079573</v>
       </c>
       <c r="N11">
-        <v>1.00679213872479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015917035239695</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.047953123648682</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042641705045548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9769109761624324</v>
+        <v>1.007723635149433</v>
       </c>
       <c r="D12">
-        <v>1.001851363453138</v>
+        <v>1.029912160498341</v>
       </c>
       <c r="E12">
-        <v>0.9954401670846776</v>
+        <v>1.024347259299999</v>
       </c>
       <c r="F12">
-        <v>1.000339158641625</v>
+        <v>1.034810737266586</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039819642649193</v>
+        <v>1.049295436923093</v>
       </c>
       <c r="J12">
-        <v>1.007725701029161</v>
+        <v>1.037204676093713</v>
       </c>
       <c r="K12">
-        <v>1.016943180007269</v>
+        <v>1.044487884208151</v>
       </c>
       <c r="L12">
-        <v>1.010655250823056</v>
+        <v>1.03902241141972</v>
       </c>
       <c r="M12">
-        <v>1.015459863790551</v>
+        <v>1.049300084451442</v>
       </c>
       <c r="N12">
-        <v>1.006572245529657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015917549405324</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.048395534702288</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042595930404718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.977160624601324</v>
+        <v>1.00829626401604</v>
       </c>
       <c r="D13">
-        <v>1.002035764858852</v>
+        <v>1.030400353739694</v>
       </c>
       <c r="E13">
-        <v>0.9956521102565671</v>
+        <v>1.024922583538799</v>
       </c>
       <c r="F13">
-        <v>1.00059199382982</v>
+        <v>1.035525554356462</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039897317067934</v>
+        <v>1.04956134542002</v>
       </c>
       <c r="J13">
-        <v>1.007867771217577</v>
+        <v>1.037662261340599</v>
       </c>
       <c r="K13">
-        <v>1.017080163274317</v>
+        <v>1.044925261842503</v>
       </c>
       <c r="L13">
-        <v>1.010818770055664</v>
+        <v>1.039544905915831</v>
       </c>
       <c r="M13">
-        <v>1.015663865131126</v>
+        <v>1.049960526573745</v>
       </c>
       <c r="N13">
-        <v>1.006619533374071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016123458191738</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.049191959268705</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042902697982148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9779762971179216</v>
+        <v>1.009229454610404</v>
       </c>
       <c r="D14">
-        <v>1.002638317476536</v>
+        <v>1.031085202940825</v>
       </c>
       <c r="E14">
-        <v>0.9963448214860906</v>
+        <v>1.025714944402106</v>
       </c>
       <c r="F14">
-        <v>1.001418288899413</v>
+        <v>1.036370833669689</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040150687569142</v>
+        <v>1.049875690139551</v>
       </c>
       <c r="J14">
-        <v>1.008331892953155</v>
+        <v>1.038258368009192</v>
       </c>
       <c r="K14">
-        <v>1.017527553711943</v>
+        <v>1.045460011799298</v>
       </c>
       <c r="L14">
-        <v>1.011353059733896</v>
+        <v>1.040184034281522</v>
       </c>
       <c r="M14">
-        <v>1.016330441662428</v>
+        <v>1.050654080865532</v>
       </c>
       <c r="N14">
-        <v>1.006774016210847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.016360985865655</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.049912175262278</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043282186001203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9784770975560997</v>
+        <v>1.009718108110174</v>
       </c>
       <c r="D15">
-        <v>1.003008313128166</v>
+        <v>1.031424628171462</v>
       </c>
       <c r="E15">
-        <v>0.9967703039050458</v>
+        <v>1.026103889594191</v>
       </c>
       <c r="F15">
-        <v>1.001925771540142</v>
+        <v>1.036756295298962</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040305932332478</v>
+        <v>1.050018553881529</v>
       </c>
       <c r="J15">
-        <v>1.008616802681978</v>
+        <v>1.038543438938571</v>
       </c>
       <c r="K15">
-        <v>1.017802105720736</v>
+        <v>1.045708519584815</v>
       </c>
       <c r="L15">
-        <v>1.01168111773384</v>
+        <v>1.040480471626963</v>
       </c>
       <c r="M15">
-        <v>1.016739735586682</v>
+        <v>1.05094853851226</v>
       </c>
       <c r="N15">
-        <v>1.006868848798283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.016466775259113</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.050182184147669</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.043463693652717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9813655787395438</v>
+        <v>1.012206683001394</v>
       </c>
       <c r="D16">
-        <v>1.005142969685529</v>
+        <v>1.033059276233757</v>
       </c>
       <c r="E16">
-        <v>0.9992270126692204</v>
+        <v>1.027976176782536</v>
       </c>
       <c r="F16">
-        <v>1.004855194627969</v>
+        <v>1.038484287012161</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04119647332274</v>
+        <v>1.050640360627777</v>
       </c>
       <c r="J16">
-        <v>1.010259320894134</v>
+        <v>1.039868963483975</v>
       </c>
       <c r="K16">
-        <v>1.01938357625579</v>
+        <v>1.04682122922218</v>
       </c>
       <c r="L16">
-        <v>1.013573518850938</v>
+        <v>1.04182278924627</v>
       </c>
       <c r="M16">
-        <v>1.01910091512143</v>
+        <v>1.052157060985428</v>
       </c>
       <c r="N16">
-        <v>1.007415567943593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016916464955276</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051098975176887</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044253534524361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9831547446569726</v>
+        <v>1.013628814841709</v>
       </c>
       <c r="D17">
-        <v>1.006465688321111</v>
+        <v>1.033956068453412</v>
       </c>
       <c r="E17">
-        <v>1.000751008619806</v>
+        <v>1.028998881527947</v>
       </c>
       <c r="F17">
-        <v>1.00667179651257</v>
+        <v>1.03936398609408</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041743760488708</v>
+        <v>1.050950800808571</v>
       </c>
       <c r="J17">
-        <v>1.011276014751733</v>
+        <v>1.040573147962314</v>
       </c>
       <c r="K17">
-        <v>1.020361292455291</v>
+        <v>1.047393814430583</v>
       </c>
       <c r="L17">
-        <v>1.014745882735845</v>
+        <v>1.04251686754834</v>
       </c>
       <c r="M17">
-        <v>1.020563847562315</v>
+        <v>1.052715314538817</v>
       </c>
       <c r="N17">
-        <v>1.007753980978002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.017136762107949</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.051412228617316</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044660924561054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9841903629474786</v>
+        <v>1.014251248303394</v>
       </c>
       <c r="D18">
-        <v>1.007231463132181</v>
+        <v>1.034277163754088</v>
       </c>
       <c r="E18">
-        <v>1.001633942149943</v>
+        <v>1.02935869016579</v>
       </c>
       <c r="F18">
-        <v>1.00772403079166</v>
+        <v>1.03955181242251</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042058967186037</v>
+        <v>1.05100936846923</v>
       </c>
       <c r="J18">
-        <v>1.011864237811546</v>
+        <v>1.040786465286747</v>
       </c>
       <c r="K18">
-        <v>1.020926528763355</v>
+        <v>1.047529344203202</v>
       </c>
       <c r="L18">
-        <v>1.015424531102324</v>
+        <v>1.042689192442089</v>
       </c>
       <c r="M18">
-        <v>1.021410756167099</v>
+        <v>1.052721052448707</v>
       </c>
       <c r="N18">
-        <v>1.007949774781379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.017170384926525</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051181224898167</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044745240135736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9845421491469504</v>
+        <v>1.014171010789172</v>
       </c>
       <c r="D19">
-        <v>1.007491609963944</v>
+        <v>1.034101526474207</v>
       </c>
       <c r="E19">
-        <v>1.001933997979135</v>
+        <v>1.029135890151573</v>
       </c>
       <c r="F19">
-        <v>1.008081584850023</v>
+        <v>1.039128087001229</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04216576921436</v>
+        <v>1.050856980098465</v>
       </c>
       <c r="J19">
-        <v>1.012064003034447</v>
+        <v>1.040577577435804</v>
       </c>
       <c r="K19">
-        <v>1.021118412917687</v>
+        <v>1.04729495622468</v>
       </c>
       <c r="L19">
-        <v>1.015655066716113</v>
+        <v>1.04240801100473</v>
       </c>
       <c r="M19">
-        <v>1.021698459600791</v>
+        <v>1.05224283916699</v>
       </c>
       <c r="N19">
-        <v>1.008016267840286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.017048829274355</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.050480928225672</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044585848463074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.982963613283147</v>
+        <v>1.012103466700814</v>
       </c>
       <c r="D20">
-        <v>1.006324370144186</v>
+        <v>1.032515744121503</v>
       </c>
       <c r="E20">
-        <v>1.000588120924194</v>
+        <v>1.027277709439941</v>
       </c>
       <c r="F20">
-        <v>1.006477657688671</v>
+        <v>1.037018277652453</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041685458649641</v>
+        <v>1.050105911873051</v>
       </c>
       <c r="J20">
-        <v>1.011167431736353</v>
+        <v>1.039175663019493</v>
       </c>
       <c r="K20">
-        <v>1.02025691729779</v>
+        <v>1.046009964255094</v>
       </c>
       <c r="L20">
-        <v>1.014620636811732</v>
+        <v>1.040857291767192</v>
       </c>
       <c r="M20">
-        <v>1.020407553639582</v>
+        <v>1.050440005555339</v>
       </c>
       <c r="N20">
-        <v>1.007717838410744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.016486381437026</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.048532622655424</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.04368121039776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9777364702782912</v>
+        <v>1.007390927661102</v>
       </c>
       <c r="D21">
-        <v>1.002461143354152</v>
+        <v>1.029361408786471</v>
       </c>
       <c r="E21">
-        <v>0.996141111145758</v>
+        <v>1.023655492355287</v>
       </c>
       <c r="F21">
-        <v>1.001175305263615</v>
+        <v>1.033597233927849</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040076256894193</v>
+        <v>1.048861815204267</v>
       </c>
       <c r="J21">
-        <v>1.008195440268208</v>
+        <v>1.036582854704621</v>
       </c>
       <c r="K21">
-        <v>1.017396038156924</v>
+        <v>1.04380708311472</v>
       </c>
       <c r="L21">
-        <v>1.011195962022214</v>
+        <v>1.038202147966392</v>
       </c>
       <c r="M21">
-        <v>1.016134445285573</v>
+        <v>1.04796887748946</v>
       </c>
       <c r="N21">
-        <v>1.006728597863725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015576805934018</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.046536514541955</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042126919177682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9743735449489791</v>
+        <v>1.004391289227741</v>
       </c>
       <c r="D22">
-        <v>0.9999776257429607</v>
+        <v>1.027364227944225</v>
       </c>
       <c r="E22">
-        <v>0.9932878565961329</v>
+        <v>1.021369811268219</v>
       </c>
       <c r="F22">
-        <v>0.99777103857684</v>
+        <v>1.031459256568028</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039026878264693</v>
+        <v>1.048068484280436</v>
       </c>
       <c r="J22">
-        <v>1.006281220681086</v>
+        <v>1.034939946769875</v>
       </c>
       <c r="K22">
-        <v>1.015549525884785</v>
+        <v>1.042412410489291</v>
       </c>
       <c r="L22">
-        <v>1.008993465454473</v>
+        <v>1.03652949120162</v>
       </c>
       <c r="M22">
-        <v>1.013386781327926</v>
+        <v>1.046432240650858</v>
       </c>
       <c r="N22">
-        <v>1.006091458583983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.015002002938366</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.045320378581447</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041127469176273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9761637702326932</v>
+        <v>1.005974597076406</v>
       </c>
       <c r="D23">
-        <v>1.001299497536046</v>
+        <v>1.028411985673138</v>
       </c>
       <c r="E23">
-        <v>0.9948060131093963</v>
+        <v>1.02257345614128</v>
       </c>
       <c r="F23">
-        <v>0.9995825944821647</v>
+        <v>1.032585028928241</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039586810502133</v>
+        <v>1.048482983165782</v>
       </c>
       <c r="J23">
-        <v>1.007300428672491</v>
+        <v>1.035802126189444</v>
       </c>
       <c r="K23">
-        <v>1.016533039270316</v>
+        <v>1.043140571104956</v>
       </c>
       <c r="L23">
-        <v>1.01016585544566</v>
+        <v>1.037407836485534</v>
       </c>
       <c r="M23">
-        <v>1.014849321458031</v>
+        <v>1.047238949849659</v>
       </c>
       <c r="N23">
-        <v>1.006430694870531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.015301846381861</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.045958830313916</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.04163275652692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9830500019115174</v>
+        <v>1.012108648392087</v>
       </c>
       <c r="D24">
-        <v>1.006388243468939</v>
+        <v>1.032493333624332</v>
       </c>
       <c r="E24">
-        <v>1.000661741331526</v>
+        <v>1.027256496354484</v>
       </c>
       <c r="F24">
-        <v>1.006565403364408</v>
+        <v>1.036969098332387</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041711815138883</v>
+        <v>1.050082100167605</v>
       </c>
       <c r="J24">
-        <v>1.011216510527233</v>
+        <v>1.039148423387127</v>
       </c>
       <c r="K24">
-        <v>1.020304095517972</v>
+        <v>1.045972886493806</v>
       </c>
       <c r="L24">
-        <v>1.014677246007883</v>
+        <v>1.040821287451025</v>
       </c>
       <c r="M24">
-        <v>1.020478195863501</v>
+        <v>1.050376675561598</v>
       </c>
       <c r="N24">
-        <v>1.007734174607636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.016468412973215</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.048442107034159</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043627874166371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9907303525723398</v>
+        <v>1.018993176988219</v>
       </c>
       <c r="D25">
-        <v>1.012069321322576</v>
+        <v>1.03709756539646</v>
       </c>
       <c r="E25">
-        <v>1.007223547725147</v>
+        <v>1.032544307756541</v>
       </c>
       <c r="F25">
-        <v>1.014381704015095</v>
+        <v>1.041927653944101</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044020814889961</v>
+        <v>1.051845010455577</v>
       </c>
       <c r="J25">
-        <v>1.01557375568355</v>
+        <v>1.04289782614193</v>
       </c>
       <c r="K25">
-        <v>1.024483121860504</v>
+        <v>1.049146045799905</v>
       </c>
       <c r="L25">
-        <v>1.019710752886485</v>
+        <v>1.044657580526728</v>
       </c>
       <c r="M25">
-        <v>1.026760790706391</v>
+        <v>1.053908184266336</v>
       </c>
       <c r="N25">
-        <v>1.009184488872406</v>
+        <v>1.01777477581193</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.051237023790208</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045868581885305</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024276384392425</v>
+        <v>1.022721218545996</v>
       </c>
       <c r="D2">
-        <v>1.04063102470292</v>
+        <v>1.038485104634536</v>
       </c>
       <c r="E2">
-        <v>1.03662065067138</v>
+        <v>1.035251342853483</v>
       </c>
       <c r="F2">
-        <v>1.045756428046633</v>
+        <v>1.04426990205388</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053157156782194</v>
+        <v>1.052162909722455</v>
       </c>
       <c r="J2">
-        <v>1.045754468723395</v>
+        <v>1.044242948123729</v>
       </c>
       <c r="K2">
-        <v>1.05155190308369</v>
+        <v>1.049433105308301</v>
       </c>
       <c r="L2">
-        <v>1.047592330045874</v>
+        <v>1.04624048040657</v>
       </c>
       <c r="M2">
-        <v>1.056613087704523</v>
+        <v>1.055145106236666</v>
       </c>
       <c r="N2">
-        <v>1.018764742535258</v>
+        <v>1.018667207896363</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.053377739178194</v>
+        <v>1.052215949656156</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047521888195072</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046032422218817</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025036313594333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028038278065462</v>
+        <v>1.026308870573148</v>
       </c>
       <c r="D3">
-        <v>1.043165676647701</v>
+        <v>1.040819491932011</v>
       </c>
       <c r="E3">
-        <v>1.039539269569299</v>
+        <v>1.038015319244868</v>
       </c>
       <c r="F3">
-        <v>1.048501295583661</v>
+        <v>1.046866880013355</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054083554886065</v>
+        <v>1.052981663209416</v>
       </c>
       <c r="J3">
-        <v>1.047792716815591</v>
+        <v>1.046107147694418</v>
       </c>
       <c r="K3">
-        <v>1.053274501030282</v>
+        <v>1.050955419171249</v>
       </c>
       <c r="L3">
-        <v>1.049690049562676</v>
+        <v>1.048183838716048</v>
       </c>
       <c r="M3">
-        <v>1.058549040516885</v>
+        <v>1.056933253287767</v>
       </c>
       <c r="N3">
-        <v>1.019473358105239</v>
+        <v>1.019179750533264</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.054909887731702</v>
+        <v>1.053631124305436</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048737253091553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047105897281608</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025353000687645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030431567674066</v>
+        <v>1.028592542970803</v>
       </c>
       <c r="D4">
-        <v>1.044782486643875</v>
+        <v>1.04230969770413</v>
       </c>
       <c r="E4">
-        <v>1.041401964103795</v>
+        <v>1.039780623386907</v>
       </c>
       <c r="F4">
-        <v>1.050254710727601</v>
+        <v>1.048527011292741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054665558340834</v>
+        <v>1.053495616595</v>
       </c>
       <c r="J4">
-        <v>1.049087613462848</v>
+        <v>1.047292087498787</v>
       </c>
       <c r="K4">
-        <v>1.054368877280921</v>
+        <v>1.051922952344863</v>
       </c>
       <c r="L4">
-        <v>1.051025119519813</v>
+        <v>1.049421515812318</v>
       </c>
       <c r="M4">
-        <v>1.059782202875821</v>
+        <v>1.058073017592374</v>
       </c>
       <c r="N4">
-        <v>1.019923363161015</v>
+        <v>1.019505508049665</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.055885833421064</v>
+        <v>1.054533154748124</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049511936768376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047790977695936</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025551982105204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031432022572424</v>
+        <v>1.029547391617554</v>
       </c>
       <c r="D5">
-        <v>1.045461308776914</v>
+        <v>1.042935784440526</v>
       </c>
       <c r="E5">
-        <v>1.042182558781468</v>
+        <v>1.040520677252095</v>
       </c>
       <c r="F5">
-        <v>1.050989926199461</v>
+        <v>1.049223390532032</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054908695393192</v>
+        <v>1.053710374692653</v>
       </c>
       <c r="J5">
-        <v>1.049630118320715</v>
+        <v>1.047788747912772</v>
       </c>
       <c r="K5">
-        <v>1.054828712670973</v>
+        <v>1.052329903525814</v>
       </c>
       <c r="L5">
-        <v>1.051584676223728</v>
+        <v>1.049940492042389</v>
       </c>
       <c r="M5">
-        <v>1.060299395346012</v>
+        <v>1.058551290230114</v>
       </c>
       <c r="N5">
-        <v>1.020112338934491</v>
+        <v>1.019642406842192</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056295147976503</v>
+        <v>1.0549116681942</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049844147803196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048086508674765</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025635668468776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031604114306367</v>
+        <v>1.02971157351251</v>
       </c>
       <c r="D6">
-        <v>1.04558051198379</v>
+        <v>1.043045928422675</v>
       </c>
       <c r="E6">
-        <v>1.042317589269363</v>
+        <v>1.040648673886062</v>
       </c>
       <c r="F6">
-        <v>1.051117169095474</v>
+        <v>1.049343930173851</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054952412563921</v>
+        <v>1.053749174087346</v>
       </c>
       <c r="J6">
-        <v>1.049725437162325</v>
+        <v>1.04787611749244</v>
       </c>
       <c r="K6">
-        <v>1.054911128853537</v>
+        <v>1.052403234887481</v>
       </c>
       <c r="L6">
-        <v>1.051682594637652</v>
+        <v>1.050031370243689</v>
       </c>
       <c r="M6">
-        <v>1.060390030550816</v>
+        <v>1.058635208090066</v>
       </c>
       <c r="N6">
-        <v>1.020146134813867</v>
+        <v>1.019666936445531</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056366878133073</v>
+        <v>1.054978082257104</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049911051370673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048147858945041</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025651385256247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030457542028672</v>
+        <v>1.028625776681009</v>
       </c>
       <c r="D7">
-        <v>1.044806481544517</v>
+        <v>1.042338625273</v>
       </c>
       <c r="E7">
-        <v>1.041424054787933</v>
+        <v>1.039808769396929</v>
       </c>
       <c r="F7">
-        <v>1.050275605244756</v>
+        <v>1.048552499135878</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054677264784815</v>
+        <v>1.053510816416995</v>
       </c>
       <c r="J7">
-        <v>1.04910715702448</v>
+        <v>1.047318699642334</v>
       </c>
       <c r="K7">
-        <v>1.054389781995183</v>
+        <v>1.051948725564398</v>
       </c>
       <c r="L7">
-        <v>1.051044126510495</v>
+        <v>1.049446504962679</v>
       </c>
       <c r="M7">
-        <v>1.059800063204795</v>
+        <v>1.058095414900001</v>
       </c>
       <c r="N7">
-        <v>1.019931793883089</v>
+        <v>1.019540127101109</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055899968380349</v>
+        <v>1.054550880378736</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049546568667807</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047831053821985</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025559898592112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025572241460113</v>
+        <v>1.023983202083368</v>
       </c>
       <c r="D8">
-        <v>1.041511162870785</v>
+        <v>1.039315590091461</v>
       </c>
       <c r="E8">
-        <v>1.037627162400594</v>
+        <v>1.036226702768954</v>
       </c>
       <c r="F8">
-        <v>1.046702734065619</v>
+        <v>1.045182598137845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053484511963564</v>
+        <v>1.05246641135416</v>
       </c>
       <c r="J8">
-        <v>1.046463787015896</v>
+        <v>1.044917860941684</v>
       </c>
       <c r="K8">
-        <v>1.052156731932241</v>
+        <v>1.049988093425786</v>
       </c>
       <c r="L8">
-        <v>1.048320475085675</v>
+        <v>1.046937339751098</v>
       </c>
       <c r="M8">
-        <v>1.057285173528541</v>
+        <v>1.055783441820184</v>
       </c>
       <c r="N8">
-        <v>1.019013511629086</v>
+        <v>1.01893372631965</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053909640574142</v>
+        <v>1.052721141262333</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047972169053146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046449732610224</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025157024727595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016616704364123</v>
+        <v>1.015454515357449</v>
       </c>
       <c r="D9">
-        <v>1.035495675578904</v>
+        <v>1.033784894553172</v>
       </c>
       <c r="E9">
-        <v>1.03071196423038</v>
+        <v>1.029689484230797</v>
       </c>
       <c r="F9">
-        <v>1.04020843373453</v>
+        <v>1.039048234785633</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051232398734847</v>
+        <v>1.050475471748451</v>
       </c>
       <c r="J9">
-        <v>1.041596027323292</v>
+        <v>1.040473094897563</v>
       </c>
       <c r="K9">
-        <v>1.04803796335941</v>
+        <v>1.046352625156187</v>
       </c>
       <c r="L9">
-        <v>1.043325665572996</v>
+        <v>1.042318559232331</v>
       </c>
       <c r="M9">
-        <v>1.052681182608922</v>
+        <v>1.051538028599151</v>
       </c>
       <c r="N9">
-        <v>1.017318483639636</v>
+        <v>1.017720004345413</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050265947803536</v>
+        <v>1.049361229545533</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045056852539135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043875853056</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024386365025288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010478613421404</v>
+        <v>1.009650968158371</v>
       </c>
       <c r="D10">
-        <v>1.031422213129434</v>
+        <v>1.030072745182054</v>
       </c>
       <c r="E10">
-        <v>1.026035583101633</v>
+        <v>1.025306689679749</v>
       </c>
       <c r="F10">
-        <v>1.035862626666266</v>
+        <v>1.034976312695116</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049676728340663</v>
+        <v>1.049118025490288</v>
       </c>
       <c r="J10">
-        <v>1.038282567652362</v>
+        <v>1.037486842786419</v>
       </c>
       <c r="K10">
-        <v>1.04524639650635</v>
+        <v>1.04391945660409</v>
       </c>
       <c r="L10">
-        <v>1.039950147479579</v>
+        <v>1.03923357812157</v>
       </c>
       <c r="M10">
-        <v>1.0496132147642</v>
+        <v>1.048741525618143</v>
       </c>
       <c r="N10">
-        <v>1.016172146596523</v>
+        <v>1.01702229821695</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047888742979188</v>
+        <v>1.047198908197527</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043099711945479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04217379729234</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023869791772097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008324096746941</v>
+        <v>1.007636451128023</v>
       </c>
       <c r="D11">
-        <v>1.030178238291717</v>
+        <v>1.02896306593519</v>
       </c>
       <c r="E11">
-        <v>1.024631406786474</v>
+        <v>1.024019943562839</v>
       </c>
       <c r="F11">
-        <v>1.034856114116821</v>
+        <v>1.03407618964627</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049311746938687</v>
+        <v>1.048827308176194</v>
       </c>
       <c r="J11">
-        <v>1.037354637366486</v>
+        <v>1.03669495970159</v>
       </c>
       <c r="K11">
-        <v>1.044552627375645</v>
+        <v>1.04335869808175</v>
       </c>
       <c r="L11">
-        <v>1.039103294657261</v>
+        <v>1.038502663213341</v>
       </c>
       <c r="M11">
-        <v>1.049149329079573</v>
+        <v>1.048382872468315</v>
       </c>
       <c r="N11">
-        <v>1.015917035239695</v>
+        <v>1.017082040625843</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047953123648682</v>
+        <v>1.047346866078969</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042641705045548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041813047960845</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02380941430759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007723635149433</v>
+        <v>1.007065462681028</v>
       </c>
       <c r="D12">
-        <v>1.029912160498341</v>
+        <v>1.028722479602264</v>
       </c>
       <c r="E12">
-        <v>1.024347259299999</v>
+        <v>1.023757607797444</v>
       </c>
       <c r="F12">
-        <v>1.034810737266586</v>
+        <v>1.034051378812292</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049295436923093</v>
+        <v>1.048822971129177</v>
       </c>
       <c r="J12">
-        <v>1.037204676093713</v>
+        <v>1.036573780579812</v>
       </c>
       <c r="K12">
-        <v>1.044487884208151</v>
+        <v>1.043319342073346</v>
       </c>
       <c r="L12">
-        <v>1.03902241141972</v>
+        <v>1.038443377577328</v>
       </c>
       <c r="M12">
-        <v>1.049300084451442</v>
+        <v>1.048554046293768</v>
       </c>
       <c r="N12">
-        <v>1.015917549405324</v>
+        <v>1.017186774459232</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048395534702288</v>
+        <v>1.047805623775724</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042595930404718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041785223035714</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023843457769798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00829626401604</v>
+        <v>1.007570451426175</v>
       </c>
       <c r="D13">
-        <v>1.030400353739694</v>
+        <v>1.029143665921321</v>
       </c>
       <c r="E13">
-        <v>1.024922583538799</v>
+        <v>1.024271012064479</v>
       </c>
       <c r="F13">
-        <v>1.035525554356462</v>
+        <v>1.034712875295783</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04956134542002</v>
+        <v>1.049046838629122</v>
       </c>
       <c r="J13">
-        <v>1.037662261340599</v>
+        <v>1.036966373614066</v>
       </c>
       <c r="K13">
-        <v>1.044925261842503</v>
+        <v>1.04369080350128</v>
       </c>
       <c r="L13">
-        <v>1.039544905915831</v>
+        <v>1.038905011782539</v>
       </c>
       <c r="M13">
-        <v>1.049960526573745</v>
+        <v>1.049162031244518</v>
       </c>
       <c r="N13">
-        <v>1.016123458191738</v>
+        <v>1.017302344831216</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049191959268705</v>
+        <v>1.048560725179827</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042902697982148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.04204513925191</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023957432036202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009229454610404</v>
+        <v>1.00841313655667</v>
       </c>
       <c r="D14">
-        <v>1.031085202940825</v>
+        <v>1.029740554678394</v>
       </c>
       <c r="E14">
-        <v>1.025714944402106</v>
+        <v>1.024983067698714</v>
       </c>
       <c r="F14">
-        <v>1.036370833669689</v>
+        <v>1.03548815334445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049875690139551</v>
+        <v>1.049308010104095</v>
       </c>
       <c r="J14">
-        <v>1.038258368009192</v>
+        <v>1.037475220010714</v>
       </c>
       <c r="K14">
-        <v>1.045460011799298</v>
+        <v>1.04413885082384</v>
       </c>
       <c r="L14">
-        <v>1.040184034281522</v>
+        <v>1.039465105736938</v>
       </c>
       <c r="M14">
-        <v>1.050654080865532</v>
+        <v>1.049786606909051</v>
       </c>
       <c r="N14">
-        <v>1.016360985865655</v>
+        <v>1.017389966953869</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.049912175262278</v>
+        <v>1.049226502881726</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043282186001203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04236345970885</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024074189035536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009718108110174</v>
+        <v>1.008859061331527</v>
       </c>
       <c r="D15">
-        <v>1.031424628171462</v>
+        <v>1.030038677881618</v>
       </c>
       <c r="E15">
-        <v>1.026103889594191</v>
+        <v>1.025334696198054</v>
       </c>
       <c r="F15">
-        <v>1.036756295298962</v>
+        <v>1.035840810715063</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050018553881529</v>
+        <v>1.049426470202321</v>
       </c>
       <c r="J15">
-        <v>1.038543438938571</v>
+        <v>1.03771899278941</v>
       </c>
       <c r="K15">
-        <v>1.045708519584815</v>
+        <v>1.044346594049863</v>
       </c>
       <c r="L15">
-        <v>1.040480471626963</v>
+        <v>1.039724781212476</v>
       </c>
       <c r="M15">
-        <v>1.05094853851226</v>
+        <v>1.050048703876304</v>
       </c>
       <c r="N15">
-        <v>1.016466775259113</v>
+        <v>1.017419182561816</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050182184147669</v>
+        <v>1.049470951620086</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.043463693652717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042516714847432</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02412307055588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012206683001394</v>
+        <v>1.011160241493531</v>
       </c>
       <c r="D16">
-        <v>1.033059276233757</v>
+        <v>1.031490360488295</v>
       </c>
       <c r="E16">
-        <v>1.027976176782536</v>
+        <v>1.027045794819107</v>
       </c>
       <c r="F16">
-        <v>1.038484287012161</v>
+        <v>1.037424787955449</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050640360627777</v>
+        <v>1.049943803868282</v>
       </c>
       <c r="J16">
-        <v>1.039868963483975</v>
+        <v>1.038862570583836</v>
       </c>
       <c r="K16">
-        <v>1.04682122922218</v>
+        <v>1.045278329270367</v>
       </c>
       <c r="L16">
-        <v>1.04182278924627</v>
+        <v>1.040908019858146</v>
       </c>
       <c r="M16">
-        <v>1.052157060985428</v>
+        <v>1.051114884281979</v>
       </c>
       <c r="N16">
-        <v>1.016916464955276</v>
+        <v>1.01751722590962</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051098975176887</v>
+        <v>1.050275211676687</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044253534524361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043178901679361</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024313387669146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013628814841709</v>
+        <v>1.012496002214104</v>
       </c>
       <c r="D17">
-        <v>1.033956068453412</v>
+        <v>1.032299990322441</v>
       </c>
       <c r="E17">
-        <v>1.028998881527947</v>
+        <v>1.027995001810222</v>
       </c>
       <c r="F17">
-        <v>1.03936398609408</v>
+        <v>1.038237031634114</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050950800808571</v>
+        <v>1.050206556786828</v>
       </c>
       <c r="J17">
-        <v>1.040573147962314</v>
+        <v>1.039482304543015</v>
       </c>
       <c r="K17">
-        <v>1.047393814430583</v>
+        <v>1.04576443255809</v>
       </c>
       <c r="L17">
-        <v>1.04251686754834</v>
+        <v>1.041529358329528</v>
       </c>
       <c r="M17">
-        <v>1.052715314538817</v>
+        <v>1.051606273454038</v>
       </c>
       <c r="N17">
-        <v>1.017136762107949</v>
+        <v>1.017576035812467</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051412228617316</v>
+        <v>1.050535527564197</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044660924561054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043525394733053</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024399421083562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014251248303394</v>
+        <v>1.013099878724486</v>
       </c>
       <c r="D18">
-        <v>1.034277163754088</v>
+        <v>1.032600691109145</v>
       </c>
       <c r="E18">
-        <v>1.02935869016579</v>
+        <v>1.028340726871244</v>
       </c>
       <c r="F18">
-        <v>1.03955181242251</v>
+        <v>1.03840987996519</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05100936846923</v>
+        <v>1.050256601496306</v>
       </c>
       <c r="J18">
-        <v>1.040786465286747</v>
+        <v>1.039676962634586</v>
       </c>
       <c r="K18">
-        <v>1.047529344203202</v>
+        <v>1.045879460343461</v>
       </c>
       <c r="L18">
-        <v>1.042689192442089</v>
+        <v>1.041687559237692</v>
       </c>
       <c r="M18">
-        <v>1.052721052448707</v>
+        <v>1.051596984731356</v>
       </c>
       <c r="N18">
-        <v>1.017170384926525</v>
+        <v>1.017560656347494</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051181224898167</v>
+        <v>1.050292463069386</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044745240135736</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043594079113483</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024393195807344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014171010789172</v>
+        <v>1.013052930855616</v>
       </c>
       <c r="D19">
-        <v>1.034101526474207</v>
+        <v>1.032457888211395</v>
       </c>
       <c r="E19">
-        <v>1.029135890151573</v>
+        <v>1.028149460239911</v>
       </c>
       <c r="F19">
-        <v>1.039128087001229</v>
+        <v>1.038012245207985</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050856980098465</v>
+        <v>1.050126134299698</v>
       </c>
       <c r="J19">
-        <v>1.040577577435804</v>
+        <v>1.039499924179549</v>
       </c>
       <c r="K19">
-        <v>1.04729495622468</v>
+        <v>1.045677257606272</v>
       </c>
       <c r="L19">
-        <v>1.04240801100473</v>
+        <v>1.041437329192886</v>
       </c>
       <c r="M19">
-        <v>1.05224283916699</v>
+        <v>1.05114437881936</v>
       </c>
       <c r="N19">
-        <v>1.017048829274355</v>
+        <v>1.017467154666003</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050480928225672</v>
+        <v>1.049612134999295</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044585848463074</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043458069326945</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024311082907481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012103466700814</v>
+        <v>1.011161262144989</v>
       </c>
       <c r="D20">
-        <v>1.032515744121503</v>
+        <v>1.031051747256814</v>
       </c>
       <c r="E20">
-        <v>1.027277709439941</v>
+        <v>1.02644886942276</v>
       </c>
       <c r="F20">
-        <v>1.037018277652453</v>
+        <v>1.036042150598008</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050105911873051</v>
+        <v>1.049481372439294</v>
       </c>
       <c r="J20">
-        <v>1.039175663019493</v>
+        <v>1.038268613781766</v>
       </c>
       <c r="K20">
-        <v>1.046009964255094</v>
+        <v>1.044569713401564</v>
       </c>
       <c r="L20">
-        <v>1.040857291767192</v>
+        <v>1.040042061707119</v>
       </c>
       <c r="M20">
-        <v>1.050440005555339</v>
+        <v>1.049479525847776</v>
       </c>
       <c r="N20">
-        <v>1.016486381437026</v>
+        <v>1.01714007076492</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048532622655424</v>
+        <v>1.047772512157947</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04368121039776</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.0426792835735</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024011289344357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007390927661102</v>
+        <v>1.006835266408301</v>
       </c>
       <c r="D21">
-        <v>1.029361408786471</v>
+        <v>1.028272687925607</v>
       </c>
       <c r="E21">
-        <v>1.023655492355287</v>
+        <v>1.023163599641391</v>
       </c>
       <c r="F21">
-        <v>1.033597233927849</v>
+        <v>1.032919324604244</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048861815204267</v>
+        <v>1.048457131355974</v>
       </c>
       <c r="J21">
-        <v>1.036582854704621</v>
+        <v>1.036049961898569</v>
       </c>
       <c r="K21">
-        <v>1.04380708311472</v>
+        <v>1.042737517885589</v>
       </c>
       <c r="L21">
-        <v>1.038202147966392</v>
+        <v>1.037719029060624</v>
       </c>
       <c r="M21">
-        <v>1.04796887748946</v>
+        <v>1.047302763349717</v>
       </c>
       <c r="N21">
-        <v>1.015576805934018</v>
+        <v>1.016949254610915</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046536514541955</v>
+        <v>1.046009334040197</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042126919177682</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041387406113241</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02361963504995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004391289227741</v>
+        <v>1.004080646117296</v>
       </c>
       <c r="D22">
-        <v>1.027364227944225</v>
+        <v>1.026513645474798</v>
       </c>
       <c r="E22">
-        <v>1.021369811268219</v>
+        <v>1.021091817044082</v>
       </c>
       <c r="F22">
-        <v>1.031459256568028</v>
+        <v>1.030970903100259</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048068484280436</v>
+        <v>1.047803515360854</v>
       </c>
       <c r="J22">
-        <v>1.034939946769875</v>
+        <v>1.034642774394459</v>
       </c>
       <c r="K22">
-        <v>1.042412410489291</v>
+        <v>1.04157754567505</v>
       </c>
       <c r="L22">
-        <v>1.03652949120162</v>
+        <v>1.036256709203037</v>
       </c>
       <c r="M22">
-        <v>1.046432240650858</v>
+        <v>1.045952814143998</v>
       </c>
       <c r="N22">
-        <v>1.015002002938366</v>
+        <v>1.016823452240842</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.045320378581447</v>
+        <v>1.044940947063056</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041127469176273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040552597915052</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023371343347512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005974597076406</v>
+        <v>1.005520262246383</v>
       </c>
       <c r="D23">
-        <v>1.028411985673138</v>
+        <v>1.027424726197633</v>
       </c>
       <c r="E23">
-        <v>1.02257345614128</v>
+        <v>1.022170187181918</v>
       </c>
       <c r="F23">
-        <v>1.032585028928241</v>
+        <v>1.031986799060991</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048482983165782</v>
+        <v>1.048136734736639</v>
       </c>
       <c r="J23">
-        <v>1.035802126189444</v>
+        <v>1.035366915009196</v>
       </c>
       <c r="K23">
-        <v>1.043140571104956</v>
+        <v>1.042171091099941</v>
       </c>
       <c r="L23">
-        <v>1.037407836485534</v>
+        <v>1.037011932903467</v>
       </c>
       <c r="M23">
-        <v>1.047238949849659</v>
+        <v>1.046651375439068</v>
       </c>
       <c r="N23">
-        <v>1.015301846381861</v>
+        <v>1.016842443941738</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045958830313916</v>
+        <v>1.045493807903548</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04163275652692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040961765264476</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023495302636358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012108648392087</v>
+        <v>1.011169642020992</v>
       </c>
       <c r="D24">
-        <v>1.032493333624332</v>
+        <v>1.031032280276015</v>
       </c>
       <c r="E24">
-        <v>1.027256496354484</v>
+        <v>1.026430822686649</v>
       </c>
       <c r="F24">
-        <v>1.036969098332387</v>
+        <v>1.035995449130629</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050082100167605</v>
+        <v>1.049459811088099</v>
       </c>
       <c r="J24">
-        <v>1.039148423387127</v>
+        <v>1.038244403294328</v>
       </c>
       <c r="K24">
-        <v>1.045972886493806</v>
+        <v>1.044535502369961</v>
       </c>
       <c r="L24">
-        <v>1.040821287451025</v>
+        <v>1.04000915506719</v>
       </c>
       <c r="M24">
-        <v>1.050376675561598</v>
+        <v>1.049418615922727</v>
       </c>
       <c r="N24">
-        <v>1.016468412973215</v>
+        <v>1.017123485646008</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048442107034159</v>
+        <v>1.047683874913397</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043627874166371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042625300294538</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023996291034566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018993176988219</v>
+        <v>1.017705229642466</v>
       </c>
       <c r="D25">
-        <v>1.03709756539646</v>
+        <v>1.035249328870513</v>
       </c>
       <c r="E25">
-        <v>1.032544307756541</v>
+        <v>1.031410972220024</v>
       </c>
       <c r="F25">
-        <v>1.041927653944101</v>
+        <v>1.040663743535546</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051845010455577</v>
+        <v>1.051012614400601</v>
       </c>
       <c r="J25">
-        <v>1.04289782614193</v>
+        <v>1.041651088435363</v>
       </c>
       <c r="K25">
-        <v>1.049146045799905</v>
+        <v>1.047324022558962</v>
       </c>
       <c r="L25">
-        <v>1.044657580526728</v>
+        <v>1.04354048481465</v>
       </c>
       <c r="M25">
-        <v>1.053908184266336</v>
+        <v>1.052661977697605</v>
       </c>
       <c r="N25">
-        <v>1.01777477581193</v>
+        <v>1.018013051793793</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051237023790208</v>
+        <v>1.05025074860605</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045868581885305</v>
+        <v>1.044593745767954</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024596219221187</v>
       </c>
     </row>
   </sheetData>
